--- a/ЕГЭ Арина Равилова.xlsx
+++ b/ЕГЭ Арина Равилова.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3094704-4EE8-420A-AB2A-5115F32A01C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B582AE-E507-43DB-B5AF-7BE87698E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -232,15 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFC715"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,6 +246,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFABE00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,9 +368,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -412,32 +413,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1">
@@ -449,7 +444,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -458,19 +453,30 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="C ошибками" xfId="5" xr:uid="{922DC132-B90D-4AF8-93ED-4C06A4E3F9D5}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="В планах" xfId="4" xr:uid="{D63E453C-D689-4D2C-9687-DD16B0AA9344}"/>
     <cellStyle name="Изучено" xfId="1" xr:uid="{F9EA2905-B505-4DF2-B757-3CFB6B937701}"/>
     <cellStyle name="Неправильно" xfId="2" xr:uid="{FAA8A681-B47A-43BF-8131-35BA9E398EBB}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Правильно" xfId="3" xr:uid="{3EDBD2DB-A7B3-4CBB-89DD-9F5A20D9123F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFABE00"/>
       <color rgb="FF75ABDD"/>
       <color rgb="FFC03A3A"/>
       <color rgb="FFEFFFFA"/>
@@ -547,8 +553,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -567,7 +573,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -612,8 +618,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>84660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -632,7 +638,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -677,8 +683,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -697,7 +703,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -742,8 +748,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>131160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -762,7 +768,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -807,8 +813,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Ink 23">
@@ -827,7 +833,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Ink 23">
@@ -872,8 +878,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>16195</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -892,7 +898,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -937,8 +943,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>64795</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Ink 28">
@@ -957,7 +963,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Ink 28">
@@ -1002,8 +1008,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>59815</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -1022,7 +1028,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -1067,8 +1073,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>147295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -1087,7 +1093,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -1132,8 +1138,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>182695</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Ink 36">
@@ -1152,7 +1158,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Ink 36">
@@ -1197,8 +1203,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>174840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Ink 47">
@@ -1217,7 +1223,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Ink 47">
@@ -1306,8 +1312,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>110700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Ink 49">
@@ -1326,7 +1332,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Ink 49">
@@ -1371,8 +1377,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>109380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Ink 50">
@@ -1391,7 +1397,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Ink 50">
@@ -1436,8 +1442,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>164700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Ink 51">
@@ -1456,7 +1462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Ink 51">
@@ -1501,8 +1507,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Ink 52">
@@ -1521,7 +1527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Ink 52">
@@ -1610,8 +1616,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>149820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Ink 54">
@@ -1630,7 +1636,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Ink 54">
@@ -1675,8 +1681,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>101820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Ink 55">
@@ -1695,7 +1701,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Ink 55">
@@ -1740,8 +1746,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>184380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="59" name="Ink 58">
@@ -1760,7 +1766,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="59" name="Ink 58">
@@ -1805,8 +1811,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>73675</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Ink 62">
@@ -1825,7 +1831,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Ink 62">
@@ -1914,8 +1920,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>116580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="66" name="Ink 65">
@@ -1934,7 +1940,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="66" name="Ink 65">
@@ -1979,8 +1985,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -1999,7 +2005,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -2044,8 +2050,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Ink 71">
@@ -2064,7 +2070,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Ink 71">
@@ -2109,8 +2115,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>112260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -2129,7 +2135,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -2151,6 +2157,1470 @@
             <a:xfrm>
               <a:off x="4414680" y="2390400"/>
               <a:ext cx="231480" cy="207000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237028</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AF8608-18DE-4522-A91D-CB5541F3D024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8771428" cy="838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>196490</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD374F12-4100-4B98-83C9-854CC8B50105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="454025" y="1368425"/>
+          <a:ext cx="19249665" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377815</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Рукописный ввод 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15BF3092-F50C-4652-8ED6-0FE1F18B66AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8021520" y="2619655"/>
+            <a:ext cx="281095" cy="344520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Рукописный ввод 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15BF3092-F50C-4652-8ED6-0FE1F18B66AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8012781" y="2610655"/>
+              <a:ext cx="298937" cy="362160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>568080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124855</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Рукописный ввод 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB12481C-9DA0-4204-87A9-A9FB8381E6F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4225680" y="3238560"/>
+            <a:ext cx="247975" cy="315295"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Рукописный ввод 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB12481C-9DA0-4204-87A9-A9FB8381E6F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4216563" y="3229832"/>
+              <a:ext cx="265844" cy="333114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545695</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8695</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Рукописный ввод 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BE1AAD-4CB4-49D7-A6BF-2D5EBB3C3AA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2150280" y="3828960"/>
+            <a:ext cx="224215" cy="370735"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Рукописный ввод 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BE1AAD-4CB4-49D7-A6BF-2D5EBB3C3AA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2141151" y="3819891"/>
+              <a:ext cx="242108" cy="388510"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>265200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Рукописный ввод 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F323E5-B044-4F58-A4C9-CE294E686426}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19162800" y="3267000"/>
+            <a:ext cx="371160" cy="325440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Рукописный ввод 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F323E5-B044-4F58-A4C9-CE294E686426}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19154160" y="3258360"/>
+              <a:ext cx="388800" cy="343080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>35335</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>148315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>276895</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106435</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Рукописный ввод 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9A8A31-10DD-4B4C-8DF5-8F8C3965CB66}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19542535" y="1100815"/>
+            <a:ext cx="241560" cy="339120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Рукописный ввод 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9A8A31-10DD-4B4C-8DF5-8F8C3965CB66}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19533535" y="1091815"/>
+              <a:ext cx="259200" cy="356760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>603535</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>276535</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16615</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Рукописный ввод 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D82524-E668-4C34-981C-C051FE2122EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19501135" y="417240"/>
+            <a:ext cx="282600" cy="361375"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Рукописный ввод 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D82524-E668-4C34-981C-C051FE2122EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19492495" y="408160"/>
+              <a:ext cx="300240" cy="379171"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>141535</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>338095</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91075</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Рукописный ввод 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F63A43-CDE5-4E57-9D57-9AF080CF571A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19648735" y="1802095"/>
+            <a:ext cx="196560" cy="384480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Рукописный ввод 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F63A43-CDE5-4E57-9D57-9AF080CF571A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19639584" y="1793455"/>
+              <a:ext cx="214496" cy="402120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>296575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>529855</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130315</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Рукописный ввод 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D45579-628E-403D-A819-E1DDA493D6F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18584575" y="1862575"/>
+            <a:ext cx="233280" cy="363240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Рукописный ввод 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D45579-628E-403D-A819-E1DDA493D6F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18575800" y="1853575"/>
+              <a:ext cx="251196" cy="380880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>251640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>56695</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10615</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Рукописный ввод 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD49F98-1A9A-47F4-A980-E3A93E536285}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18539640" y="434880"/>
+            <a:ext cx="414655" cy="1099735"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Рукописный ввод 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD49F98-1A9A-47F4-A980-E3A93E536285}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18530994" y="426215"/>
+              <a:ext cx="432308" cy="1117426"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Рукописный ввод 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BC9ACA-C4D0-4279-BF78-F66520095FDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3764880" y="3305160"/>
+            <a:ext cx="18360" cy="25200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Рукописный ввод 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BC9ACA-C4D0-4279-BF78-F66520095FDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3755880" y="3296520"/>
+              <a:ext cx="36000" cy="42840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="43" name="Рукописный ввод 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F0CA36-23B6-4B95-9741-566987CF1A42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3241080" y="3254335"/>
+            <a:ext cx="1346400" cy="915120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Рукописный ввод 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F0CA36-23B6-4B95-9741-566987CF1A42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3187094" y="3146313"/>
+              <a:ext cx="1454011" cy="1131526"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>583255</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447415</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31015</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Рукописный ввод 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FA8A35-3EBA-4780-9E29-AD27C378C6D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1802455" y="3806575"/>
+            <a:ext cx="473760" cy="415440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Рукописный ввод 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FA8A35-3EBA-4780-9E29-AD27C378C6D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1748455" y="3698935"/>
+              <a:ext cx="581400" cy="631080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205855</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473205</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111165</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Рукописный ввод 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD1ADA1-F02C-43F8-88E0-D72C5B2D4206}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5692255" y="2572200"/>
+            <a:ext cx="3924950" cy="1729965"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Рукописный ввод 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD1ADA1-F02C-43F8-88E0-D72C5B2D4206}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5638479" y="2463806"/>
+              <a:ext cx="4032864" cy="1946391"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>429895</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>514255</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="56" name="Рукописный ввод 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE042CAA-A285-4638-94D2-A43793CB6B09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18108295" y="3159360"/>
+            <a:ext cx="1303560" cy="1053720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Рукописный ввод 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE042CAA-A285-4638-94D2-A43793CB6B09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18054295" y="3051360"/>
+              <a:ext cx="1411200" cy="1269360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>456240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="68" name="Рукописный ввод 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BE2533-37A3-4A3E-80C5-CC82719E597C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="244735" y="4403880"/>
+            <a:ext cx="1430705" cy="906840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Рукописный ввод 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BE2533-37A3-4A3E-80C5-CC82719E597C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="236095" y="4394880"/>
+              <a:ext cx="1448346" cy="924480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>164815</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="75" name="Рукописный ввод 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB05211-45F5-452B-82EB-D55DEEDA8F7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="164815" y="4391935"/>
+            <a:ext cx="1267625" cy="328385"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="75" name="Рукописный ввод 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB05211-45F5-452B-82EB-D55DEEDA8F7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="155837" y="4383021"/>
+              <a:ext cx="1285221" cy="345856"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>205560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>471895</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12655</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="78" name="Рукописный ввод 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CC8812-B030-47A2-BDDC-F4713C286EDE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13007160" y="2670480"/>
+            <a:ext cx="266335" cy="390175"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="78" name="Рукописный ввод 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CC8812-B030-47A2-BDDC-F4713C286EDE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12998416" y="2661406"/>
+              <a:ext cx="284188" cy="407960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>530640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="81" name="Рукописный ввод 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18B2159-D52C-4211-B47D-95906137251F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16741080" y="3291120"/>
+            <a:ext cx="248760" cy="387360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="Рукописный ввод 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18B2159-D52C-4211-B47D-95906137251F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16732440" y="3282120"/>
+              <a:ext cx="266400" cy="405000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>159240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>585720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="82" name="Рукописный ввод 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A00412-19C9-4F57-BCDB-224C4461A732}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16008840" y="3208680"/>
+            <a:ext cx="1036080" cy="470880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="Рукописный ввод 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A00412-19C9-4F57-BCDB-224C4461A732}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15954840" y="3101040"/>
+              <a:ext cx="1143720" cy="686520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>388800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="Рукописный ввод 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC92449-4410-41E0-8773-F63DC442ACA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12192840" y="2640240"/>
+            <a:ext cx="997560" cy="434520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Рукописный ввод 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC92449-4410-41E0-8773-F63DC442ACA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12139200" y="2532240"/>
+              <a:ext cx="1105200" cy="650160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>408720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144180</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="84" name="Рукописный ввод 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C503AE19-F056-45B0-813F-7FD37F63A3F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1230840" y="4415760"/>
+            <a:ext cx="397080" cy="871920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="Рукописный ввод 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C503AE19-F056-45B0-813F-7FD37F63A3F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1176840" y="4308120"/>
+              <a:ext cx="504720" cy="1087560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2259,14 +3729,14 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">115 91 120 0 0,'-5'-25'2475'0'0,"0"-3"6507"0"0,5 29-9605 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="716.46">5 88 360 0 0,'0'0'36'0'0,"0"0"0"0"0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,12 19 1767 0 0,23 133 1937 0 0,-9-65-3582 0 0,-5-25-1422 0 0,-20-58 961 0 0,0-4 216 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-9-4800 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="716.45">5 88 360 0 0,'0'0'36'0'0,"0"0"0"0"0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,12 19 1767 0 0,23 133 1937 0 0,-9-65-3582 0 0,-5-25-1422 0 0,-20-58 961 0 0,0-4 216 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-9-4800 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1129.33">345 4 1020 0 0,'1'0'87'0'0,"-1"0"-1"0"0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,1 1 31 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 3 0 0 0,1 4 302 0 0,-1 0 0 0 0,0 0 0 0 0,0 12 0 0 0,-1-5-242 0 0,-1-1 0 0 0,0 1 1 0 0,-2-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-2 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-2 1 1 0 0,-15 25-1 0 0,13-23-131 0 0,8-14-28 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-5 3-1 0 0,8-5-16 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,-1 0 11 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 2 0 0 0,28 36-78 0 0,-30-38 51 0 0,17 18-1788 0 0,-16-19 1580 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,2 0 0 0 0,6-2-1215 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1502.64">691 226 476 0 0,'1'0'150'0'0,"-1"0"0"0"0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 10 1429 0 0,-16 23-848 0 0,8-18-176 0 0,6-11-535 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,3-1 1 0 0,0-1 24 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,6-11 0 0 0,-9 14 38 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-3-4-1 0 0,0 3-28 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-8 0 1 0 0,6 0-90 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,-5 5 1 0 0,10-8-127 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 4-1 0 0,-1-5-113 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 1 0 0 0,6 2-1174 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2013.22">1000 184 792 0 0,'18'-9'2040'0'0,"-15"7"-1696"0"0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,6-1 0 0 0,-7 3-147 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,2 5-1 0 0,1 8 200 0 0,47 136 1604 0 0,-35-111-1880 0 0,4-64-87 0 0,-17 16-74 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,12-9 0 0 0,29-3 386 0 0,-46 17-332 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,5 11 306 0 0,-5 22 90 0 0,-1-27-317 0 0,2 4-205 0 0,0 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,7 18 0 0 0,-9-27 23 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2-1 0 0,2 1-292 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,3-3 0 0 0,37-38-3859 0 0,-29 28 2975 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2387.83">1600 133 192 0 0,'13'-19'3607'0'0,"-11"16"-1026"0"0,-1 9-478 0 0,-2 8-1230 0 0,1-4-511 0 0,-1-1-1 0 0,-1 0 1 0 0,-2 10 0 0 0,2-9-190 0 0,0 0 0 0 0,0 0 0 0 0,0 12 1 0 0,1 8 2 0 0,1 23-14 0 0,2-36-137 0 0,1-1 1 0 0,0 0-1 0 0,10 28 0 0 0,-10-38-21 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,11 8 0 0 0,-14-13 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,3-3 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-7-1 0 0,-4 13-3 0 0,12-56 9 0 0,-11 54-10 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-3-3 1 0 0,2 4-9 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-2 2-1 0 0,-1-1-345 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-7 7 0 0 0,2-4-1517 0 0,10-6 1543 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2 3 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3018.6">1881 310 600 0 0,'59'-35'5701'0'0,"-58"34"-5187"0"0,4 17 1494 0 0,-12 30-619 0 0,5-36-1316 0 0,0 0-1 0 0,0 0 0 0 0,0 12 1 0 0,1-9-71 0 0,1-12-3 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,27-7-7 0 0,-1-1-1 0 0,0-2 1 0 0,-1 0 0 0 0,27-16 0 0 0,-51 25 9 0 0,147-80 696 0 0,-154 85-629 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,-5 9 0 0 0,6-11-74 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 8 0 0 0,-1-9 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,4 4 0 0 0,-6-6 5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,3-2 0 0 0,3 0 6 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,4-8-1 0 0,-7 9 84 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-3-7-1 0 0,3 12-67 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-2 0 1 0 0,-4-1-18 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-62 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-14 8 0 0 0,20-10-309 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-5 9 0 0 0,7-13 183 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,12 0-1214 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3804.33">2551 280 172 0 0,'65'-23'5728'0'0,"-65"23"-5659"0"0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-5 22 708 0 0,1-6-201 0 0,-1 88 887 0 0,5-108-1382 0 0,0 3-92 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,39-24-54 0 0,-24 18 80 0 0,-12 4-17 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,5-2 0 0 0,-5 2-57 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,3-5-1 0 0,1 1 13 0 0,-1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,7-12-1 0 0,-9-3 1795 0 0,-4 19 276 0 0,0 16-1320 0 0,1 1-695 0 0,0 3-619 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,4 21 0 0 0,-5-35 327 0 0,-1-1-240 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 5 0 0 0,-2-6 393 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-2-1 0 0,18-10-2078 0 0,-13 3 1169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266.44">2941 304 572 0 0,'5'-9'1246'0'0,"-2"3"-419"0"0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,7-7-1 0 0,-10 12-232 0 0,-6 31 3283 0 0,8 7-2648 0 0,-2-29-1114 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2 11 1 0 0,3-19-95 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 87 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,23-14-421 0 0,-2-2 1 0 0,0 0 0 0 0,-1-2 0 0 0,25-27-1 0 0,-41 39 669 0 0,1-2-4736 0 0,-22 13-2766 0 0,11-1 7218 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 5 0 0 0,1 3 770 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1-2-1 0 0,3 15 0 0 0,-3-10-417 0 0,-3-15-408 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,3 9-43 0 0,-4-11-75 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266.43">2941 304 572 0 0,'5'-9'1246'0'0,"-2"3"-419"0"0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,7-7-1 0 0,-10 12-232 0 0,-6 31 3283 0 0,8 7-2648 0 0,-2-29-1114 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2 11 1 0 0,3-19-95 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 87 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,23-14-421 0 0,-2-2 1 0 0,0 0 0 0 0,-1-2 0 0 0,25-27-1 0 0,-41 39 669 0 0,1-2-4736 0 0,-22 13-2766 0 0,11-1 7218 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 5 0 0 0,1 3 770 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1-2-1 0 0,3 15 0 0 0,-3-10-417 0 0,-3-15-408 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,3 9-43 0 0,-4-11-75 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 2 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4604.45">3335 649 60 0 0,'15'3'1656'0'0,"0"3"156"0"0,-5 0 64 0 0,0-3-607 0 0,5 0-673 0 0,-5 0-432 0 0,0 3-312 0 0,-5-3-312 0 0,0 3-476 0 0,0-3-513 0 0,-5 3-175 0 0,0 0 48 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -2623,7 +4093,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">115 36 84 0 0,'-21'3'19797'0'0,"17"1"-17363"0"0,4-3-2324 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,24 63 2332 0 0,-1-23-1871 0 0,-3-6 66 0 0,44 59 0 0 0,-19-37-154 0 0,48 54 328 0 0,-80-96-696 0 0,-6-6-48 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,11 5 1 0 0,5 11 18 0 0,-47-31-11836 0 0,20 6 10943 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-2-4-1 0 0,-2-6-1780 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="342.73">415 36 620 0 0,'1'-2'717'0'0,"0"-1"-1"0"0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-4 1 0 0,0 3 858 0 0,0 4-1350 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,-40 87 7012 0 0,-2 3-4009 0 0,32-68-2647 0 0,-15 25 1 0 0,3-8-133 0 0,-52 77 184 0 0,34-57-582 0 0,-24 35-1540 0 0,62-91 866 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-7 4-1 0 0,-10 2-5716 0 0,-2-1-3534 0 0,12-5 6078 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="342.72">415 36 620 0 0,'1'-2'717'0'0,"0"-1"-1"0"0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-4 1 0 0,0 3 858 0 0,0 4-1350 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,-40 87 7012 0 0,-2 3-4009 0 0,32-68-2647 0 0,-15 25 1 0 0,3-8-133 0 0,-52 77 184 0 0,34-57-582 0 0,-24 35-1540 0 0,62-91 866 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-7 4-1 0 0,-10 2-5716 0 0,-2-1-3534 0 0,12-5 6078 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2692,6 +4162,206 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:05.801"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 42 56 0 0,'1'0'52'0'0,"0"0"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,21-21 18626 0 0,-12 38-17540 0 0,25 119 1338 0 0,-5-6-1655 0 0,-10-28-371 0 0,-2-20-102 0 0,-17-79-334 0 0,40 188 766 0 0,-37-168-688 0 0,0 0 0 0 0,1 0 0 0 0,12 28 0 0 0,2 17 131 0 0,-16-57-126 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 20-1 0 0,-1-31-58 0 0,0-4-1214 0 0,-7 1-4801 0 0,6 3 5132 0 0,0-1 0 0 0,-15-24-16892 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.92">96 609 316 0 0,'-1'-5'649'0'0,"1"0"0"0"0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-7 1 0 0,-2 8-347 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,7-1 0 0 0,13-5 420 0 0,-1 2 1 0 0,1 0 0 0 0,36-3-1 0 0,-33 7-409 0 0,0 1 0 0 0,1 0 0 0 0,-1 3-1 0 0,0 0 1 0 0,41 9 0 0 0,-53-7-143 0 0,0 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 1 1 0 0,11 25-1 0 0,-9-20 72 0 0,-8-15-187 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 10 1 0 0,-2 2 113 0 0,0-8-68 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-4 12 1 0 0,4-14-12 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-9 3 0 0 0,5-2-34 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-12 1-1 0 0,-12-1-52 0 0,0-2 0 0 0,0-1 0 0 0,-36-5 0 0 0,65 5 0 0 0,-18-2-586 0 0,-46-11 0 0 0,11-8-6029 0 0,57 21 6188 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-3 0 0 0,4-8-2011 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1743.8">51 15 272 0 0,'-5'0'9896'0'0,"13"0"-6602"0"0,20 0-2402 0 0,-14 1-433 0 0,56 1 673 0 0,107-10-1 0 0,-69 2-307 0 0,101 2 1007 0 0,-208 4-1643 0 0,-6 1 746 0 0,0 37-869 0 0,-5 17 20 0 0,10 9 107 0 0,0-41-3815 0 0,-6-47-11462 0 0,2 20 12738 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:12.797"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">94 102 584 0 0,'1'-16'730'0'0,"3"-5"-244"0"0,1-17 1280 0 0,-5 38-1602 0 0,5-16 4736 0 0,-10 71-2068 0 0,20 238 2788 0 0,0-136-3924 0 0,-4-20-756 0 0,-3-17-431 0 0,-6-54-340 0 0,-3-39-297 0 0,-19-42-4842 0 0,18 12 4186 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-3 0 0 0,2-36-3917 0 0,-2 43 4664 0 0,4-27-1879 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1315.67">10 102 460 0 0,'-4'-11'2338'0'0,"3"10"-2207"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,1 1-36 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,28-15 500 0 0,-6 8-208 0 0,1 0 0 0 0,0 2 0 0 0,32-4 0 0 0,-43 8-259 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,17 5 0 0 0,-26-6-37 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,2 6 1 0 0,-3-5 28 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-4 11 1 0 0,0-3 49 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,-18 24 0 0 0,8-16 7 0 0,0 0 0 0 0,-2-2 0 0 0,-32 27 0 0 0,28-28-9 0 0,-32 19 0 0 0,26-25-53 0 0,29-13-112 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,1 1-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 0 0 0,28-13-15 0 0,-8 6 8 0 0,1 1 1 0 0,0 1-1 0 0,1 2 0 0 0,-1 0 1 0 0,1 2-1 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,35 6 1 0 0,-48-3 13 0 0,0 0 0 0 0,0 0 0 0 0,0 2 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 1 0 0,14 8-1 0 0,-19-10 66 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,7 16-1 0 0,-8-16 52 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-4 10-1 0 0,2-8 29 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-15 10 1 0 0,9-9-28 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0-1 0 0,-19 3 1 0 0,-6 3 9 0 0,9-5 19 0 0,0 0 0 0 0,0-2 0 0 0,-1-2 0 0 0,-50-2 0 0 0,50 0-12 0 0,31 0-112 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,9 0 436 0 0,0 3-5929 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:18.034"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">150 121 220 0 0,'0'-2'174'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-2-3 0 0 0,3 4-81 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 2 94 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,0-2-1 0 0,1 2-99 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,4 18 1205 0 0,-1 0-197 0 0,7 72 1851 0 0,-5 62-1218 0 0,-5-137-1635 0 0,10 303 971 0 0,-5-189-761 0 0,-4-76-119 0 0,-1-43-122 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,4 17 0 0 0,-6-25-41 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 6 0 0 0,0 2 29 0 0,1-11-104 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-15-15-5299 0 0,13 15 4689 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,-3-35-5145 0 0,0 16 3692 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="774.97">15 79 96 0 0,'0'-1'182'0'0,"-1"0"-1"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 0 0 0,0 3 202 0 0,-5-22 10172 0 0,18 20-10152 0 0,-1 0 0 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,16 1 0 0 0,7 1 158 0 0,145-15 762 0 0,-60 1-1094 0 0,-4 7-167 0 0,-115 5-103 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-2 0-319 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-2 0 0 0 0,2 0-230 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-2 0 1 0 0,-7 0-1497 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1382.98">125 523 436 0 0,'1'0'90'0'0,"-1"0"0"0"0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 4 3078 0 0,17-10 39 0 0,14-1-1256 0 0,48-5 0 0 0,7-2-606 0 0,-75 11-1329 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,9 2 1 0 0,-18-2-120 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-15 12-6109 0 0,10-9 4584 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2531.05">120 1021 180 0 0,'-9'-9'15171'0'0,"98"5"-11418"0"0,98-21-2114 0 0,-39 3-1095 0 0,-88 19-386 0 0,-54 5-137 0 0,-5-2-18 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,4-1-60 0 0,-28 14-19953 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:23.773"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">46 83 720 0 0,'-38'-31'3101'0'0,"32"21"-932"0"0,5 10-2083 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,4-1 3214 0 0,7 22-872 0 0,0 20-1243 0 0,-2 0 0 0 0,-1 0 0 0 0,-3 1 0 0 0,1 48 0 0 0,-4 22-676 0 0,-3 102-216 0 0,-4-100-183 0 0,3-10-20 0 0,3-57-28 0 0,-1-47-60 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,12-10-35 0 0,244-434-7570 0 0,-214 366 6067 0 0,40-77 109 0 0,-36 72 1970 0 0,-47 84-510 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 17 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-10 79 2245 0 0,9-43-1581 0 0,1 34 414 0 0,5-7-261 0 0,0 1-130 0 0,15 81 1 0 0,-14-105-631 0 0,3 9-24 0 0,1-4-28 0 0,-9-38-11 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,7 15-1 0 0,-9-23-37 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2-1-1 0 0,0 1-7 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,2-3 0 0 0,30-30-365 0 0,6-28-751 0 0,-7 11-764 0 0,50-101 1 0 0,-39 66 847 0 0,-6 2 413 0 0,-10 18 355 0 0,36-89 441 0 0,-14 39 1907 0 0,-46 108-302 0 0,-7 24-518 0 0,3 64 453 0 0,-4 217-714 0 0,-5-145-2147 0 0,3-52-3340 0 0,7-47-1080 0 0,-1-50 4992 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,4 5-1 0 0,12 6-1893 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:28.888"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 1 256 0 0,'-5'0'548'0'0,"5"0"-483"0"0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0 1241 0 0,1 0-1131 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,8 30 1236 0 0,-6-25-1078 0 0,6 20 142 0 0,2-1 0 0 0,0 0 1 0 0,2-1-1 0 0,22 36 0 0 0,16 34-175 0 0,15 30-235 0 0,-30-67-179 0 0,-20-42-80 0 0,-14-16 50 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 2 1 0 0,-5-18-7269 0 0,3 9 5878 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="561.98">670 97 616 0 0,'-3'4'5738'0'0,"-9"10"-4075"0"0,9-10-1461 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-1 7 0 0 0,-2 2 215 0 0,-3 4 201 0 0,-19 27-1 0 0,17-29-235 0 0,-15 30 0 0 0,-33 57 310 0 0,-94 175-59 0 0,70-134-686 0 0,74-128-10 0 0,3-2-312 0 0,-1-1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,-18 19 1 0 0,22-24-664 0 0,5-7 908 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-4-5-1490 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:27.376"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 20 348 0 0,'-3'-11'1332'0'0,"3"11"-1304"0"0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 147 0 0,5 7 577 0 0,-6-6-664 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 3 0 0 0,-7 135 2434 0 0,-1 2-1748 0 0,23 184 1131 0 0,-1-166-1772 0 0,-8 40-598 0 0,-7-189-240 0 0,-4-27-4335 0 0,0-16 1475 0 0,1 11 2019 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="695.89">505 206 288 0 0,'0'-1'67'0'0,"1"1"0"0"0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-5 12 1035 0 0,-8 3-539 0 0,5-7-189 0 0,-82 59 1226 0 0,65-50-1300 0 0,0 1-1 0 0,-42 41 1 0 0,55-48-250 0 0,1 0 0 0 0,-2-1 0 0 0,-20 13 0 0 0,32-23-41 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 20 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,3 2 122 0 0,1 0-1 0 0,-1 0 1 0 0,12 8 0 0 0,-17-13-137 0 0,385 247 2636 0 0,-361-233-2482 0 0,-1 0 1 0 0,-1 2-1 0 0,29 26 1 0 0,-27-19 0 0 0,-24-24-306 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -2730,6 +4400,357 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:38.391"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">210 3 676 0 0,'0'0'39'0'0,"0"1"0"0"0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-11 16 1567 0 0,10-14-1630 0 0,-3 5 264 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 12 1 0 0,-1 4 114 0 0,-39 129 950 0 0,-1 83-395 0 0,19 73-402 0 0,24-253-472 0 0,-5 41 17 0 0,-1 18-280 0 0,10-113 144 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 1-1 0 0,-3-3-2033 0 0,1-10 159 0 0,2-1 479 0 0,-2-3 138 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="593.05">141 87 60 0 0,'4'2'5299'0'0,"7"3"-2583"0"0,-8-4-2596 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,3 5 1 0 0,6 8 301 0 0,3 4-36 0 0,-1 0 0 0 0,0 1 0 0 0,17 43 1 0 0,-21-44-219 0 0,68 179 1227 0 0,-3-6-753 0 0,-18-44-456 0 0,-16-58-188 0 0,-36-82-83 0 0,1 6-1301 0 0,-15-21-3726 0 0,-15-15-743 0 0,15 12 4338 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1345.97">55 690 236 0 0,'-1'0'11381'0'0,"2"0"-11277"0"0,15 1 441 0 0,35 6-102 0 0,92 1 0 0 0,-38-3-2681 0 0,-91-5-549 0 0,1 0 0 0 0,24-3 1 0 0,-32 0 836 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:41.087"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">137 489 228 0 0,'-1'6'3438'0'0,"12"-13"2067"0"0,4-19-4347 0 0,0 2-899 0 0,49-66 20 0 0,-43 57-232 0 0,3-13 131 0 0,-8 11 38 0 0,-2-7 178 0 0,-9 32-244 0 0,-4 9-59 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 3 37 0 0,-1 0-116 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-10 59 402 0 0,9 16 56 0 0,3 90 836 0 0,2-136-1118 0 0,1 30 124 0 0,-4-51-252 0 0,0 0-1 0 0,0 0 0 0 0,4 13 0 0 0,-3-13-7 0 0,0-1 0 0 0,-1 1-1 0 0,1 12 1 0 0,8 36 99 0 0,-5-30-480 0 0,-5-27 9 0 0,-5-9-4218 0 0,4 5 3508 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,-4-5 0 0 0,-3-3-932 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="550.99">412 0 736 0 0,'0'0'932'0'0,"11"4"1018"0"0,-4 0-1403 0 0,-5-3-407 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,3 4 1 0 0,-3-4-55 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,2 4-1 0 0,11 12 462 0 0,17 34 440 0 0,-20-33-653 0 0,-1 1-1 0 0,13 27 1 0 0,-14-22-104 0 0,2 4 308 0 0,17 58 0 0 0,-23-63-327 0 0,-1 0-1 0 0,-1 1 1 0 0,-1 0-1 0 0,-2 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-8 39-1 0 0,0-26-33 0 0,-2 0-1 0 0,-25 56 0 0 0,25-68-159 0 0,3-7-28 0 0,-17 31-1 0 0,-7 12-280 0 0,26-47-517 0 0,-1 0-1 0 0,-1-1 1 0 0,-16 23-1 0 0,23-34 481 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-3 0-1 0 0,-6-3-1413 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1245.43">111 72 480 0 0,'18'-1'6104'0'0,"-40"5"-4628"0"0,21-4-1295 0 0,-9 15 479 0 0,2-3-375 0 0,0 0-1 0 0,1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-4 18 0 0 0,-4 8 100 0 0,8-20-246 0 0,0 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-3 35 0 0 0,5 84 152 0 0,2-88-247 0 0,9 112-672 0 0,7-57-2548 0 0,-15-101 2679 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 1 0 0,5 7-1 0 0,6 4-1293 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:43.560"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">236 1821 344 0 0,'0'0'469'0'0,"10"9"2150"0"0,-10-2-2180 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-5 12-1 0 0,-4 15 162 0 0,-20 59 243 0 0,18-48-688 0 0,2-1 0 0 0,2 2 1 0 0,2-1-1 0 0,-2 63 0 0 0,9-62-270 0 0,1 0 0 0 0,3 0 0 0 0,1-1 0 0 0,3 0 0 0 0,1 0 0 0 0,25 69 0 0 0,-21-80-1020 0 0,1-1 1 0 0,1 0-1 0 0,2-1 1 0 0,24 32-1 0 0,-17-35-292 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="800.91">466 2241 24 0 0,'0'0'58'0'0,"0"-1"1"0"0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1 13 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2 0 0 0,-3-1 289 0 0,5 0-35 0 0,0-2 6 0 0,-2 5-325 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,14-10 176 0 0,-13 8-173 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,3 0-1 0 0,14-4 75 0 0,-13 3-14 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,7 0 0 0 0,-9 1 22 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,3 3-1 0 0,-4-2-29 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 5 0 0 0,0 5 22 0 0,-2 0 0 0 0,1-1-1 0 0,-2 1 1 0 0,1-1 0 0 0,-2 1 0 0 0,0-1-1 0 0,-10 23 1 0 0,-6 2 66 0 0,-24 37 0 0 0,29-51-101 0 0,-20 35 253 0 0,35-58-292 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 0 0 0,32 4 207 0 0,-20-3-673 0 0,0-2 0 0 0,-1 0 0 0 0,27-5 0 0 0,-33 4-110 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,4-6 0 0 0,4-2-860 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1371.05">721 1797 336 0 0,'-9'0'3267'0'0,"14"1"-2990"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 4 0 0 0,10 10 309 0 0,22 28 1 0 0,-33-39-434 0 0,17 22 124 0 0,0 0 1 0 0,-2 2-1 0 0,-1 0 0 0 0,-2 1 1 0 0,-1 1-1 0 0,16 42 0 0 0,-21-38-227 0 0,-1 0 1 0 0,-2 0-1 0 0,-2 1 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-3 1 1 0 0,-10 45-1 0 0,-1-20-1231 0 0,-27 68-1 0 0,26-91-1338 0 0,-1 0 0 0 0,-39 61 0 0 0,38-74 1131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2355.23">262 61 268 0 0,'1'-17'4073'0'0,"-1"17"-4020"0"0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6 5 303 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,0 2 1 0 0,-7 8 0 0 0,-13 15 292 0 0,-3 2 125 0 0,-32 49 1 0 0,50-68-672 0 0,-3 9-18 0 0,1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,2 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-7 45 1 0 0,11-44-58 0 0,0 1 0 0 0,2-1 1 0 0,1 1-1 0 0,1 0 1 0 0,7 39-1 0 0,3-7-79 0 0,25 71 0 0 0,-24-96-237 0 0,1 0-1 0 0,26 46 1 0 0,42 56-2129 0 0,-77-130 2292 0 0,52 94-4503 0 0,-46-81 3314 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5034.11">456 364 56 0 0,'-13'-4'1832'0'0,"13"3"-1758"0"0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,4-10 1177 0 0,-5 10-1225 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,18-18 226 0 0,-6 11-109 0 0,0 0 1 0 0,24-9-1 0 0,-31 14-58 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,9 1 0 0 0,-11 0-26 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,2 5-1 0 0,-2-5-19 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 3 0 0 0,0 2 31 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-8 12 1 0 0,5-11-48 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-11 11-1 0 0,-50 37 4 0 0,9-9-29 0 0,52-37-106 0 0,11-8-76 0 0,23-8-168 0 0,-4 0 354 0 0,-12 4 12 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,13 8 0 0 0,-20-10 14 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,0 4 56 0 0,-1 1-1 0 0,0 0 1 0 0,-2 16-1 0 0,1-11 24 0 0,0-13-52 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,-6 4 1 0 0,-8 4 8 0 0,0-1 0 0 0,0-1 1 0 0,-40 17-1 0 0,41-21-106 0 0,6-2-613 0 0,0 0-1 0 0,-25 4 1 0 0,36-9 456 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-2 1 0 0,-1-9-1568 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5631.93">766 1 120 0 0,'7'0'2360'0'0,"7"2"-1158"0"0,0 6 10 0 0,-10-6-996 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,5 7 0 0 0,56 69 1160 0 0,-34-38-1213 0 0,-3 2-1 0 0,-1 1 0 0 0,-2 0 0 0 0,-2 2 0 0 0,-2 1 1 0 0,-2 1-1 0 0,-2 0 0 0 0,12 61 0 0 0,-21-69-225 0 0,-1 1 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,-2 0 0 0 0,-2 0 0 0 0,-21 63-1 0 0,11-56-989 0 0,-2-1 0 0 0,-3-1 0 0 0,-1-2 0 0 0,-2 0 0 0 0,-2-1 0 0 0,-43 48 0 0 0,36-49-327 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:56.371"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 1 528 0 0,'0'6'1640'0'0,"0"-3"128"0"0,-5 3-91 0 0,5-3-721 0 0,0 3-504 0 0,0-3-248 0 0,0 0-108 0 0,0 0-44 0 0,0 0-20 0 0,-5 0-52 0 0,5 0-168 0 0,-5 0-352 0 0,0 0-472 0 0,0 3-461 0 0,-5 3-175 0 0,-5-3 80 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:57.552"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1640 10 508 0 0,'-5'-5'9542'0'0,"6"13"-8844"0"0,0 0 0 0 0,0 0 0 0 0,4 11 0 0 0,-3-11-281 0 0,0 1 0 0 0,-1-1 0 0 0,1 12 1 0 0,8 23 1190 0 0,-9-28-823 0 0,0 0 0 0 0,5 17 0 0 0,-4-17-155 0 0,1 1 1 0 0,-1 17-1 0 0,-2 221 2307 0 0,0-85-2177 0 0,-1-141-600 0 0,-2 1-1 0 0,-11 46 0 0 0,3-18-4 0 0,9-47-94 0 0,-1 1-1 0 0,1-1 1 0 0,-2 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-14 16 1 0 0,1-6 32 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,-23 13-1 0 0,41-26-87 0 0,-47 28 123 0 0,-1-1-1 0 0,-106 41 0 0 0,29-26 33 0 0,88-28-108 0 0,-9 2-3 0 0,7-5 4 0 0,-41 18-1 0 0,27-10 20 0 0,26-8 0 0 0,-31 17-1 0 0,6-3-23 0 0,-61 38 66 0 0,62-38-14 0 0,10-5 71 0 0,-60 40-1 0 0,92-54-147 0 0,2 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-11 19 0 0 0,-61 174 21 0 0,53-130-56 0 0,-1-4-35 0 0,13-38-337 0 0,-14 52-1 0 0,21-55-1685 0 0,1 0 0 0 0,-4 53 0 0 0,10-73 903 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,2 0 0 0 0,5 8 0 0 0,9 8-1885 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1118.25">1610 1 608 0 0,'-8'9'5933'0'0,"6"-6"-5633"0"0,-3 135 7268 0 0,5-98-5933 0 0,-1-8-577 0 0,1-1-1 0 0,2 0 0 0 0,0 1 1 0 0,11 42-1 0 0,5-1-140 0 0,-10-35-540 0 0,15 43-1 0 0,62 114 522 0 0,-71-170-753 0 0,0 0-1 0 0,2-1 1 0 0,1 0 0 0 0,23 24 0 0 0,-19-27-32 0 0,2-1 0 0 0,0-1-1 0 0,1-1 1 0 0,39 22 0 0 0,-37-25-41 0 0,0-1 0 0 0,1-2-1 0 0,0 0 1 0 0,1-2 0 0 0,0-1 0 0 0,0-1 0 0 0,42 5 0 0 0,-68-12-69 0 0,281 31 261 0 0,11 6-136 0 0,-220-24-42 0 0,137 48 1 0 0,-185-52-47 0 0,-1 1 1 0 0,-1 2 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 2-1 0 0,-1 0 1 0 0,-1 2 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 1 0 0 0,31 43-1 0 0,39 77 123 0 0,-69-103-149 0 0,2 3 6 0 0,-1 2-1 0 0,16 47 1 0 0,-1 13-1139 0 0,17 53-3136 0 0,-44-123 2965 0 0,-1 1-1 0 0,5 64 1 0 0,-8-47-3937 0 0,1 26-3742 0 0,-6-48 6325 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:01:59.862"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">450 27 48 0 0,'-15'-14'2257'0'0,"15"13"-2156"0"0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,-9 7 245 0 0,1-1 1 0 0,0 1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-8 22 0 0 0,-1 5 29 0 0,3 1 0 0 0,-13 56 0 0 0,13-36-151 0 0,3 0 0 0 0,2 0 1 0 0,-1 78-1 0 0,10-113-194 0 0,1 1 1 0 0,0-1 0 0 0,2 0-1 0 0,1 0 1 0 0,1 0 0 0 0,12 31-1 0 0,-11-37-20 0 0,1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,23 21 0 0 0,-12-16-3 0 0,1 0 0 0 0,0-2 0 0 0,1-1 0 0 0,1-1 1 0 0,34 15-1 0 0,-45-24 5 0 0,2-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 1 0 0,0-2-1 0 0,0 0 0 0 0,1 0 0 0 0,29-4 0 0 0,-19-2 18 0 0,1-2-1 0 0,-2 0 1 0 0,1-2 0 0 0,-1-1-1 0 0,-1-1 1 0 0,1-1 0 0 0,31-21-1 0 0,-25 12 137 0 0,-1-1 0 0 0,-1-2 0 0 0,-1-1 1 0 0,51-56-1 0 0,-67 65 185 0 0,-1-2 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,-1 0 1 0 0,9-22-1 0 0,-14 26-59 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,-1-1 0 0 0,-2-19 0 0 0,-2 4 108 0 0,-2 0-1 0 0,-1 0 1 0 0,-1 1 0 0 0,-2 0 0 0 0,-24-54-1 0 0,26 69-325 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 0 0 0,-1 0 0 0 0,-16-9 0 0 0,17 13-55 0 0,0 1-1 0 0,0-1 0 0 0,-1 2 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 2 1 0 0,1 0-1 0 0,-1 0 0 0 0,-20 7 1 0 0,-3 3-87 0 0,2 2 1 0 0,-1 1-1 0 0,2 2 1 0 0,-35 22-1 0 0,15-4-1037 0 0,3 1-1 0 0,1 3 1 0 0,1 2-1 0 0,3 2 1 0 0,-47 55-1 0 0,38-31-2348 0 0,2 3-1 0 0,3 3 1 0 0,-47 90-1 0 0,55-79 1269 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1655.8">766 576 448 0 0,'9'-12'2307'0'0,"-3"12"-1448"0"0,-11 9-211 0 0,-22 28 594 0 0,-32 54 0 0 0,36-54-703 0 0,7-5-120 0 0,16-32-415 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,15-8 107 0 0,108-84-172 0 0,-109 82 39 0 0,-11 7 27 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,7-7-1 0 0,-42 41 503 0 0,10-12-267 0 0,-94 90 2312 0 0,115-108-2511 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,7 1 293 0 0,10-9-250 0 0,126-56 135 0 0,-97 39-183 0 0,98-34-1 0 0,-143 56-30 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-6 10 218 0 0,-19 13 69 0 0,-30 21 1116 0 0,-106 68 0 0 0,144-103-1165 0 0,20-11-132 0 0,27-16-77 0 0,-21 11-21 0 0,185-107 69 0 0,-490 265 568 0 0,232-122-177 0 0,2-1 137 0 0,123-59-498 0 0,-12 6-81 0 0,147-60-30 0 0,-13 7 6 0 0,-183 76 45 0 0,-7 3-23 0 0,-23 8-19 0 0,-41 16-23 0 0,-460 137 2210 0 0,521-160-2107 0 0,5-2-37 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-7-1-1 0 0,12 1-46 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,12-9 8 0 0,76-37-37 0 0,168-64 1 0 0,-141 65-50 0 0,-28 13 43 0 0,-77 28 30 0 0,-16 5-4 0 0,-19 6-13 0 0,-43 18-20 0 0,-183 62 50 0 0,216-73 9 0 0,27-10-106 0 0,0 0-1 0 0,1-1 1 0 0,-2 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-12 1 0 0 0,157-57-15379 0 0,-93 36 12161 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:02:04.083"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5195 57 788 0 0,'-20'-57'18524'0'0,"21"66"-17996"0"0,7 16 625 0 0,-1-6-694 0 0,-1 1 0 0 0,0 0 0 0 0,5 40 0 0 0,-5-24-127 0 0,3 27 415 0 0,3 94-1 0 0,-12 66 39 0 0,-1-93-423 0 0,-2-67-93 0 0,-19 118 1 0 0,0-77-116 0 0,3-42-82 0 0,17-53-48 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-9 14 0 0 0,-2 5 63 0 0,7-15-50 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-20 18 0 0 0,7-6 15 0 0,11-12-28 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 1 0 0,-22 11-1 0 0,-69 26 84 0 0,3-2-44 0 0,71-30-39 0 0,-45 13 0 0 0,37-14-11 0 0,-68 23 25 0 0,-1-5 0 0 0,-134 22 0 0 0,113-30-45 0 0,41-6-21 0 0,0-4-1 0 0,-109 3 1 0 0,-341 17 133 0 0,527-32-103 0 0,-123 13 31 0 0,-155 37 0 0 0,206-24-1 0 0,-3 0 92 0 0,73-24-91 0 0,0 1 0 0 0,0 1 1 0 0,1 0-1 0 0,-11 6 0 0 0,-5 3 49 0 0,17-9-45 0 0,1 0-1 0 0,-1 0 1 0 0,-11 12-1 0 0,-5 2 57 0 0,6-3 7 0 0,0 0-1 0 0,2 1 1 0 0,-27 33 0 0 0,-1 1 118 0 0,20-26-62 0 0,2 1-1 0 0,1 1 1 0 0,2 1 0 0 0,-30 52 0 0 0,35-48-25 0 0,3 1 0 0 0,-10 36 0 0 0,15-45-65 0 0,-53 154 474 0 0,38-112-378 0 0,12-47-117 0 0,8-16-36 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-2 7 0 0 0,1-2 9 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-8 7 1 0 0,4-6-17 0 0,1-2-1 0 0,-2 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-17 6 1 0 0,-11 2 29 0 0,-54 8 0 0 0,41-10 6 0 0,-45 10 13 0 0,-120 29 59 0 0,21 2-34 0 0,-189 57 25 0 0,288-79-68 0 0,42-14 7 0 0,-77 33 0 0 0,110-39-2 0 0,0 1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 1-1 0 0,2 2 1 0 0,-1-1 0 0 0,2 2-1 0 0,0 0 1 0 0,1 1 0 0 0,0 1-1 0 0,2 0 1 0 0,0 1 0 0 0,0 0 0 0 0,-15 33-1 0 0,7-2-7 0 0,2 0-1 0 0,2 1 0 0 0,2 1 1 0 0,-11 74-1 0 0,-10 64-513 0 0,-15 110-3292 0 0,36-213 393 0 0,1-7-5740 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2256.81">5226 192 352 0 0,'-30'-62'14169'0'0,"21"109"-11394"0"0,-2-2-963 0 0,5-24-721 0 0,-4 31 1 0 0,-1 6-50 0 0,7-41-763 0 0,0 0-1 0 0,2 1 1 0 0,-1 18 0 0 0,0 48 468 0 0,0-43-248 0 0,5 53 0 0 0,-1-68-319 0 0,0-10-15 0 0,1 1 0 0 0,7 32 0 0 0,6 27 216 0 0,-6-46-243 0 0,-1 2 18 0 0,2 0 1 0 0,1-1-1 0 0,2-1 1 0 0,16 30-1 0 0,36 39 197 0 0,-55-86-314 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1-1 0 0 0,19 13 0 0 0,5 3 49 0 0,0-3 0 0 0,2-1 1 0 0,46 18-1 0 0,-34-19 32 0 0,-18-8-17 0 0,0-1 0 0 0,50 11 0 0 0,153 13 145 0 0,60 0-189 0 0,20-12 80 0 0,-207-24-120 0 0,304-9 146 0 0,-380 6-150 0 0,334-22 71 0 0,1 20-109 0 0,-364 6 23 0 0,303 22-22 0 0,-293-21 42 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,13 12 0 0 0,-7-3 53 0 0,0 0 0 0 0,-2 1-1 0 0,0 0 1 0 0,0 2 0 0 0,-2 0 0 0 0,-1 0 0 0 0,19 38 0 0 0,26 68 237 0 0,11 23-1 0 0,-26-31-112 0 0,20 47-5 0 0,-39-107-153 0 0,30 58 4 0 0,-31-71-34 0 0,15 23-3 0 0,-7-20-18 0 0,-12-16 1 0 0,2 0 0 0 0,1-2 1 0 0,1-1-1 0 0,28 28 1 0 0,-9-20 20 0 0,2-1 1 0 0,0-2 0 0 0,3-2 0 0 0,0-2-1 0 0,59 26 1 0 0,5-4-15 0 0,1-5 0 0 0,3-5 0 0 0,126 28 0 0 0,23-3-39 0 0,-216-51 86 0 0,-1 3 0 0 0,-1 1-1 0 0,64 37 1 0 0,-88-43-19 0 0,-2 1 1 0 0,0 1-1 0 0,30 31 1 0 0,43 59 120 0 0,-69-76-75 0 0,-1 1 0 0 0,-2 1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-1 2 0 0 0,23 67 0 0 0,-22-39 78 0 0,-2 0 0 0 0,-4 1 1 0 0,5 75-1 0 0,-12-101-102 0 0,3 38-40 0 0,-3 1 1 0 0,-9 116-1 0 0,2-146-380 0 0,-6 32-1457 0 0,7-69 971 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,-5 7 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3706.84">1710 2034 340 0 0,'-38'8'-5'0'0,"-71"27"-1"0"0,33-9-83 0 0,75-26 93 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 0 16 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,13-39 581 0 0,-13 38-570 0 0,11-35 531 0 0,-8 26-213 0 0,0 0 0 0 0,10-21 0 0 0,2-7 697 0 0,17-54 10878 0 0,-35 97-11614 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 6 0 0 0,-29 141 3266 0 0,15-27-2313 0 0,1 9-331 0 0,11-83-674 0 0,1-23-49 0 0,2 41-1 0 0,1-61-187 0 0,2 44 151 0 0,2 1 0 0 0,20 89 0 0 0,-12-92-93 0 0,3-2 0 0 0,2 0 1 0 0,27 52-1 0 0,-33-78-28 0 0,1 5 73 0 0,2 0-1 0 0,1-1 1 0 0,19 23-1 0 0,-18-27 13 0 0,2-2 0 0 0,0 1 0 0 0,36 26 0 0 0,-42-36-73 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,0 0 0 0 0,28 7 1 0 0,26-3 51 0 0,1-2 1 0 0,0-4 0 0 0,81-6 0 0 0,43 2 16 0 0,-151 3-48 0 0,0 2-1 0 0,64 14 0 0 0,-74-9 60 0 0,-1 1 0 0 0,0 1 1 0 0,0 2-1 0 0,55 33 0 0 0,-39-16 65 0 0,-1 2-1 0 0,45 42 0 0 0,-62-47-69 0 0,-2 1 1 0 0,-1 2-1 0 0,38 54 1 0 0,52 106 290 0 0,-57-91-327 0 0,-25-41-102 0 0,-3 1 0 0 0,39 104 0 0 0,-53-118-126 0 0,21 68-1078 0 0,-29-80 345 0 0,11 51-3343 0 0,-14-26-1778 0 0,-6-31 2178 0 0,-2 42-5630 0 0,-6-39 5951 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5212.92">8926 1491 608 0 0,'-47'-16'1909'0'0,"27"9"-1114"0"0,-1 1 0 0 0,-61 5 10877 0 0,85 10-10942 0 0,-2 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,-4 15 1 0 0,0 8 60 0 0,-23 124 1288 0 0,6-47-1040 0 0,-4-1-58 0 0,2-6-126 0 0,13-59-526 0 0,-2-2-1 0 0,-1 1 1 0 0,-20 40 0 0 0,21-52-165 0 0,6-17-81 0 0,1 0 0 0 0,-2-1 0 0 0,1 0-1 0 0,-2 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,-17 12 1 0 0,-47 34 290 0 0,19-26-169 0 0,-1-1 0 0 0,-60 20 1 0 0,-38 10 59 0 0,-170 81 73 0 0,203-88-336 0 0,30-14 0 0 0,-174 100 0 0 0,180-87 0 0 0,56-36 0 0 0,1 2 0 0 0,0 1 0 0 0,2 1 0 0 0,0 1 0 0 0,-26 27 0 0 0,30-23 0 0 0,11-13 0 0 0,1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,-9 14 0 0 0,3 1 0 0 0,1 0 0 0 0,-13 42 0 0 0,20-49 0 0 0,-3 10 0 0 0,-11 55 0 0 0,0 20 0 0 0,-6 38 0 0 0,1 75-3598 0 0,-20 132-5637 0 0,32-193-6215 0 0,15-122 12406 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:02:11.804"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF2500"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1624 79 1620 0 0,'-42'-28'12545'0'0,"43"49"-10673"0"0,5 25-244 0 0,3-7-704 0 0,12 63 993 0 0,-9-34-929 0 0,-5-30-499 0 0,-2 0 0 0 0,1 43 0 0 0,-5-31-71 0 0,-2 1 0 0 0,-3-1-1 0 0,-17 90 1 0 0,12-101-233 0 0,-2 0 0 0 0,-2-1 0 0 0,-28 59 0 0 0,21-60-36 0 0,-1-1 0 0 0,-2 0 0 0 0,-2-2 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-2-1 0 0 0,-37 30 0 0 0,53-51-110 0 0,-1 0 1 0 0,0-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-19 4 0 0 0,12-6-33 0 0,0 0 0 0 0,1-1 0 0 0,-1-2 0 0 0,0 0 1 0 0,-34-4-1 0 0,-5-2 15 0 0,0 2-1 0 0,-1 3 1 0 0,1 3 0 0 0,-113 20-1 0 0,148-16 79 0 0,1 1-1 0 0,1 1 0 0 0,-1 1 0 0 0,2 2 0 0 0,-1 0 0 0 0,1 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,-19 25 0 0 0,12-9-10 0 0,1 1 0 0 0,1 2 0 0 0,2 0 1 0 0,2 1-1 0 0,1 2 0 0 0,3 0 0 0 0,-17 54 1 0 0,26-65-503 0 0,1 0 1 0 0,2 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,2-1 1 0 0,5 45 0 0 0,0-40-2415 0 0,2 0-1 0 0,1-1 1 0 0,18 49 0 0 0,32 12-8731 0 0,-38-75 8862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1093.09">1849 22 1172 0 0,'-28'-21'7331'0'0,"23"20"-6900"0"0,-27 13 4190 0 0,27-8-4266 0 0,1 0 23 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-2 6 0 0 0,-16 48 1992 0 0,11-27-1300 0 0,-9 30 614 0 0,-21 116 1 0 0,33-139-1383 0 0,-11 53 267 0 0,4 1 0 0 0,-3 130-1 0 0,16-194-509 0 0,2-1-1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 1 0 0,13 46-1 0 0,-1-25 8 0 0,-8-23-25 0 0,1-1 0 0 0,22 45 0 0 0,-4-18-3 0 0,-20-36-11 0 0,0 0 0 0 0,0-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 0 0 0 0,14 12 0 0 0,-15-17-10 0 0,9 7 57 0 0,31 22 0 0 0,-34-27-49 0 0,13 7 54 0 0,55 25 0 0 0,327 99 130 0 0,-153-84-84 0 0,-58-15-16 0 0,-160-31-19 0 0,0 3 1 0 0,0 1-1 0 0,-2 1 0 0 0,57 34 1 0 0,-27-8 146 0 0,84 69 1 0 0,-34-5 18 0 0,-99-86-220 0 0,-1 0 0 0 0,0 2 0 0 0,-2-1 0 0 0,0 2-1 0 0,-1 0 1 0 0,-2 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-2-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,3 30 0 0 0,2 25-205 0 0,7 64-2317 0 0,-17-114 1271 0 0,0-12-664 0 0,-1-1 0 0 0,-2 35 1 0 0,-4-1-3354 0 0,-10 54-6053 0 0,5-68 8279 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:02:31.105"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1119 69 480 0 0,'-1'-2'178'0'0,"1"0"1"0"0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 1-58 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-2-1 0 0,1-2 630 0 0,8-15 10801 0 0,-9 29-10985 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,3 8-1 0 0,-3-13-507 0 0,13 55 1947 0 0,-4-25-1660 0 0,-2 0 0 0 0,-1 0 0 0 0,3 45 0 0 0,-4-31-168 0 0,-5-27-140 0 0,0 1-1 0 0,-1 0 0 0 0,-3 20 1 0 0,0 19 24 0 0,1-40-3 0 0,0-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,-10 26 0 0 0,12-36-32 0 0,-3 6 22 0 0,-1-1 0 0 0,-10 19 1 0 0,4-9 9 0 0,8-16-43 0 0,-47 86 152 0 0,44-82-127 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-12 9 0 0 0,14-13-9 0 0,-3 3 29 0 0,0-1 1 0 0,-1 0-1 0 0,-16 8 0 0 0,-144 49 364 0 0,92-37-340 0 0,67-22-66 0 0,-25 8 100 0 0,0 1-1 0 0,-52 29 1 0 0,80-37-89 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-10 15 0 0 0,15-16-6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 16 1 0 0,2-22-17 0 0,-1 32 58 0 0,1 0 1 0 0,1 0-1 0 0,2 0 1 0 0,1-1 0 0 0,10 40-1 0 0,22 69-76 0 0,-15-70-791 0 0,-19-68 588 0 0,7 40-3079 0 0,-8-22-1394 0 0,-9-3-3800 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.19">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2750.49">3424 1398 696 0 0,'19'-45'3038'0'0,"-17"40"-2652"0"0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1-8-1 0 0,3-4 10275 0 0,-7 32-6263 0 0,-17 98-1313 0 0,-3 18-1799 0 0,3-13-518 0 0,3-7-244 0 0,5-27-261 0 0,-25 239 47 0 0,34-239-391 0 0,2-47-1290 0 0,0-36 298 0 0,2-5 400 0 0,2-6-277 0 0,10-148-8280 0 0,-9 73 6397 0 0,-1 28 1459 0 0,16-187-1712 0 0,-2 1 3380 0 0,-17 220-51 0 0,0-14 1063 0 0,1 0 0 0 0,15-59 1 0 0,-17 91-914 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,5-6 0 0 0,-6 9-237 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 41 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 3 1 0 0,4 4 335 0 0,1 1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 14 0 0 0,29 70 756 0 0,-16-34-598 0 0,17 48 162 0 0,-19-45-503 0 0,-4-8-102 0 0,12 27 31 0 0,74 171 259 0 0,-62-136-384 0 0,4 12-94 0 0,-41-119-391 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 16-1 0 0,-6-30-274 0 0,-2 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6-4 1 0 0,-99-69-15484 0 0,98 68 14987 0 0,-11-10-1197 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.45">3343 2046 584 0 0,'-10'-12'20655'0'0,"40"18"-16310"0"0,44 1-3137 0 0,1-4-1 0 0,97-7 0 0 0,-168 4-1174 0 0,235-18 416 0 0,-220 15-2425 0 0,-15 2-1475 0 0,-12 2 78 0 0,-6 1-632 0 0,-46 4-8703 0 0,39-5 9653 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4946.9">23 2438 720 0 0,'-22'-18'9623'0'0,"26"16"-7412"0"0,-1 11-1244 0 0,-3-6-844 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 4 0 0 0,2 2 33 0 0,-3-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-3-3-38 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-3 185 0 0,-8 5-168 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 1 82 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,2 2-64 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-5 1 0 0 0,7-2-64 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,16 16-76 0 0,-15-15 81 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,3 1 0 0 0,-4 0 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,2-6 40 0 0,-2 8-40 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-3-6 170 0 0,3 7-160 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-5 2 24 0 0,4-2-41 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 3-1 0 0,-11 18-5641 0 0,11-13 346 0 0,1 2-3369 0 0,1-6 6300 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5826.61">504 2370 692 0 0,'-5'-3'7703'0'0,"9"2"-6389"0"0,-4 2-1255 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 643 0 0,-1-1-643 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 234 0 0,0-1-235 0 0,-2 15 441 0 0,2-13-494 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,2 2 1 0 0,3 10-7 0 0,-5-12 1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,2 1-1 0 0,21 3 97 0 0,-21-3-63 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,3-2 0 0 0,-1-2 48 0 0,0-3 790 0 0,-12 2 449 0 0,4 4-1047 0 0,3 2-202 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-2 3 0 0 0,-25 17 165 0 0,25-16-237 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-3 9 0 0 0,5-13-1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1 2 8 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,6-1 0 0 0,-4 0-6 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,10-7 1 0 0,-12 8 54 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1-7 0 0 0,-2 9-1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,-2-1 6 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-8 3 1 0 0,11-4-77 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 2 0 0 0,-4 4-1042 0 0,7-7 1028 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-33 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-4 6-2052 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6876.03">1049 2450 480 0 0,'-5'-3'7000'0'0,"20"-2"315"0"0,-15 7-7277 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,4 1 0 0 0,-4-1-2 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1-4-1 0 0,-1 5 64 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-3 0-1 0 0,0 1-5 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4 2 0 0 0,1-2-48 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-10 7 1 0 0,14-7-47 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-2 4 0 0 0,3-2-5 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,3 5 1 0 0,-3-7 7 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,3 1-1 0 0,-2-1 1 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5-3 0 0 0,0 0 21 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,10-12-1 0 0,-16 17 12 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-3 0 0 0,-5-8 207 0 0,5 12-212 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-2-24 0 0,0 2 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-3 5 1 0 0,3-4-281 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 3 1 0 0,-1-4-501 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-6-1-2064 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7819.13">539 2516 532 0 0,'-4'-5'1597'0'0,"-1"-8"4737"0"0,5 13-6217 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 234 0 0,-1 0-235 0 0,1 0 405 0 0,29 0 2108 0 0,-30 1-2614 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,2-2 82 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-5-1 0 0,-1 6 139 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2-6 0 0 0,3 8-183 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-2-54 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,0-2 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2-1 0 0 0,1 1 18 0 0,-3-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,3-2-1 0 0,-3 2 21 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-1-1 1 0 0,-9-15 939 0 0,11 18-959 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-4 1 21 0 0,5-1-40 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 3-11 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,7 5-1 0 0,-9-7 20 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,2-2 1 0 0,-4 2 10 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,-12-11 521 0 0,-22-4 21 0 0,-2 9-291 0 0,34 5-507 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-3 1 1 0 0,1 9-4168 0 0,4-11 4146 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,13-3-3121 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:02:47.692"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3395 450 524 0 0,'-12'5'3052'0'0,"12"-9"-86"0"0,17-18 476 0 0,-12 16-3740 0 0,6-9 718 0 0,-2 0-1 0 0,0-1 1 0 0,14-32-1 0 0,-16 33-234 0 0,-1-1 17 0 0,8-32-1 0 0,-3 8-105 0 0,0 4 98 0 0,-2 0 1 0 0,5-45 0 0 0,-14 50 294 0 0,1 29-430 0 0,-2 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-2-2-1 0 0,-7 22 627 0 0,1 35-63 0 0,2 1-1 0 0,2 0 1 0 0,4 77 0 0 0,28 168-979 0 0,-25-261-1439 0 0,-1 1 0 0 0,-5 54 0 0 0,0 8-5945 0 0,4-71 5330 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1042.06">155 414 200 0 0,'-8'-24'603'0'0,"4"10"0"0"0,0 0 0 0 0,-2 1 0 0 0,-11-24 0 0 0,11 22 108 0 0,6 14-640 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2-1 0 0 0,0 1 109 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-3-1-1 0 0,4 2-98 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 2 1 0 0,-4 9 164 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 20 0 0 0,7 63 550 0 0,-4-85-704 0 0,4 30 134 0 0,2 0 1 0 0,2 0-1 0 0,24 63 1 0 0,-29-92-213 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 0 0 0,17 11 0 0 0,-24-16-2 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,2-2 0 0 0,4-4 10 0 0,-1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,7-17 0 0 0,2-10 28 0 0,-1-1 1 0 0,16-62-1 0 0,-26 79 9 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,-1-1 0 0 0,-4-29 0 0 0,3 44-32 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-12-10-1 0 0,10 9-21 0 0,0 1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,-12 1 1 0 0,0 0-51 0 0,1 2 1 0 0,0 0 0 0 0,-35 9 0 0 0,43-8-215 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-11 8 0 0 0,18-11-166 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,1 10 0 0 0,3 21-1690 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -2759,6 +4780,174 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">323 276 148 0 0,'-7'1'367'0'0,"6"-1"-339"0"0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 225 0 0,-10-17 477 0 0,20-11-160 0 0,-10 28-528 0 0,-16 10 30 0 0,2-1-70 0 0,11-7 1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-4 3 0 0 0,0 1 11 0 0,-2-1 0 0 0,1 1 0 0 0,-11 4-1 0 0,14-7 2 0 0,22-16 55 0 0,-1-1 0 0 0,22-23 0 0 0,21-22-22 0 0,-21 17-17 0 0,-25 26 75 0 0,-15 12-48 0 0,-11 7-37 0 0,-13 10-32 0 0,0 2 1 0 0,-40 29 0 0 0,55-36 11 0 0,0 1 0 0 0,0 1 0 0 0,-9 10 0 0 0,19-17 151 0 0,8-6-32 0 0,8-6-19 0 0,-4-1 35 0 0,-1-1-1 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,13-23 0 0 0,-21 35-129 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-8 3 43 0 0,-7 9-109 0 0,7-2 37 0 0,7-9 26 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 3 0 0 0,0 0 247 0 0,7-9 449 0 0,-4 3-663 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1-4 0 0 0,0 6 10 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 4-43 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,3 6-4 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,6 5-1 0 0,2 3-10 0 0,89 104 10 0 0,-89-104 49 0 0,23 23 1 0 0,-23-24-14 0 0,0-1 0 0 0,11 16 0 0 0,-12-14 130 0 0,0 0 0 0 0,17 15 0 0 0,-20-21 1512 0 0,-9-11-217 0 0,-2-4-1368 0 0,-81-194 1107 0 0,34 89-1150 0 0,44 100-56 0 0,-3-7-39 0 0,9 19 23 0 0,2 4 15 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 3-1 0 0,-1-3 5 0 0,69 147-49 0 0,-49-106 38 0 0,7 9 24 0 0,-27-47 3 0 0,4 2 85 0 0,0-4 201 0 0,-7-4 315 0 0,-11-14 22 0 0,-47-87 52 0 0,57 97-687 0 0,-2-5 6 0 0,0 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-9-6 1 0 0,6 6-9 0 0,6 5 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-4-6 1 0 0,6 8 4 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-2 2 0 0 0,-30 29 57 0 0,19-19-40 0 0,-230 226 291 0 0,161-143-252 0 0,82-94-45 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 2 0 0 0,0-4 16 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,143-151 436 0 0,101-152-311 0 0,-222 272-169 0 0,-28 40 3 0 0,-164 211-102 0 0,111-130 88 0 0,-60 101 75 0 0,115-185-39 0 0,2-4 5 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0-3 102 0 0,2-3-68 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,4-4-1 0 0,-2 2-16 0 0,23-31 6 0 0,27-46 0 0 0,-1-1 8 0 0,18-20-5 0 0,26-37 7 0 0,-43 69-56 0 0,-54 71 7 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,13 13-29 0 0,12 31-37 0 0,-13-21 46 0 0,-2-6 68 0 0,-1 0 1 0 0,10 26 0 0 0,7 15 82 0 0,15 16 235 0 0,63 86 0 0 0,-85-135 521 0 0,18 34 2327 0 0,-41-64-2610 0 0,-7-12-531 0 0,-61-146 254 0 0,-36-92-587 0 0,91 216-1513 0 0,1 18-4224 0 0,-1 24-4017 0 0,11-1 8218 0 0,-8 4-1164 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:03:06.254"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">71 24 20 0 0,'2'-3'443'0'0,"-2"3"-419"0"0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-9 7373 0 0,0 15-4496 0 0,0 9-1956 0 0,10 111 3624 0 0,-10-90-3402 0 0,-8 61-1 0 0,-26 229 1814 0 0,2-14-1838 0 0,29-285-962 0 0,0 33 1 0 0,8-69-2740 0 0,-8-23-7656 0 0,1 1 3449 0 0,2 13 3564 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2329.19">691 96 508 0 0,'9'-6'2067'0'0,"-2"0"452"0"0,-7 6-2463 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-15 3 3867 0 0,14-2-3657 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-3 3 0 0 0,-22 23 813 0 0,-16 9-292 0 0,-84 57 0 0 0,2-3-275 0 0,16-13 19 0 0,62-47-220 0 0,37-25-198 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,1 0 0 0 0,-14 14 1 0 0,10-11 7 0 0,1 1 383 0 0,11-11-480 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,3 1 7 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,4 6-1 0 0,8 5 212 0 0,5 7 126 0 0,-17-17-318 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,6 4-1 0 0,4 3 62 0 0,100 74 212 0 0,133 105 17 0 0,-229-172-235 0 0,0 0 0 0 0,15 19-1 0 0,-12-14 183 0 0,-3-7 6 0 0,-17-13-260 0 0,-1 0-27 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,2 2-2 0 0,-3-1 20 0 0,-1 4 33 0 0,0-4-56 0 0,0-1-1 0 0,0 2-6 0 0,0-1 39 0 0,5-2 91 0 0,-5 2-127 0 0,-1-4 17 0 0,2 3-21 0 0,-5 0 14 0 0,-6 7-8122 0 0,-15 3-2717 0 0,24-9 10367 0 0,-14 5-2991 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:03:13.483"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 43 12 0 0,'-5'9'29101'0'0,"12"-9"-28072"0"0,-4 0-312 0 0,-7 0-757 0 0,3 0 603 0 0,5 0-510 0 0,-8 0 1146 0 0,4 0-1194 0 0,1 10 10 0 0,0-1 1 0 0,0 0-1 0 0,4 17 0 0 0,-3-18-8 0 0,0-1-1 0 0,-1 1 0 0 0,1 13 1 0 0,-1-11-2 0 0,0 0 1 0 0,0-1-1 0 0,4 13 1 0 0,-3-13-5 0 0,0 0 1 0 0,0 1 0 0 0,-1 11-1 0 0,1 1 3 0 0,0 0-1 0 0,2-1 1 0 0,7 28-1 0 0,1 4-8 0 0,12 47-4 0 0,-15-70 11 0 0,3 15 4 0 0,-7-33-9 0 0,4 21-12 0 0,-8-32-12 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,1 1-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1142.72">678 79 28 0 0,'0'-1'188'0'0,"0"0"-1"0"0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-73 0 0,0-10 3476 0 0,-3-14 2682 0 0,0 15-574 0 0,-1 8-3084 0 0,-5 5 629 0 0,-4 9-1927 0 0,-5 22-331 0 0,-34 53-1 0 0,11-22-385 0 0,-31 50 136 0 0,16-31-379 0 0,18-28-167 0 0,-43 63 84 0 0,-22 37-86 0 0,31-45-132 0 0,24-37-11 0 0,-18 32 98 0 0,61-101-138 0 0,0 5 11 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2-1 0 0 0,-8 11-1 0 0,11-14-85 0 0,9-4 556 0 0,6-3-2253 0 0,-9 2 2623 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:03:21.883"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#00F900"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2877 509 316 0 0,'-5'-18'11039'0'0,"6"17"-10957"0"0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-2-1 0 0,-4-7 71 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-14-10 0 0 0,-10-5 31 0 0,-1 2 0 0 0,-62-30 0 0 0,11 13 262 0 0,0 5-1 0 0,-178-45 1 0 0,141 53 295 0 0,-211-17 0 0 0,208 38-106 0 0,-1 5-1 0 0,1 5 1 0 0,0 6-1 0 0,0 5 1 0 0,2 6-1 0 0,-189 60 1 0 0,285-75-507 0 0,-247 89 838 0 0,237-81-837 0 0,2 2-1 0 0,0 1 0 0 0,2 1 1 0 0,0 2-1 0 0,-42 37 0 0 0,66-51-99 0 0,0 0-1 0 0,1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-6 15-1 0 0,-2 8 41 0 0,10-24-31 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-3 19 1 0 0,5-14-3 0 0,0-1 1 0 0,2 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,11 21-1 0 0,-4-11 4 0 0,1-1 1 0 0,1 0-1 0 0,1-1 0 0 0,1-1 0 0 0,23 22 0 0 0,-20-23-20 0 0,2-1 1 0 0,0-1-1 0 0,1-2 1 0 0,36 20 0 0 0,102 39 16 0 0,-141-65-24 0 0,63 24 64 0 0,103 25 0 0 0,89 8-1 0 0,-211-52-72 0 0,23 2 0 0 0,150 6 0 0 0,-168-17-17 0 0,1-1-19 0 0,0-2 0 0 0,0-4 0 0 0,0-3 0 0 0,0-2 0 0 0,126-34 0 0 0,-168 34 39 0 0,-2-2 1 0 0,1-1 0 0 0,-2-2 0 0 0,1 0-1 0 0,24-18 1 0 0,105-92 100 0 0,-131 101-82 0 0,-1 0-1 0 0,-1-1 1 0 0,-2-1 0 0 0,0-1-1 0 0,-1-1 1 0 0,25-48 0 0 0,-39 64-4 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-2 0 0 0 0,1 1 0 0 0,-10-20 0 0 0,3 12 13 0 0,-1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,-30-22-1 0 0,5 10-7 0 0,0 2-1 0 0,-1 1 0 0 0,-2 2 0 0 0,-72-23 0 0 0,54 25 33 0 0,-1 3 0 0 0,-122-12 0 0 0,79 21-10 0 0,0 4 0 0 0,0 6 0 0 0,-202 32 0 0 0,249-26-48 0 0,-69 22 1 0 0,107-25-9 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 2 1 0 0,0 0-1 0 0,1 1 0 0 0,-19 15 1 0 0,31-21-5 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,2 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,6 7-1 0 0,4 3-6 0 0,1-1-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,1-1 1 0 0,0-1-1 0 0,34 8 1 0 0,5-3-4 0 0,0-3 1 0 0,105 5 0 0 0,-90-14 3 0 0,-1-3 0 0 0,1-2 1 0 0,-2-5-1 0 0,1-2 0 0 0,87-27 1 0 0,-100 22 23 0 0,92-40 0 0 0,-130 47 30 0 0,0-1 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-2 1 0 0,-1 0-1 0 0,0-1 0 0 0,24-26 0 0 0,-37 36-11 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-2 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-3-6 0 0 0,0 3-2 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1-1 0 0,-14-13 1 0 0,-3 2 20 0 0,0 1-1 0 0,-2 2 0 0 0,1 0 0 0 0,-2 2 1 0 0,0 1-1 0 0,-1 1 0 0 0,0 2 1 0 0,-54-13-1 0 0,10 9 1 0 0,1 3 0 0 0,-117-2 0 0 0,107 11-39 0 0,-1 4-1 0 0,0 4 1 0 0,-87 17 0 0 0,126-14-14 0 0,1 2 0 0 0,1 1 0 0 0,0 3 0 0 0,1 1 1 0 0,0 2-1 0 0,1 1 0 0 0,-54 37 0 0 0,76-42-26 0 0,0 0 1 0 0,0 1-1 0 0,2 1 0 0 0,0 1 0 0 0,0 1 1 0 0,2 0-1 0 0,0 0 0 0 0,1 1 0 0 0,1 1 0 0 0,1 1 1 0 0,-13 31-1 0 0,22-46 7 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,6 10 0 0 0,-3-9-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,15 6-1 0 0,4 0 2 0 0,0-2 0 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0,46 1 0 0 0,-9-5 16 0 0,105-15 1 0 0,-107 6 14 0 0,-1-3 0 0 0,78-26 0 0 0,-99 24 8 0 0,-1-1 0 0 0,-1-2 0 0 0,0-1-1 0 0,51-35 1 0 0,-80 47 51 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-2 1 0 0 0,11-15 0 0 0,-17 22-47 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 2 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-4-2-1 0 0,-4 0 14 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,-11 0 1 0 0,-25 3-15 0 0,0 3 0 0 0,0 1 0 0 0,1 3-1 0 0,0 1 1 0 0,-77 29 0 0 0,103-32-66 0 0,0 1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 2-1 0 0,-33 24 0 0 0,45-30-38 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-6 13 1 0 0,9-15-25 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 11 0 0 0,0-10-102 0 0,-1-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,6 2 1 0 0,2 0-1129 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,18-6 1 0 0,-11 1-1479 0 0,-1-1 405 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:03:23.639"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#00F900"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2743 594 88 0 0,'4'-6'492'0'0,"-1"0"0"0"0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,-3-8 0 0 0,1 8-230 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 2-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-11-10 0 0 0,0 4-39 0 0,0 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 2 1 0 0,-34-8-1 0 0,-11 1 63 0 0,-85-4 0 0 0,137 16-244 0 0,-481-14 1539 0 0,-2 43 358 0 0,17 28-648 0 0,353-33-1057 0 0,-215 68 0 0 0,304-79-222 0 0,2 1 0 0 0,0 2-1 0 0,-52 31 1 0 0,76-39-17 0 0,-1 0 0 0 0,2 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-7 21 1 0 0,10-24-13 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0-1 0 0 0,7 10 0 0 0,4 4-59 0 0,0-2 0 0 0,2 0 0 0 0,0-1 0 0 0,35 27 0 0 0,-12-14-4 0 0,2-2 0 0 0,1-2 0 0 0,1-1 0 0 0,1-3 0 0 0,57 20 0 0 0,-40-21 40 0 0,2-3-1 0 0,0-3 1 0 0,98 11 0 0 0,-53-18-25 0 0,1-5 1 0 0,-1-5 0 0 0,1-4 0 0 0,177-35-1 0 0,-179 21 56 0 0,206-70 0 0 0,-268 73 121 0 0,-1-3 0 0 0,0-1 1 0 0,-2-2-1 0 0,0-3 0 0 0,-2-1 0 0 0,68-57 0 0 0,-91 67 40 0 0,-2 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-2 0 0 0,0 1 0 0 0,-2-2 0 0 0,0 0 0 0 0,15-37 0 0 0,-22 46-64 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-12-21 0 0 0,6 17-37 0 0,-1 1 0 0 0,0 0 0 0 0,-2 0-1 0 0,1 2 1 0 0,-1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-18-6 0 0 0,-11-3 22 0 0,-1 2 0 0 0,-1 2-1 0 0,-60-9 1 0 0,7 7 88 0 0,0 4 1 0 0,-1 5-1 0 0,-105 7 0 0 0,-300 51 481 0 0,369-27-443 0 0,-160 50-1 0 0,221-50-169 0 0,1 3 0 0 0,1 4 0 0 0,-105 62 0 0 0,152-77-48 0 0,1 1 0 0 0,1 1 0 0 0,-37 36-1 0 0,54-47-3 0 0,0 2 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-3 13-1 0 0,6-16-3 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,9 7 0 0 0,0-1-24 0 0,0-1 0 0 0,0 0-1 0 0,1-1 1 0 0,0-1 0 0 0,1 0-1 0 0,33 14 1 0 0,8-2-39 0 0,1-3 0 0 0,1-2 0 0 0,0-3 1 0 0,110 11-1 0 0,246-8-114 0 0,-246-20 126 0 0,314-48 1 0 0,-346 25 85 0 0,-2-6-1 0 0,221-82 0 0 0,-318 98 82 0 0,-1 0-1 0 0,-1-3 0 0 0,55-36 1 0 0,-77 45-29 0 0,-1 0 0 0 0,0-1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-2-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,-1-1 1 0 0,9-19-1 0 0,-13 24-23 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-4-15 0 0 0,1 12-14 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-2 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1 1 0 0 0,-15-16 0 0 0,3 7-5 0 0,-2 0 0 0 0,-1 1-1 0 0,0 1 1 0 0,-1 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-36-14 0 0 0,8 8 28 0 0,-2 3 0 0 0,0 2 0 0 0,0 2 0 0 0,-1 3 0 0 0,-67-3 0 0 0,10 7 97 0 0,-184 17-1 0 0,198-2-72 0 0,0 5 1 0 0,1 4-1 0 0,1 5 0 0 0,-182 68 1 0 0,241-75-52 0 0,0 2-1 0 0,2 1 1 0 0,-47 34 0 0 0,65-40-16 0 0,2 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-12 23 0 0 0,19-29-11 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,5 21 0 0 0,-2-18-13 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,1-1-1 0 0,18 18 1 0 0,-2-7 1 0 0,2 0-1 0 0,1-1 1 0 0,0-2-1 0 0,2-1 0 0 0,0-2 1 0 0,59 23-1 0 0,-22-16 29 0 0,0-2 0 0 0,96 14 0 0 0,-63-21-15 0 0,1-3 0 0 0,0-6 0 0 0,1-4 0 0 0,-1-4 0 0 0,0-5 1 0 0,0-4-1 0 0,168-43 0 0 0,-224 43 58 0 0,-1-2 1 0 0,0-2 0 0 0,-1-2 0 0 0,-1-2-1 0 0,-1-2 1 0 0,76-52 0 0 0,-104 63 17 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,10-23 0 0 0,-14 29-19 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-11-16 0 0 0,0 4-10 0 0,-1 0 0 0 0,-1 1-1 0 0,-1 1 1 0 0,-1 0 0 0 0,-1 1 0 0 0,-1 2 0 0 0,-27-21 0 0 0,-4 3 39 0 0,-111-58 0 0 0,109 68-35 0 0,-1 2 1 0 0,0 2 0 0 0,-2 3-1 0 0,-1 2 1 0 0,0 2 0 0 0,-59-5-1 0 0,66 14-57 0 0,0 2 0 0 0,0 2 0 0 0,-1 3 0 0 0,1 2 0 0 0,0 1 0 0 0,1 3 0 0 0,-67 20 0 0 0,57-9-288 0 0,1 3 0 0 0,-94 50 0 0 0,87-35-2068 0 0,-115 88 0 0 0,105-62-2477 0 0,2 4-1 0 0,3 2 0 0 0,-116 153 1 0 0,124-137 1722 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-11T09:03:26.367"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#00F900"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">195 111 876 0 0,'-9'-10'625'0'0,"2"-1"0"0"0,0 0 0 0 0,0 0 0 0 0,-34-56 6200 0 0,41 67-6782 0 0,-9 17 699 0 0,-12 51-24 0 0,3 1 0 0 0,-13 106 0 0 0,10-27 288 0 0,-2 164-1 0 0,22-230-630 0 0,4 0 0 0 0,4 0 0 0 0,28 130 0 0 0,-20-147-304 0 0,4 0 0 0 0,2-1 1 0 0,58 117-1 0 0,-62-148-83 0 0,2-1 1 0 0,1-1 0 0 0,1-1 0 0 0,2-1-1 0 0,1-1 1 0 0,1-1 0 0 0,1-2-1 0 0,54 42 1 0 0,-64-56 4 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 1 0 0,21 6-1 0 0,-28-11 6 0 0,1-2 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0-1 0 0,13-4 1 0 0,-14 2 5 0 0,0 0 0 0 0,0 0 0 0 0,-1-2 1 0 0,1 1-1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,10-9 0 0 0,-8 4 31 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-1 0 0 0 0,15-24 0 0 0,-7 3 51 0 0,-1-1 0 0 0,-2-1 0 0 0,-1 0 0 0 0,15-65 0 0 0,-10 14-78 0 0,-4-1 1 0 0,5-103-1 0 0,-17 115 64 0 0,-3 1 0 0 0,-3-1 0 0 0,-4 1 0 0 0,-19-86 1 0 0,16 114 190 0 0,-3 0 0 0 0,-1 0 0 0 0,-3 2 0 0 0,-1 0 0 0 0,-3 1 1 0 0,-1 1-1 0 0,-43-62 0 0 0,50 85-55 0 0,0 2 1 0 0,-1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,0 2-1 0 0,-22-15 1 0 0,31 24-136 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-12 2 0 0 0,13 0-28 0 0,-1 1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 2 1 0 0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0-1 0 0,0 1 1 0 0,-11 17 0 0 0,3-2 19 0 0,1 1 0 0 0,1 0 0 0 0,1 1-1 0 0,2 0 1 0 0,-11 39 0 0 0,10-16 4 0 0,1 2-1 0 0,3-1 1 0 0,1 1 0 0 0,3 0-1 0 0,4 54 1 0 0,8 13 60 0 0,24 123 0 0 0,-10-130-114 0 0,68 201 1 0 0,-66-247-42 0 0,3-1-1 0 0,2-2 1 0 0,3 0 0 0 0,51 70 0 0 0,-68-109-11 0 0,2-1 0 0 0,0 0 1 0 0,2-2-1 0 0,43 36 1 0 0,-54-48 1 0 0,1-1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,1-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,23 0 0 0 0,-29-2 14 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,9-7 0 0 0,-8 5 10 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,8-17 1 0 0,-1-2 16 0 0,-2-1 1 0 0,-2 0-1 0 0,0 0 0 0 0,5-49 0 0 0,-5 15-10 0 0,-3-1 0 0 0,-4-92-1 0 0,-30-124-68 0 0,14 193 83 0 0,-3 1-1 0 0,-54-151 1 0 0,51 183 27 0 0,-2 1 0 0 0,-3 0 0 0 0,-2 2 0 0 0,-2 1 0 0 0,-47-59 0 0 0,41 65 63 0 0,-81-74 0 0 0,95 98-4 0 0,-2 0 0 0 0,0 2 0 0 0,-1 1 0 0 0,-1 1 0 0 0,-39-17 1 0 0,56 28-60 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-14 2 0 0 0,17 0-26 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-7 7-1 0 0,-1 4 7 0 0,1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1-1 0 0,1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 34 0 0 0,2 2 49 0 0,3-1 1 0 0,2 1-1 0 0,11 69 0 0 0,1-47-14 0 0,2-1-1 0 0,37 103 1 0 0,72 141-86 0 0,-79-207-4 0 0,22 55-222 0 0,150 262 1 0 0,-205-406 146 0 0,2 0 0 0 0,1-1 0 0 0,1 0-1 0 0,1-2 1 0 0,28 26 0 0 0,-45-45 89 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,5-1-1 0 0,-5 0 8 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,3-5-1 0 0,2-6 12 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,2-15 0 0 0,5-43 29 0 0,-4-1 0 0 0,-4-80 0 0 0,-19-148-68 0 0,16 283 34 0 0,-70-508-156 0 0,55 449 218 0 0,-2 0 0 0 0,-31-78 1 0 0,34 116 38 0 0,-2 1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-44-53 1 0 0,56 78-35 0 0,0 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-17-11-1 0 0,25 18-50 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-5 2 0 0 0,2 2-9 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 10 1 0 0,-5 15-5 0 0,-9 48 1 0 0,19-72 4 0 0,-9 46 28 0 0,2 0 0 0 0,3 1-1 0 0,3 57 1 0 0,22 167 53 0 0,-5-183-147 0 0,3 0 1 0 0,5-2-1 0 0,3-1 0 0 0,52 119 1 0 0,-67-186 7 0 0,28 46 0 0 0,-32-62 29 0 0,1 0 1 0 0,-1-1-1 0 0,2 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,18 14 1 0 0,-25-22 19 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,4-2 0 0 0,-3 1 4 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,3-5 0 0 0,4-8 5 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-2 0-1 0 0,0 0 1 0 0,4-23-1 0 0,13-136-13 0 0,-18-110-74 0 0,-25-1 31 0 0,5 151 78 0 0,-6 0 1 0 0,-68-240-1 0 0,36 230 89 0 0,44 126-55 0 0,-2-1 0 0 0,0 2 1 0 0,-1-1-1 0 0,-21-26 0 0 0,31 44-46 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-6 0-1 0 0,6 1-7 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0 2 0 0 0,-6 8 2 0 0,2 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-6 23 1 0 0,-10 63 3 0 0,20-96-11 0 0,-10 75 9 0 0,3 0 0 0 0,4 1 0 0 0,3 0-1 0 0,12 104 1 0 0,8-42-77 0 0,54 211-1 0 0,-51-271-121 0 0,3 0 1 0 0,3-2-1 0 0,47 92 0 0 0,-73-167 153 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,8 5 0 0 0,-11-8 27 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 4 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,2-2 0 0 0,3-13-8 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1-33-1 0 0,0 26-2 0 0,-3-119-291 0 0,-26-188-1 0 0,-3 97 116 0 0,20 169 395 0 0,-31-98 0 0 0,33 146-112 0 0,9 17-89 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-2 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 5-1 0 0,-11 91-497 0 0,3 0 0 0 0,5 103 1 0 0,3-80-1160 0 0,17 458-15501 0 0,-6-471 14431 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2824,7 +5013,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">561 303 136 0 0,'-2'2'396'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 3 0 0 0,1 22 169 0 0,-5 31 1 0 0,1-7 3108 0 0,8-79-2901 0 0,-1 20-698 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-13 0 0 0,2 14-34 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,-11-5 0 0 0,4 5-32 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,-15 11 0 0 0,18-11-10 0 0,0 1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,2 24 0 0 0,0-26 7 0 0,1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-2-1 0 0,0 1 1 0 0,7 11-1 0 0,1-1 5 0 0,1-1-1 0 0,23 25 0 0 0,-33-39-9 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,10 1 0 0 0,-8-2-1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,8-7 1 0 0,28-24-25 0 0,-2-2 0 0 0,42-49-1 0 0,-72 73 19 0 0,44-53 79 0 0,-15 16 466 0 0,-31 40-276 0 0,2-2 45 0 0,-11 12-301 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,29 116 1052 0 0,-24-86-1383 0 0,2 0 0 0 0,2-1 0 0 0,23 57 0 0 0,-31-84 115 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,3 1 0 0 0,-2-2-183 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,5-3 0 0 0,15-7-1140 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="491.85">1057 315 920 0 0,'0'-11'800'0'0,"1"0"-1"0"0,0-1 1 0 0,0 1-1 0 0,5-16 1 0 0,-5 19-492 0 0,0 1 524 0 0,2 11-91 0 0,-2 2-541 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2 11 1 0 0,1 3 137 0 0,6 79 573 0 0,-4-79-772 0 0,6 33 1 0 0,-4-34-73 0 0,1 33 1 0 0,1-36-7 0 0,-2-11 231 0 0,-1-7 595 0 0,-1-4-850 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,4-6 0 0 0,3-7-15 0 0,27-45 6 0 0,-26 43-28 0 0,2 0 0 0 0,0 1 0 0 0,23-26-1 0 0,-33 42 3 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,6-2 1 0 0,-8 3 23 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,2 1 1 0 0,2 3 96 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,2 8-1 0 0,5 13 411 0 0,-3 1 0 0 0,7 37 0 0 0,-10-42-383 0 0,19 89 9 0 0,-23-104-174 0 0,4 14-1419 0 0,-4-24 1335 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,7-5-957 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,8-13-1 0 0,3-1-599 0 0,6-6 76 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.36">2082 9 520 0 0,'0'0'143'0'0,"0"0"0"0"0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,9 22 1078 0 0,-9-17-893 0 0,67 210 4178 0 0,26 74-3114 0 0,-70-213-1244 0 0,-23-69 129 0 0,-5-9 17 0 0,-4-11-95 0 0,4 2-206 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-13-5-1 0 0,5 4 3 0 0,-1 0-1 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 2-1 0 0,-22 3 1 0 0,31-2 0 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2-1 0 0,0-1 1 0 0,-12 8 0 0 0,17-9 4 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 6 1 0 0,0-3 35 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 0 0 0,11 6 0 0 0,-6-5 34 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,17-3-1 0 0,10-3-40 0 0,71-20 0 0 0,-75 15-282 0 0,58-26 1 0 0,-14-5-2915 0 0,-66 33 889 0 0,-12 9 1956 0 0,0 0 239 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-240 0 0,0 0 240 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 0-328 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-22 5-1265 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.35">2082 9 520 0 0,'0'0'143'0'0,"0"0"0"0"0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,9 22 1078 0 0,-9-17-893 0 0,67 210 4178 0 0,26 74-3114 0 0,-70-213-1244 0 0,-23-69 129 0 0,-5-9 17 0 0,-4-11-95 0 0,4 2-206 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-13-5-1 0 0,5 4 3 0 0,-1 0-1 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 2-1 0 0,-22 3 1 0 0,31-2 0 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2-1 0 0,0-1 1 0 0,-12 8 0 0 0,17-9 4 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 6 1 0 0,0-3 35 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 0 0 0,11 6 0 0 0,-6-5 34 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,17-3-1 0 0,10-3-40 0 0,71-20 0 0 0,-75 15-282 0 0,58-26 1 0 0,-14-5-2915 0 0,-66 33 889 0 0,-12 9 1956 0 0,0 0 239 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-240 0 0,0 0 240 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 0-328 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-22 5-1265 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2924,7 +5113,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2 311 500 0 0,'-1'0'5969'0'0,"6"-2"-2414"0"0,19-1-1239 0 0,34-4-1639 0 0,317 10 3490 0 0,-282 0-3262 0 0,61 6 463 0 0,57 0-1169 0 0,-206-9-632 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,5-2-1 0 0,-9 3 259 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-82 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-34-20-4978 0 0,11 9 3304 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.93">512 62 840 0 0,'0'-5'771'0'0,"0"1"-285"0"0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3-6 0 0 0,4 10-329 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-6 19 1881 0 0,-7 24 692 0 0,9-33-2147 0 0,1 0 0 0 0,0 0 0 0 0,-2 19 0 0 0,1 42 892 0 0,8 112 1 0 0,0-142-1250 0 0,13 52 0 0 0,2 6-79 0 0,-13-62-172 0 0,0 1-1895 0 0,-4-13-2789 0 0,-2-24 4168 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.92">512 62 840 0 0,'0'-5'771'0'0,"0"1"-285"0"0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3-6 0 0 0,4 10-329 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-6 19 1881 0 0,-7 24 692 0 0,9-33-2147 0 0,1 0 0 0 0,0 0 0 0 0,-2 19 0 0 0,1 42 892 0 0,8 112 1 0 0,0-142-1250 0 0,13 52 0 0 0,2 6-79 0 0,-13-62-172 0 0,0 1-1895 0 0,-4-13-2789 0 0,-2-24 4168 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3193,11 +5382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,8 +5394,8 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2"/>
     <col min="3" max="3" width="6" style="3"/>
-    <col min="4" max="4" width="6" style="2"/>
-    <col min="5" max="5" width="6" style="19"/>
+    <col min="4" max="4" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="6" style="3"/>
     <col min="8" max="8" width="6" style="2"/>
@@ -3254,10 +5443,10 @@
       <c r="H1" s="23">
         <v>7</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="32">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="23">
         <v>9</v>
       </c>
@@ -3394,11 +5583,11 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="30">
         <v>45287</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <v>61348</v>
       </c>
       <c r="D3" s="7"/>
@@ -3429,10 +5618,19 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
+      <c r="A4" s="30">
+        <v>45302</v>
+      </c>
+      <c r="B4" s="9">
+        <v>61348</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="18">
+        <v>58316</v>
+      </c>
+      <c r="E4" s="34">
+        <v>29652</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -3455,7 +5653,7 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="12"/>
-      <c r="AC4" s="26"/>
+      <c r="AC4" s="24"/>
       <c r="AD4" s="6" t="s">
         <v>27</v>
       </c>
@@ -3464,7 +5662,9 @@
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="35">
+        <v>33176</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
@@ -3487,7 +5687,7 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="12"/>
-      <c r="AC5" s="27" t="s">
+      <c r="AC5" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AD5" s="6" t="s">
@@ -3521,7 +5721,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="12"/>
-      <c r="AC6" s="28" t="s">
+      <c r="AC6" s="26" t="s">
         <v>28</v>
       </c>
       <c r="AD6" s="6" t="s">
@@ -3555,7 +5755,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="12"/>
-      <c r="AC7" s="29" t="s">
+      <c r="AC7" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AD7" s="6" t="s">
@@ -3589,7 +5789,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="12"/>
-      <c r="AC8" s="30" t="s">
+      <c r="AC8" s="28" t="s">
         <v>28</v>
       </c>
       <c r="AD8" s="6" t="s">
@@ -3623,7 +5823,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="12"/>
-      <c r="AC9" s="31" t="s">
+      <c r="AC9" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AD9" s="6" t="s">
@@ -4110,4 +6310,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54668835-FE4B-4FD1-9501-959AF73974D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ЕГЭ Арина Равилова.xlsx
+++ b/ЕГЭ Арина Равилова.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B582AE-E507-43DB-B5AF-7BE87698E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1D32E6-51BC-41B8-8970-723192948212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Лист1" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -136,6 +137,12 @@
   </si>
   <si>
     <t>задание не решено до конца или не начато</t>
+  </si>
+  <si>
+    <t>ДЗ</t>
+  </si>
+  <si>
+    <t>СГ2</t>
   </si>
 </sst>
 </file>
@@ -370,7 +377,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -453,14 +460,20 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2279,8 +2292,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>106675</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Рукописный ввод 7">
@@ -2299,7 +2312,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Рукописный ввод 7">
@@ -2344,8 +2357,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>124855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Рукописный ввод 10">
@@ -2364,7 +2377,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Рукописный ввод 10">
@@ -2409,8 +2422,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>8695</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Рукописный ввод 15">
@@ -2429,7 +2442,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Рукописный ввод 15">
@@ -2474,8 +2487,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Рукописный ввод 16">
@@ -2494,7 +2507,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Рукописный ввод 16">
@@ -2539,8 +2552,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>106435</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Рукописный ввод 21">
@@ -2559,7 +2572,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Рукописный ввод 21">
@@ -2604,8 +2617,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>16615</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Рукописный ввод 22">
@@ -2624,7 +2637,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Рукописный ввод 22">
@@ -2669,8 +2682,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>91075</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Рукописный ввод 26">
@@ -2689,7 +2702,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Рукописный ввод 26">
@@ -2734,8 +2747,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>130315</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Рукописный ввод 30">
@@ -2754,7 +2767,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Рукописный ввод 30">
@@ -2799,8 +2812,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>10615</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Рукописный ввод 38">
@@ -2819,7 +2832,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Рукописный ввод 38">
@@ -2864,8 +2877,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>91860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Рукописный ввод 39">
@@ -2884,7 +2897,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Рукописный ввод 39">
@@ -2929,8 +2942,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Рукописный ввод 42">
@@ -2949,7 +2962,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Рукописный ввод 42">
@@ -2994,8 +3007,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>31015</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Рукописный ввод 45">
@@ -3014,7 +3027,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Рукописный ввод 45">
@@ -3059,8 +3072,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>111165</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Рукописный ввод 52">
@@ -3079,7 +3092,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Рукописный ввод 52">
@@ -3124,8 +3137,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>22080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Рукописный ввод 55">
@@ -3144,7 +3157,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Рукописный ввод 55">
@@ -3189,8 +3202,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>167220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Рукописный ввод 67">
@@ -3209,7 +3222,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Рукописный ввод 67">
@@ -3254,8 +3267,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Рукописный ввод 74">
@@ -3274,7 +3287,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Рукописный ввод 74">
@@ -3319,8 +3332,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12655</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Рукописный ввод 77">
@@ -3339,7 +3352,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Рукописный ввод 77">
@@ -3384,8 +3397,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>58980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Рукописный ввод 80">
@@ -3404,7 +3417,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Рукописный ввод 80">
@@ -3449,8 +3462,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>60060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="82" name="Рукописный ввод 81">
@@ -3469,7 +3482,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="82" name="Рукописный ввод 81">
@@ -3514,8 +3527,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>26760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Рукописный ввод 82">
@@ -3534,7 +3547,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Рукописный ввод 82">
@@ -3579,8 +3592,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>144180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Рукописный ввод 83">
@@ -3599,7 +3612,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Рукописный ввод 83">
@@ -3621,6 +3634,1810 @@
             <a:xfrm>
               <a:off x="1176840" y="4308120"/>
               <a:ext cx="504720" cy="1087560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283436</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11410F8C-F7BF-4159-84BB-48F8F48E83ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12472261" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>547910</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75180</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Рукописный ввод 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B87967-B4B7-4675-AD47-A063D78EF7AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9759960" y="207000"/>
+            <a:ext cx="1144800" cy="58680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Рукописный ввод 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B87967-B4B7-4675-AD47-A063D78EF7AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9751320" y="198360"/>
+              <a:ext cx="1162440" cy="76320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169005</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74265</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Рукописный ввод 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD09FA8-2535-40C5-A200-50D4D785165A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1064880" y="3373560"/>
+            <a:ext cx="926575" cy="317030"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Рукописный ввод 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD09FA8-2535-40C5-A200-50D4D785165A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1056207" y="3364376"/>
+              <a:ext cx="944283" cy="335031"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180055</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>377815</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53685</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Рукописный ввод 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA76BA5-F353-438F-A338-9885716A6DDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3228055" y="3440095"/>
+            <a:ext cx="1416960" cy="417240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Рукописный ввод 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA76BA5-F353-438F-A338-9885716A6DDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3219055" y="3431032"/>
+              <a:ext cx="1434600" cy="435003"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>606720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Рукописный ввод 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8801470-75A6-4C0B-ABB3-17D134004AB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7312320" y="3101040"/>
+            <a:ext cx="898920" cy="457200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Рукописный ввод 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8801470-75A6-4C0B-ABB3-17D134004AB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7303324" y="3092400"/>
+              <a:ext cx="916553" cy="474840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300535</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549710</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Рукописный ввод 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867B6E9E-FB0F-44A5-9F71-7630E58DDCA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9444535" y="3121135"/>
+            <a:ext cx="1465200" cy="350345"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Рукописный ввод 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867B6E9E-FB0F-44A5-9F71-7630E58DDCA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9435535" y="3112133"/>
+              <a:ext cx="1482840" cy="367988"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393895</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>281870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74030</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="Рукописный ввод 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81497AA-CB03-4F6D-AD22-EFB2AC765A44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12585895" y="3083040"/>
+            <a:ext cx="1713600" cy="416815"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="Рукописный ввод 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81497AA-CB03-4F6D-AD22-EFB2AC765A44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12576897" y="3073971"/>
+              <a:ext cx="1731236" cy="434590"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Рукописный ввод 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEBF1C6-2FA6-4AEF-9B0C-53450E3B34DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11635920" y="3083335"/>
+            <a:ext cx="538560" cy="310025"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Рукописный ввод 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEBF1C6-2FA6-4AEF-9B0C-53450E3B34DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11626920" y="3074333"/>
+              <a:ext cx="556200" cy="327669"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>23095</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="75" name="Рукописный ввод 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BBB8FB-0A3F-45C9-BB81-44D81987DA7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9616975" y="3880015"/>
+            <a:ext cx="769320" cy="274385"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="75" name="Рукописный ввод 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BBB8FB-0A3F-45C9-BB81-44D81987DA7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9608335" y="3871025"/>
+              <a:ext cx="786960" cy="292006"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>186720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53930</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="80" name="Рукописный ввод 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA0754-A377-4A4C-B766-6A75FA0233C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9785160" y="650520"/>
+            <a:ext cx="155160" cy="349560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="80" name="Рукописный ввод 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA0754-A377-4A4C-B766-6A75FA0233C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9776160" y="641880"/>
+              <a:ext cx="172800" cy="367200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>204360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>452760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="81" name="Рукописный ввод 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8578795-7827-4020-B48E-9D40A9F7FA92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15444360" y="3341160"/>
+            <a:ext cx="248400" cy="253440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="Рукописный ввод 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8578795-7827-4020-B48E-9D40A9F7FA92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15435720" y="3332520"/>
+              <a:ext cx="266040" cy="271080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>552120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129470</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="90" name="Рукописный ввод 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3043E63F-00ED-46BB-AC11-451099BEA5AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16574760" y="3252960"/>
+            <a:ext cx="1046160" cy="302335"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="90" name="Рукописный ввод 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3043E63F-00ED-46BB-AC11-451099BEA5AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16565760" y="3243962"/>
+              <a:ext cx="1063800" cy="319971"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504895</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156655</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54590</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="100" name="Рукописный ввод 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C8947-BB8D-4ACF-8991-57768E795B19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8429695" y="878760"/>
+            <a:ext cx="261360" cy="315655"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="100" name="Рукописный ввод 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C8947-BB8D-4ACF-8991-57768E795B19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8421055" y="870032"/>
+              <a:ext cx="279000" cy="333474"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224695</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92270</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="103" name="Рукописный ввод 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0971A27-1AC9-4C73-971E-F0E81691D1E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6930295" y="1318680"/>
+            <a:ext cx="337680" cy="294415"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="103" name="Рукописный ввод 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0971A27-1AC9-4C73-971E-F0E81691D1E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921655" y="1309682"/>
+              <a:ext cx="355320" cy="312051"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107095</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454135</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130795</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="Рукописный ввод 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0DD761-E7C1-4F98-BD55-917123E74D27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6203095" y="1513735"/>
+            <a:ext cx="347040" cy="331560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="Рукописный ввод 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0DD761-E7C1-4F98-BD55-917123E74D27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6194455" y="1505010"/>
+              <a:ext cx="364680" cy="349374"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>126120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131090</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="107" name="Рукописный ввод 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC8ED03-B113-4E6D-AA23-80AD2EAE67D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6831720" y="1716840"/>
+            <a:ext cx="1414800" cy="122400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="107" name="Рукописный ввод 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC8ED03-B113-4E6D-AA23-80AD2EAE67D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6823080" y="1707840"/>
+              <a:ext cx="1432440" cy="140040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>568680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="108" name="Рукописный ввод 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B5F615-1D5D-43C9-8012-0E558C1A1542}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1178280" y="1919880"/>
+            <a:ext cx="780120" cy="46800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="108" name="Рукописный ввод 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B5F615-1D5D-43C9-8012-0E558C1A1542}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1169640" y="1910880"/>
+              <a:ext cx="797760" cy="64440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398030</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>172015</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>110810</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="134" name="Рукописный ввод 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAAE64A-4CD7-47FD-818E-EEAFE968138A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="398030" y="2877840"/>
+            <a:ext cx="21719585" cy="3897295"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="134" name="Рукописный ввод 133">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAAE64A-4CD7-47FD-818E-EEAFE968138A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="389391" y="2868840"/>
+              <a:ext cx="21737222" cy="3914935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>111480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320630</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="139" name="Рукописный ввод 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FFB98E-2CDB-497C-B9C4-60138E92A8A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9865080" y="6184375"/>
+            <a:ext cx="1425175" cy="538625"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="139" name="Рукописный ввод 138">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FFB98E-2CDB-497C-B9C4-60138E92A8A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9856060" y="6175786"/>
+              <a:ext cx="1442854" cy="556162"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602455</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133140</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="144" name="Рукописный ввод 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12286021-9D81-41FC-B9A4-5C47EE742ABD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4869655" y="8024760"/>
+            <a:ext cx="922025" cy="299880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="144" name="Рукописный ввод 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12286021-9D81-41FC-B9A4-5C47EE742ABD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4860654" y="8015867"/>
+              <a:ext cx="939666" cy="317311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582655</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>92335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261405</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165645</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="150" name="Рукописный ввод 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B38885-B084-40C9-B082-B9CA287AA311}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4849855" y="8474335"/>
+            <a:ext cx="1501200" cy="66960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="150" name="Рукописный ввод 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B38885-B084-40C9-B082-B9CA287AA311}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4841215" y="8465695"/>
+              <a:ext cx="1518840" cy="84600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>284095</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149565</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>169975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="151" name="Рукописный ввод 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9B1C7F-BA7B-4925-A88C-97E2DA365102}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5160895" y="8676655"/>
+            <a:ext cx="468720" cy="256320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="151" name="Рукописный ввод 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9B1C7F-BA7B-4925-A88C-97E2DA365102}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5151895" y="8668015"/>
+              <a:ext cx="486360" cy="273960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>145020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163255</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>182035</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="154" name="Рукописный ввод 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2D05C3-25F2-4427-A66E-9BDDCC5D33A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7850160" y="8336520"/>
+            <a:ext cx="234720" cy="33840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="154" name="Рукописный ввод 153">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2D05C3-25F2-4427-A66E-9BDDCC5D33A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7841520" y="8327880"/>
+              <a:ext cx="252360" cy="51480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>79380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="155" name="Рукописный ввод 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F44C3CE-240B-44F0-8718-2140EADFE633}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8330040" y="8200440"/>
+            <a:ext cx="333720" cy="451440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="155" name="Рукописный ввод 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F44C3CE-240B-44F0-8718-2140EADFE633}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8321400" y="8191800"/>
+              <a:ext cx="351360" cy="469080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243655</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>164690</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="158" name="Рукописный ввод 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDC1F10-41DA-46CF-BDB1-A6F14E6A5663}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9128520" y="8225280"/>
+            <a:ext cx="259135" cy="127735"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="158" name="Рукописный ввод 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDC1F10-41DA-46CF-BDB1-A6F14E6A5663}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9119522" y="8216644"/>
+              <a:ext cx="276771" cy="145366"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>110575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200390</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="159" name="Рукописный ввод 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB72C37-A4E0-4541-B621-6FF5F2404962}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6816175" y="8214120"/>
+            <a:ext cx="696240" cy="491400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="159" name="Рукописный ввод 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB72C37-A4E0-4541-B621-6FF5F2404962}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6807180" y="8205120"/>
+              <a:ext cx="713871" cy="509040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>458640</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>126480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>109680</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="163" name="Рукописный ввод 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF72D1C-D06E-4121-A56C-CBD8F319D57C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9602640" y="8889480"/>
+            <a:ext cx="2089440" cy="120240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="163" name="Рукописный ввод 162">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF72D1C-D06E-4121-A56C-CBD8F319D57C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9594000" y="8880840"/>
+              <a:ext cx="2107080" cy="137880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>174480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>58075</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="164" name="Рукописный ввод 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4516F8-B13D-48CC-97F8-683E63AFBC81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9928080" y="7883935"/>
+            <a:ext cx="901440" cy="746640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="164" name="Рукописный ввод 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4516F8-B13D-48CC-97F8-683E63AFBC81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9919440" y="7875295"/>
+              <a:ext cx="919080" cy="764280"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3736,7 +5553,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2387.83">1600 133 192 0 0,'13'-19'3607'0'0,"-11"16"-1026"0"0,-1 9-478 0 0,-2 8-1230 0 0,1-4-511 0 0,-1-1-1 0 0,-1 0 1 0 0,-2 10 0 0 0,2-9-190 0 0,0 0 0 0 0,0 0 0 0 0,0 12 1 0 0,1 8 2 0 0,1 23-14 0 0,2-36-137 0 0,1-1 1 0 0,0 0-1 0 0,10 28 0 0 0,-10-38-21 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,11 8 0 0 0,-14-13 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,3-3 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-7-1 0 0,-4 13-3 0 0,12-56 9 0 0,-11 54-10 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-3-3 1 0 0,2 4-9 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-2 2-1 0 0,-1-1-345 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-7 7 0 0 0,2-4-1517 0 0,10-6 1543 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2 3 1 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3018.6">1881 310 600 0 0,'59'-35'5701'0'0,"-58"34"-5187"0"0,4 17 1494 0 0,-12 30-619 0 0,5-36-1316 0 0,0 0-1 0 0,0 0 0 0 0,0 12 1 0 0,1-9-71 0 0,1-12-3 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,27-7-7 0 0,-1-1-1 0 0,0-2 1 0 0,-1 0 0 0 0,27-16 0 0 0,-51 25 9 0 0,147-80 696 0 0,-154 85-629 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,-5 9 0 0 0,6-11-74 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 8 0 0 0,-1-9 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,4 4 0 0 0,-6-6 5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,3-2 0 0 0,3 0 6 0 0,-1-1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,4-8-1 0 0,-7 9 84 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-3-7-1 0 0,3 12-67 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-2 0 1 0 0,-4-1-18 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-12 2-1 0 0,9 0-62 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-14 8 0 0 0,20-10-309 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-5 9 0 0 0,7-13 183 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,12 0-1214 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3804.33">2551 280 172 0 0,'65'-23'5728'0'0,"-65"23"-5659"0"0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-5 22 708 0 0,1-6-201 0 0,-1 88 887 0 0,5-108-1382 0 0,0 3-92 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,39-24-54 0 0,-24 18 80 0 0,-12 4-17 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,5-2 0 0 0,-5 2-57 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,3-5-1 0 0,1 1 13 0 0,-1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,7-12-1 0 0,-9-3 1795 0 0,-4 19 276 0 0,0 16-1320 0 0,1 1-695 0 0,0 3-619 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,4 21 0 0 0,-5-35 327 0 0,-1-1-240 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,2 5 0 0 0,-2-6 393 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-2-1 0 0,18-10-2078 0 0,-13 3 1169 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266.43">2941 304 572 0 0,'5'-9'1246'0'0,"-2"3"-419"0"0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,7-7-1 0 0,-10 12-232 0 0,-6 31 3283 0 0,8 7-2648 0 0,-2-29-1114 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2 11 1 0 0,3-19-95 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 87 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,23-14-421 0 0,-2-2 1 0 0,0 0 0 0 0,-1-2 0 0 0,25-27-1 0 0,-41 39 669 0 0,1-2-4736 0 0,-22 13-2766 0 0,11-1 7218 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 5 0 0 0,1 3 770 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1-2-1 0 0,3 15 0 0 0,-3-10-417 0 0,-3-15-408 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,3 9-43 0 0,-4-11-75 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266.42">2941 304 572 0 0,'5'-9'1246'0'0,"-2"3"-419"0"0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,7-7-1 0 0,-10 12-232 0 0,-6 31 3283 0 0,8 7-2648 0 0,-2-29-1114 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2 11 1 0 0,3-19-95 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 87 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1-1-1 0 0,23-14-421 0 0,-2-2 1 0 0,0 0 0 0 0,-1-2 0 0 0,25-27-1 0 0,-41 39 669 0 0,1-2-4736 0 0,-22 13-2766 0 0,11-1 7218 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 5 0 0 0,1 3 770 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1-2-1 0 0,3 15 0 0 0,-3-10-417 0 0,-3-15-408 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,3 9-43 0 0,-4-11-75 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 2 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4604.45">3335 649 60 0 0,'15'3'1656'0'0,"0"3"156"0"0,-5 0 64 0 0,0-3-607 0 0,5 0-673 0 0,-5 0-432 0 0,0 3-312 0 0,-5-3-312 0 0,0 3-476 0 0,0-3-513 0 0,-5 3-175 0 0,0 0 48 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -4191,7 +6008,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 42 56 0 0,'1'0'52'0'0,"0"0"-1"0"0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,21-21 18626 0 0,-12 38-17540 0 0,25 119 1338 0 0,-5-6-1655 0 0,-10-28-371 0 0,-2-20-102 0 0,-17-79-334 0 0,40 188 766 0 0,-37-168-688 0 0,0 0 0 0 0,1 0 0 0 0,12 28 0 0 0,2 17 131 0 0,-16-57-126 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 20-1 0 0,-1-31-58 0 0,0-4-1214 0 0,-7 1-4801 0 0,6 3 5132 0 0,0-1 0 0 0,-15-24-16892 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.92">96 609 316 0 0,'-1'-5'649'0'0,"1"0"0"0"0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-7 1 0 0,-2 8-347 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,7-1 0 0 0,13-5 420 0 0,-1 2 1 0 0,1 0 0 0 0,36-3-1 0 0,-33 7-409 0 0,0 1 0 0 0,1 0 0 0 0,-1 3-1 0 0,0 0 1 0 0,41 9 0 0 0,-53-7-143 0 0,0 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 1 1 0 0,11 25-1 0 0,-9-20 72 0 0,-8-15-187 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 10 1 0 0,-2 2 113 0 0,0-8-68 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-4 12 1 0 0,4-14-12 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-9 3 0 0 0,5-2-34 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-12 1-1 0 0,-12-1-52 0 0,0-2 0 0 0,0-1 0 0 0,-36-5 0 0 0,65 5 0 0 0,-18-2-586 0 0,-46-11 0 0 0,11-8-6029 0 0,57 21 6188 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-3 0 0 0,4-8-2011 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.91">96 609 316 0 0,'-1'-5'649'0'0,"1"0"0"0"0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,3-7 1 0 0,-2 8-347 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,7-1 0 0 0,13-5 420 0 0,-1 2 1 0 0,1 0 0 0 0,36-3-1 0 0,-33 7-409 0 0,0 1 0 0 0,1 0 0 0 0,-1 3-1 0 0,0 0 1 0 0,41 9 0 0 0,-53-7-143 0 0,0 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1 1 1 0 0,11 25-1 0 0,-9-20 72 0 0,-8-15-187 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 10 1 0 0,-2 2 113 0 0,0-8-68 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,-4 12 1 0 0,4-14-12 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-9 3 0 0 0,5-2-34 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-12 1-1 0 0,-12-1-52 0 0,0-2 0 0 0,0-1 0 0 0,-36-5 0 0 0,65 5 0 0 0,-18-2-586 0 0,-46-11 0 0 0,11-8-6029 0 0,57 21 6188 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-3 0 0 0,4-8-2011 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1743.8">51 15 272 0 0,'-5'0'9896'0'0,"13"0"-6602"0"0,20 0-2402 0 0,-14 1-433 0 0,56 1 673 0 0,107-10-1 0 0,-69 2-307 0 0,101 2 1007 0 0,-208 4-1643 0 0,-6 1 746 0 0,0 37-869 0 0,-5 17 20 0 0,10 9 107 0 0,0-41-3815 0 0,-6-47-11462 0 0,2 20 12738 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -4225,7 +6042,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">94 102 584 0 0,'1'-16'730'0'0,"3"-5"-244"0"0,1-17 1280 0 0,-5 38-1602 0 0,5-16 4736 0 0,-10 71-2068 0 0,20 238 2788 0 0,0-136-3924 0 0,-4-20-756 0 0,-3-17-431 0 0,-6-54-340 0 0,-3-39-297 0 0,-19-42-4842 0 0,18 12 4186 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1-3 0 0 0,2-36-3917 0 0,-2 43 4664 0 0,4-27-1879 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1315.67">10 102 460 0 0,'-4'-11'2338'0'0,"3"10"-2207"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,1 1-36 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,28-15 500 0 0,-6 8-208 0 0,1 0 0 0 0,0 2 0 0 0,32-4 0 0 0,-43 8-259 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,17 5 0 0 0,-26-6-37 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,2 6 1 0 0,-3-5 28 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-4 11 1 0 0,0-3 49 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,-18 24 0 0 0,8-16 7 0 0,0 0 0 0 0,-2-2 0 0 0,-32 27 0 0 0,28-28-9 0 0,-32 19 0 0 0,26-25-53 0 0,29-13-112 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,1 1-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 0 0 0,28-13-15 0 0,-8 6 8 0 0,1 1 1 0 0,0 1-1 0 0,1 2 0 0 0,-1 0 1 0 0,1 2-1 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,35 6 1 0 0,-48-3 13 0 0,0 0 0 0 0,0 0 0 0 0,0 2 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 1 0 0,14 8-1 0 0,-19-10 66 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,7 16-1 0 0,-8-16 52 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-4 10-1 0 0,2-8 29 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-15 10 1 0 0,9-9-28 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0-1 0 0,-19 3 1 0 0,-6 3 9 0 0,9-5 19 0 0,0 0 0 0 0,0-2 0 0 0,-1-2 0 0 0,-50-2 0 0 0,50 0-12 0 0,31 0-112 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,9 0 436 0 0,0 3-5929 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1315.66">10 102 460 0 0,'-4'-11'2338'0'0,"3"10"-2207"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,1 1-36 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,28-15 500 0 0,-6 8-208 0 0,1 0 0 0 0,0 2 0 0 0,32-4 0 0 0,-43 8-259 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,17 5 0 0 0,-26-6-37 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,2 6 1 0 0,-3-5 28 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-4 11 1 0 0,0-3 49 0 0,0 0-1 0 0,-2 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,-18 24 0 0 0,8-16 7 0 0,0 0 0 0 0,-2-2 0 0 0,-32 27 0 0 0,28-28-9 0 0,-32 19 0 0 0,26-25-53 0 0,29-13-112 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-2 1 0 0,1 1-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 0 0 0,28-13-15 0 0,-8 6 8 0 0,1 1 1 0 0,0 1-1 0 0,1 2 0 0 0,-1 0 1 0 0,1 2-1 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,35 6 1 0 0,-48-3 13 0 0,0 0 0 0 0,0 0 0 0 0,0 2 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 1 0 0,14 8-1 0 0,-19-10 66 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,7 16-1 0 0,-8-16 52 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-4 10-1 0 0,2-8 29 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-15 10 1 0 0,9-9-28 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 0-1 0 0,-19 3 1 0 0,-6 3 9 0 0,9-5 19 0 0,0 0 0 0 0,0-2 0 0 0,-1-2 0 0 0,-50-2 0 0 0,50 0-12 0 0,31 0-112 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,9 0 436 0 0,0 3-5929 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4429,7 +6246,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">210 3 676 0 0,'0'0'39'0'0,"0"1"0"0"0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-11 16 1567 0 0,10-14-1630 0 0,-3 5 264 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-3 12 1 0 0,-1 4 114 0 0,-39 129 950 0 0,-1 83-395 0 0,19 73-402 0 0,24-253-472 0 0,-5 41 17 0 0,-1 18-280 0 0,10-113 144 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 1-1 0 0,-3-3-2033 0 0,1-10 159 0 0,2-1 479 0 0,-2-3 138 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="593.05">141 87 60 0 0,'4'2'5299'0'0,"7"3"-2583"0"0,-8-4-2596 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,3 5 1 0 0,6 8 301 0 0,3 4-36 0 0,-1 0 0 0 0,0 1 0 0 0,17 43 1 0 0,-21-44-219 0 0,68 179 1227 0 0,-3-6-753 0 0,-18-44-456 0 0,-16-58-188 0 0,-36-82-83 0 0,1 6-1301 0 0,-15-21-3726 0 0,-15-15-743 0 0,15 12 4338 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="593.04">141 87 60 0 0,'4'2'5299'0'0,"7"3"-2583"0"0,-8-4-2596 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,3 5 1 0 0,6 8 301 0 0,3 4-36 0 0,-1 0 0 0 0,0 1 0 0 0,17 43 1 0 0,-21-44-219 0 0,68 179 1227 0 0,-3-6-753 0 0,-18-44-456 0 0,-16-58-188 0 0,-36-82-83 0 0,1 6-1301 0 0,-15-21-3726 0 0,-15-15-743 0 0,15 12 4338 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1345.97">55 690 236 0 0,'-1'0'11381'0'0,"2"0"-11277"0"0,15 1 441 0 0,35 6-102 0 0,92 1 0 0 0,-38-3-2681 0 0,-91-5-549 0 0,1 0 0 0 0,24-3 1 0 0,-32 0 836 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -4501,7 +6318,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1371.05">721 1797 336 0 0,'-9'0'3267'0'0,"14"1"-2990"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,3 4 0 0 0,10 10 309 0 0,22 28 1 0 0,-33-39-434 0 0,17 22 124 0 0,0 0 1 0 0,-2 2-1 0 0,-1 0 0 0 0,-2 1 1 0 0,-1 1-1 0 0,16 42 0 0 0,-21-38-227 0 0,-1 0 1 0 0,-2 0-1 0 0,-2 1 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-3 1 1 0 0,-10 45-1 0 0,-1-20-1231 0 0,-27 68-1 0 0,26-91-1338 0 0,-1 0 0 0 0,-39 61 0 0 0,38-74 1131 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2355.23">262 61 268 0 0,'1'-17'4073'0'0,"-1"17"-4020"0"0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-6 5 303 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,0 2 1 0 0,-7 8 0 0 0,-13 15 292 0 0,-3 2 125 0 0,-32 49 1 0 0,50-68-672 0 0,-3 9-18 0 0,1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,2 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-7 45 1 0 0,11-44-58 0 0,0 1 0 0 0,2-1 1 0 0,1 1-1 0 0,1 0 1 0 0,7 39-1 0 0,3-7-79 0 0,25 71 0 0 0,-24-96-237 0 0,1 0-1 0 0,26 46 1 0 0,42 56-2129 0 0,-77-130 2292 0 0,52 94-4503 0 0,-46-81 3314 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5034.11">456 364 56 0 0,'-13'-4'1832'0'0,"13"3"-1758"0"0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,4-10 1177 0 0,-5 10-1225 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,18-18 226 0 0,-6 11-109 0 0,0 0 1 0 0,24-9-1 0 0,-31 14-58 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,9 1 0 0 0,-11 0-26 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,2 5-1 0 0,-2-5-19 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2 3 0 0 0,0 2 31 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-8 12 1 0 0,5-11-48 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-11 11-1 0 0,-50 37 4 0 0,9-9-29 0 0,52-37-106 0 0,11-8-76 0 0,23-8-168 0 0,-4 0 354 0 0,-12 4 12 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,13 8 0 0 0,-20-10 14 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 6 0 0 0,0 4 56 0 0,-1 1-1 0 0,0 0 1 0 0,-2 16-1 0 0,1-11 24 0 0,0-13-52 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,-6 4 1 0 0,-8 4 8 0 0,0-1 0 0 0,0-1 1 0 0,-40 17-1 0 0,41-21-106 0 0,6-2-613 0 0,0 0-1 0 0,-25 4 1 0 0,36-9 456 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-2 1 0 0,-1-9-1568 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5631.93">766 1 120 0 0,'7'0'2360'0'0,"7"2"-1158"0"0,0 6 10 0 0,-10-6-996 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,5 7 0 0 0,56 69 1160 0 0,-34-38-1213 0 0,-3 2-1 0 0,-1 1 0 0 0,-2 0 0 0 0,-2 2 0 0 0,-2 1 1 0 0,-2 1-1 0 0,-2 0 0 0 0,12 61 0 0 0,-21-69-225 0 0,-1 1 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,-2 0 0 0 0,-2 0 0 0 0,-21 63-1 0 0,11-56-989 0 0,-2-1 0 0 0,-3-1 0 0 0,-1-2 0 0 0,-2 0 0 0 0,-2-1 0 0 0,-43 48 0 0 0,36-49-327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5631.92">766 1 120 0 0,'7'0'2360'0'0,"7"2"-1158"0"0,0 6 10 0 0,-10-6-996 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,5 7 0 0 0,56 69 1160 0 0,-34-38-1213 0 0,-3 2-1 0 0,-1 1 0 0 0,-2 0 0 0 0,-2 2 0 0 0,-2 1 1 0 0,-2 1-1 0 0,-2 0 0 0 0,12 61 0 0 0,-21-69-225 0 0,-1 1 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-2 1 0 0 0,-2-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,-2 0 0 0 0,-2 0 0 0 0,-21 63-1 0 0,11-56-989 0 0,-2-1 0 0 0,-3-1 0 0 0,-1-2 0 0 0,-2 0 0 0 0,-2-1 0 0 0,-43 48 0 0 0,36-49-327 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4675,7 +6492,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1624 79 1620 0 0,'-42'-28'12545'0'0,"43"49"-10673"0"0,5 25-244 0 0,3-7-704 0 0,12 63 993 0 0,-9-34-929 0 0,-5-30-499 0 0,-2 0 0 0 0,1 43 0 0 0,-5-31-71 0 0,-2 1 0 0 0,-3-1-1 0 0,-17 90 1 0 0,12-101-233 0 0,-2 0 0 0 0,-2-1 0 0 0,-28 59 0 0 0,21-60-36 0 0,-1-1 0 0 0,-2 0 0 0 0,-2-2 0 0 0,-1-1 0 0 0,-1-1 0 0 0,-2-1 0 0 0,-37 30 0 0 0,53-51-110 0 0,-1 0 1 0 0,0-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-19 4 0 0 0,12-6-33 0 0,0 0 0 0 0,1-1 0 0 0,-1-2 0 0 0,0 0 1 0 0,-34-4-1 0 0,-5-2 15 0 0,0 2-1 0 0,-1 3 1 0 0,1 3 0 0 0,-113 20-1 0 0,148-16 79 0 0,1 1-1 0 0,1 1 0 0 0,-1 1 0 0 0,2 2 0 0 0,-1 0 0 0 0,1 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,-19 25 0 0 0,12-9-10 0 0,1 1 0 0 0,1 2 0 0 0,2 0 1 0 0,2 1-1 0 0,1 2 0 0 0,3 0 0 0 0,-17 54 1 0 0,26-65-503 0 0,1 0 1 0 0,2 0 0 0 0,1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,2-1 1 0 0,5 45 0 0 0,0-40-2415 0 0,2 0-1 0 0,1-1 1 0 0,18 49 0 0 0,32 12-8731 0 0,-38-75 8862 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1093.09">1849 22 1172 0 0,'-28'-21'7331'0'0,"23"20"-6900"0"0,-27 13 4190 0 0,27-8-4266 0 0,1 0 23 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-2 6 0 0 0,-16 48 1992 0 0,11-27-1300 0 0,-9 30 614 0 0,-21 116 1 0 0,33-139-1383 0 0,-11 53 267 0 0,4 1 0 0 0,-3 130-1 0 0,16-194-509 0 0,2-1-1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 1 0 0,13 46-1 0 0,-1-25 8 0 0,-8-23-25 0 0,1-1 0 0 0,22 45 0 0 0,-4-18-3 0 0,-20-36-11 0 0,0 0 0 0 0,0-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 0 0 0 0,14 12 0 0 0,-15-17-10 0 0,9 7 57 0 0,31 22 0 0 0,-34-27-49 0 0,13 7 54 0 0,55 25 0 0 0,327 99 130 0 0,-153-84-84 0 0,-58-15-16 0 0,-160-31-19 0 0,0 3 1 0 0,0 1-1 0 0,-2 1 0 0 0,57 34 1 0 0,-27-8 146 0 0,84 69 1 0 0,-34-5 18 0 0,-99-86-220 0 0,-1 0 0 0 0,0 2 0 0 0,-2-1 0 0 0,0 2-1 0 0,-1 0 1 0 0,-2 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-2-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,3 30 0 0 0,2 25-205 0 0,7 64-2317 0 0,-17-114 1271 0 0,0-12-664 0 0,-1-1 0 0 0,-2 35 1 0 0,-4-1-3354 0 0,-10 54-6053 0 0,5-68 8279 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1093.08">1849 22 1172 0 0,'-28'-21'7331'0'0,"23"20"-6900"0"0,-27 13 4190 0 0,27-8-4266 0 0,1 0 23 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-2 6 0 0 0,-16 48 1992 0 0,11-27-1300 0 0,-9 30 614 0 0,-21 116 1 0 0,33-139-1383 0 0,-11 53 267 0 0,4 1 0 0 0,-3 130-1 0 0,16-194-509 0 0,2-1-1 0 0,1 0 0 0 0,0 0 0 0 0,2-1 1 0 0,13 46-1 0 0,-1-25 8 0 0,-8-23-25 0 0,1-1 0 0 0,22 45 0 0 0,-4-18-3 0 0,-20-36-11 0 0,0 0 0 0 0,0-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 0 0 0 0,14 12 0 0 0,-15-17-10 0 0,9 7 57 0 0,31 22 0 0 0,-34-27-49 0 0,13 7 54 0 0,55 25 0 0 0,327 99 130 0 0,-153-84-84 0 0,-58-15-16 0 0,-160-31-19 0 0,0 3 1 0 0,0 1-1 0 0,-2 1 0 0 0,57 34 1 0 0,-27-8 146 0 0,84 69 1 0 0,-34-5 18 0 0,-99-86-220 0 0,-1 0 0 0 0,0 2 0 0 0,-2-1 0 0 0,0 2-1 0 0,-1 0 1 0 0,-2 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-2-1-1 0 0,0 2 1 0 0,-1-1 0 0 0,3 30 0 0 0,2 25-205 0 0,7 64-2317 0 0,-17-114 1271 0 0,0-12-664 0 0,-1-1 0 0 0,-2 35 1 0 0,-4-1-3354 0 0,-10 54-6053 0 0,5-68 8279 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4708,10 +6525,10 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1119 69 480 0 0,'-1'-2'178'0'0,"1"0"1"0"0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 1-58 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-2-1 0 0,1-2 630 0 0,8-15 10801 0 0,-9 29-10985 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,3 8-1 0 0,-3-13-507 0 0,13 55 1947 0 0,-4-25-1660 0 0,-2 0 0 0 0,-1 0 0 0 0,3 45 0 0 0,-4-31-168 0 0,-5-27-140 0 0,0 1-1 0 0,-1 0 0 0 0,-3 20 1 0 0,0 19 24 0 0,1-40-3 0 0,0-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,-10 26 0 0 0,12-36-32 0 0,-3 6 22 0 0,-1-1 0 0 0,-10 19 1 0 0,4-9 9 0 0,8-16-43 0 0,-47 86 152 0 0,44-82-127 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-12 9 0 0 0,14-13-9 0 0,-3 3 29 0 0,0-1 1 0 0,-1 0-1 0 0,-16 8 0 0 0,-144 49 364 0 0,92-37-340 0 0,67-22-66 0 0,-25 8 100 0 0,0 1-1 0 0,-52 29 1 0 0,80-37-89 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-10 15 0 0 0,15-16-6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 16 1 0 0,2-22-17 0 0,-1 32 58 0 0,1 0 1 0 0,1 0-1 0 0,2 0 1 0 0,1-1 0 0 0,10 40-1 0 0,22 69-76 0 0,-15-70-791 0 0,-19-68 588 0 0,7 40-3079 0 0,-8-22-1394 0 0,-9-3-3800 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.19">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.15">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2750.49">3424 1398 696 0 0,'19'-45'3038'0'0,"-17"40"-2652"0"0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1-8-1 0 0,3-4 10275 0 0,-7 32-6263 0 0,-17 98-1313 0 0,-3 18-1799 0 0,3-13-518 0 0,3-7-244 0 0,5-27-261 0 0,-25 239 47 0 0,34-239-391 0 0,2-47-1290 0 0,0-36 298 0 0,2-5 400 0 0,2-6-277 0 0,10-148-8280 0 0,-9 73 6397 0 0,-1 28 1459 0 0,16-187-1712 0 0,-2 1 3380 0 0,-17 220-51 0 0,0-14 1063 0 0,1 0 0 0 0,15-59 1 0 0,-17 91-914 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,5-6 0 0 0,-6 9-237 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 41 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 3 1 0 0,4 4 335 0 0,1 1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 14 0 0 0,29 70 756 0 0,-16-34-598 0 0,17 48 162 0 0,-19-45-503 0 0,-4-8-102 0 0,12 27 31 0 0,74 171 259 0 0,-62-136-384 0 0,4 12-94 0 0,-41-119-391 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 16-1 0 0,-6-30-274 0 0,-2 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6-4 1 0 0,-99-69-15484 0 0,98 68 14987 0 0,-11-10-1197 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.45">3343 2046 584 0 0,'-10'-12'20655'0'0,"40"18"-16310"0"0,44 1-3137 0 0,1-4-1 0 0,97-7 0 0 0,-168 4-1174 0 0,235-18 416 0 0,-220 15-2425 0 0,-15 2-1475 0 0,-12 2 78 0 0,-6 1-632 0 0,-46 4-8703 0 0,39-5 9653 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4946.9">23 2438 720 0 0,'-22'-18'9623'0'0,"26"16"-7412"0"0,-1 11-1244 0 0,-3-6-844 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 4 0 0 0,2 2 33 0 0,-3-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-3-3-38 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-3 185 0 0,-8 5-168 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 1 82 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,2 2-64 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-5 1 0 0 0,7-2-64 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,16 16-76 0 0,-15-15 81 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,3 1 0 0 0,-4 0 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,2-6 40 0 0,-2 8-40 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-3-6 170 0 0,3 7-160 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-5 2 24 0 0,4-2-41 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 3-1 0 0,-11 18-5641 0 0,11-13 346 0 0,1 2-3369 0 0,1-6 6300 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4946.89">23 2438 720 0 0,'-22'-18'9623'0'0,"26"16"-7412"0"0,-1 11-1244 0 0,-3-6-844 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 4 0 0 0,2 2 33 0 0,-3-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-3-3-38 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-3 185 0 0,-8 5-168 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 1 82 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,2 2-64 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-5 1 0 0 0,7-2-64 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,16 16-76 0 0,-15-15 81 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,3 1 0 0 0,-4 0 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,2-6 40 0 0,-2 8-40 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-3-6 170 0 0,3 7-160 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-5 2 24 0 0,4-2-41 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 3-1 0 0,-11 18-5641 0 0,11-13 346 0 0,1 2-3369 0 0,1-6 6300 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5826.61">504 2370 692 0 0,'-5'-3'7703'0'0,"9"2"-6389"0"0,-4 2-1255 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 643 0 0,-1-1-643 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 234 0 0,0-1-235 0 0,-2 15 441 0 0,2-13-494 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,2 2 1 0 0,3 10-7 0 0,-5-12 1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,2 1-1 0 0,21 3 97 0 0,-21-3-63 0 0,-1-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,3-2 0 0 0,-1-2 48 0 0,0-3 790 0 0,-12 2 449 0 0,4 4-1047 0 0,3 2-202 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,-2 3 0 0 0,-25 17 165 0 0,25-16-237 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-3 9 0 0 0,5-13-1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,1 2 8 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,6-1 0 0 0,-4 0-6 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,10-7 1 0 0,-12 8 54 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1-7 0 0 0,-2 9-1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,-2-1 6 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-8 3 1 0 0,11-4-77 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,-1 2 0 0 0,-4 4-1042 0 0,7-7 1028 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-33 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-4 6-2052 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6876.03">1049 2450 480 0 0,'-5'-3'7000'0'0,"20"-2"315"0"0,-15 7-7277 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,4 1 0 0 0,-4-1-2 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1-4-1 0 0,-1 5 64 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-3 0-1 0 0,0 1-5 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4 2 0 0 0,1-2-48 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-10 7 1 0 0,14-7-47 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-2 4 0 0 0,3-2-5 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,3 5 1 0 0,-3-7 7 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,3 1-1 0 0,-2-1 1 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5-3 0 0 0,0 0 21 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,10-12-1 0 0,-16 17 12 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-3 0 0 0,-5-8 207 0 0,5 12-212 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-2-24 0 0,0 2 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-3 5 1 0 0,3-4-281 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 3 1 0 0,-1-4-501 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-6-1-2064 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7819.13">539 2516 532 0 0,'-4'-5'1597'0'0,"-1"-8"4737"0"0,5 13-6217 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 234 0 0,-1 0-235 0 0,1 0 405 0 0,29 0 2108 0 0,-30 1-2614 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,2-2 82 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-5-1 0 0,-1 6 139 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2-6 0 0 0,3 8-183 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-2-54 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 2 0 0 0,0-2 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,2-1 0 0 0,1 1 18 0 0,-3-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,3-2-1 0 0,-3 2 21 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-1-1 1 0 0,-9-15 939 0 0,11 18-959 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-4 1 21 0 0,5-1-40 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,2 3-11 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,7 5-1 0 0,-9-7 20 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,2-2 1 0 0,-4 2 10 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,-12-11 521 0 0,-22-4 21 0 0,-2 9-291 0 0,34 5-507 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-3 1 1 0 0,1 9-4168 0 0,4-11 4146 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,13-3-3121 0 0</inkml:trace>
@@ -4951,6 +6768,185 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:37:22.202"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">81 121 84 0 0,'0'0'629'0'0,"-6"0"1573"0"0,-8 3-1650 0 0,-31 23 2816 0 0,37-22-2054 0 0,1-1-175 0 0,7 0-105 0 0,3-2-730 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,5-2 0 0 0,22-2 678 0 0,53 5 640 0 0,225-6 3020 0 0,106-30-3681 0 0,-263 24-789 0 0,8-1-58 0 0,-74 8-57 0 0,300-32 59 0 0,-174 11-100 0 0,188 11-137 0 0,-266 22 121 0 0,-1 1 50 0 0,-1 1 0 0 0,-2 0-15 0 0,56-3 3 0 0,-15 0 14 0 0,-154-5-54 0 0,-11 1 157 0 0,-5 0 355 0 0,-1-1-447 0 0,5-1-968 0 0,-9 0-3546 0 0,-15-6-9227 0 0,15 3 12198 0 0,-9 0-1289 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:37:41.133"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">111 54 568 0 0,'-8'17'706'0'0,"0"0"-1"0"0,2 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-3 27-1 0 0,-6 21-16 0 0,8-36-179 0 0,1 0-1 0 0,1 1 1 0 0,2 34 0 0 0,-1-12 48 0 0,5 42 156 0 0,1-28-351 0 0,4 42 91 0 0,1-3-296 0 0,-8-104-188 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 1 1 0 0,1-1-35 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-2-5-488 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-2-16 1 0 0,0 5-345 0 0,-2-12-191 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="432.83">16 111 696 0 0,'-1'-22'892'0'0,"0"13"-510"0"0,1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,0 1 1 0 0,3-13 0 0 0,-2 12 9 0 0,1 1 852 0 0,-2 9-1186 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,11 7 378 0 0,-1 0-1 0 0,-1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,10 16 1 0 0,-11-16-228 0 0,207 286 1700 0 0,-120-177-1558 0 0,70 77 153 0 0,-156-185-62 0 0,1 0-1 0 0,1-1 0 0 0,23 17 1 0 0,-34-26-397 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,5-18 626 0 0,-5 18-554 0 0,7-38 157 0 0,-2 0 1 0 0,-1-1-1 0 0,-2 1 1 0 0,-4-55-1 0 0,-10-26-343 0 0,-6-59-594 0 0,3 62-2505 0 0,14 110 2772 0 0,-3-8-6073 0 0,-2 28 703 0 0,2-2 4250 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1010.98">1165 339 812 0 0,'37'4'4752'0'0,"-14"-1"-4188"0"0,19-1-523 0 0,46-3 0 0 0,-24-1-3995 0 0,-58 2 2750 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1344.78">1181 462 632 0 0,'-1'0'71'0'0,"1"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,9 4 2644 0 0,19-1-289 0 0,56-6-1337 0 0,-44-1-1529 0 0,0 3 0 0 0,45 5 0 0 0,-75-4-711 0 0,1-1 0 0 0,0 0 0 0 0,15-2 1 0 0,-9 1-386 0 0,3 0 35 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2431.29">2375 138 780 0 0,'1'1'60'0'0,"-1"0"0"0"0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 132 0 0,25-2 2097 0 0,-25 1-1598 0 0,-8-7 820 0 0,-10-8-793 0 0,14 13-634 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-6 1 1 0 0,-1 0 131 0 0,-1 0 0 0 0,0 1-1 0 0,1 1 1 0 0,-18 4 0 0 0,9-1 208 0 0,1 1 0 0 0,0 1 1 0 0,-32 17-1 0 0,41-18-224 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-13 18 0 0 0,3-3 158 0 0,2 2 1 0 0,1 0-1 0 0,0 1 0 0 0,-15 40 1 0 0,25-50-268 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,3 26 0 0 0,-2-33-46 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,10 10-1 0 0,-10-13-17 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,14 0 0 0 0,6-2-18 0 0,1-1 0 0 0,-1-1-1 0 0,0-2 1 0 0,0 0-1 0 0,49-18 1 0 0,-55 15 7 0 0,0-1 1 0 0,-1-1-1 0 0,0-2 0 0 0,-1 1 0 0 0,0-2 1 0 0,-1-1-1 0 0,26-23 0 0 0,-40 31 198 0 0,0 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,5-9 0 0 0,-9 15-157 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-2-1-1 0 0,-15-5-11 0 0,1 2-1 0 0,-1 0 1 0 0,0 1-1 0 0,-31-1 1 0 0,-76 5-37 0 0,96 1 8 0 0,1-2-131 0 0,-66 6 304 0 0,82-5-545 0 0,0 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-16 8-1 0 0,27-10 123 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 4 1 0 0,-1-2-506 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,4 4 1 0 0,8 2-1668 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:38:04.296"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">350 46 24 0 0,'0'0'283'0'0,"-14"3"1159"0"0,14-4-1350 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 425 0 0,16-6 37 0 0,39-13-230 0 0,-51 18-247 0 0,4-1 49 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,11 2-1 0 0,-9-1 55 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,10 12 1 0 0,-12-13-2 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4 9 0 0 0,-5-10-19 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2 6 1 0 0,-2 2 26 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,-18 21 0 0 0,14-17-32 0 0,4-8-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-18 10 0 0 0,-9 8 269 0 0,4-7 95 0 0,31-18-324 0 0,51-15-170 0 0,-33 12 53 0 0,-1 0-1 0 0,1 1 0 0 0,0 1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,24 7 1 0 0,1 3 11 0 0,-1 2 1 0 0,65 33 0 0 0,-83-38 46 0 0,29 17 310 0 0,-48-25-343 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,3 5 0 0 0,-5-6 71 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-2 5 0 0 0,1-2 80 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-9 8 1 0 0,-6 3 321 0 0,-2 0-1 0 0,0-2 1 0 0,-1 0 0 0 0,0-1 0 0 0,-45 18 0 0 0,42-22-284 0 0,-1-1 0 0 0,-30 5 0 0 0,40-10-140 0 0,-9 1 4 0 0,0-1 0 0 0,0-1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-2 0 0 0,-41-7 0 0 0,54 7-32 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-13-7 0 0 0,23 11-53 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-3 0 0 0,1 4-28 0 0,14-5-1195 0 0,-7 4-2404 0 0,32-6-9608 0 0,-29 5 10430 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1030.67">1770 451 916 0 0,'8'-4'2381'0'0,"-8"7"-615"0"0,-15 14 370 0 0,-29 23-482 0 0,33-29-1269 0 0,-1 0 0 0 0,2 0-1 0 0,-19 25 1 0 0,28-34-378 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,4-1 0 0 0,-1 1-2 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,3-4 68 0 0,0 0 0 0 0,-1-1 0 0 0,14-18 0 0 0,-9 11 106 0 0,-13 16-150 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 0 2 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,-6-3-7 0 0,-1 1-1 0 0,-19-8 1 0 0,25 11 1 0 0,-47-18 11 0 0,16 7-17 0 0,1-2 0 0 0,-41-22 0 0 0,75 36-19 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,1-2 1 0 0,2-2-3 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,12-4 0 0 0,-3 2 19 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,23-2 0 0 0,-37 5-36 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,7 16-3236 0 0,-6-10 1588 0 0,-3-7 1326 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 5-1191 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1584.97">1991 457 900 0 0,'30'-3'5184'0'0,"-26"10"-2761"0"0,-5-3-2263 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 5 0 0 0,0-5-152 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,8 0 0 0 0,-12-2-7 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,3-1-1 0 0,3-4 14 0 0,0 0-1 0 0,-1-1 1 0 0,9-11-1 0 0,4-5 25 0 0,-3-2 1103 0 0,-12 17 432 0 0,-10 17 40 0 0,4-4-1448 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0 4 1 0 0,0-8-102 0 0,0 10 18 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,3 11-1 0 0,-4-19-328 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4 2 0 0 0,-4-2-31 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1-2-1 0 0,34-23-5437 0 0,-22 17 4247 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2062.9">2470 505 364 0 0,'10'-10'1539'0'0,"21"-18"1117"0"0,-30 28-2449 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,2 2 1 0 0,-2-2-35 0 0,1 2-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 2 0 0 0,-1 34 796 0 0,0-22-624 0 0,1 52-361 0 0,0-67-14 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-7-4-1658 0 0,-5-6-583 0 0,8 4 1488 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-11-5 1 0 0,-46-19-1359 0 0,29 14 2451 0 0,8-1 444 0 0,26 16-722 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 1 0 0,6-3 447 0 0,-4 1-130 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,6-1 0 0 0,10-3 641 0 0,1 2 1 0 0,-1 0-1 0 0,24-1 1 0 0,-27 4-1044 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,19 3 0 0 0,-35-5-2 0 0,6 2-1007 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,13-2 0 0 0,-6-1-959 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2790.97">3031 463 432 0 0,'9'0'2363'0'0,"-8"-1"-2358"0"0,1-1 245 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-4 1 0 0,-3 6-192 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 15 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-3 0-1 0 0,-7 1 178 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-15 11 0 0 0,20-11-212 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 6 0 0 0,0-1-11 0 0,6-9-29 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,5-2 0 0 0,2-2 28 0 0,-2 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,12-12 0 0 0,20-13 640 0 0,-29 22 17 0 0,-3 4 582 0 0,-6 23 193 0 0,0-10-1261 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,8 12 1 0 0,-6-9-175 0 0,-5-10-24 0 0,21 36-1110 0 0,-20-35 625 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,3 1 1 0 0,1 3-2427 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3225.46">1451 982 528 0 0,'5'-3'584'0'0,"-5"0"188"0"0,0 0-660 0 0,-5 3-1516 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4044.48">0 1138 236 0 0,'1'1'246'0'0,"-1"0"-1"0"0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,27 2 3795 0 0,161-14 2196 0 0,210 18-2420 0 0,39-5-3185 0 0,667-5-27 0 0,619-8-487 0 0,-1702 9 19 0 0,-21 3-2 0 0,-22 0-701 0 0,-54 7-6721 0 0,19-2 822 0 0,24-2 3300 0 0,1 0 443 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:38:25.113"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">41 889 264 0 0,'0'0'235'0'0,"1"4"1739"0"0,3 5 2074 0 0,-6-7-3610 0 0,2-2-416 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,35-48 2022 0 0,-18 19-2062 0 0,-2-1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,-2-1-1 0 0,7-41 1 0 0,-9 28-83 0 0,-2 0-1 0 0,-2 0 1 0 0,-3 0 0 0 0,-3-51-1 0 0,-4 44 114 0 0,-22-89 0 0 0,24 129 7 0 0,0 0 0 0 0,-11-20 0 0 0,3 4 46 0 0,10 24-50 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-4-2-1 0 0,6 3-10 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-2 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 3 0 0 0,-5 9 48 0 0,2 2 1 0 0,0-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-4 31 0 0 0,3 83 729 0 0,5-90-479 0 0,12 189 1273 0 0,-5-143-1158 0 0,1 16-62 0 0,-1 3 216 0 0,-2-54-294 0 0,6 51 183 0 0,13 75 188 0 0,-23-161-465 0 0,-1 0 1 0 0,0 20-1 0 0,-1-29-42 0 0,0-7-119 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,1 1-1 0 0,1 0 27 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,4 0-1 0 0,9-4 46 0 0,0 0 0 0 0,18-9 0 0 0,-32 14-99 0 0,19-11-478 0 0,0 1-1 0 0,-1-2 1 0 0,0-1 0 0 0,30-26 0 0 0,-30 20-2805 0 0,0 0 0 0 0,-1-1 1 0 0,25-37-1 0 0,-28 35 1254 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="350.03">780 520 88 0 0,'1'1'3192'0'0,"9"2"-1694"0"0,120-20 1440 0 0,-16 3-4875 0 0,-45 2-1148 0 0,-38 6 1471 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1495.1">811 829 4 0 0,'-6'0'956'0'0,"5"1"-875"0"0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-1 2022 0 0,16 8 484 0 0,33-14-811 0 0,-18 1-1558 0 0,100-10-589 0 0,57-11-7218 0 0,-153 19 5939 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2026.89">1780 760 628 0 0,'0'0'111'0'0,"-1"1"1"0"0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,9-5 2182 0 0,14-20-658 0 0,-18 19-1233 0 0,13-15-14 0 0,-1 0-1 0 0,-1-1 0 0 0,-1-1 1 0 0,24-45-1 0 0,-25 38-104 0 0,-1 0 1 0 0,-1-1-1 0 0,9-33 0 0 0,-18 45 125 0 0,-1 1 1 0 0,-1 0-1 0 0,1-33 0 0 0,-3 51-397 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0-9 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-4 13 102 0 0,1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 27 1 0 0,-1 6 424 0 0,1-6 188 0 0,4 48-1 0 0,0-9-73 0 0,-2-51-429 0 0,11 56-1 0 0,-1-13-204 0 0,-10-62-372 0 0,0-1 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,8 14 0 0 0,-10-24 244 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,19-26-5016 0 0,-14 17 3442 0 0,9-8-208 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2540.14">2226 667 240 0 0,'0'-2'388'0'0,"0"0"0"0"0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-2 0 0 0,24-32 926 0 0,-23 32-918 0 0,11-14 274 0 0,0 0 1 0 0,-1-1-1 0 0,-2-1 1 0 0,1 0-1 0 0,8-23 1 0 0,-7 11-93 0 0,-5 14-126 0 0,-2 0 0 0 0,0-1 0 0 0,6-28 0 0 0,-8 25 106 0 0,-2 6 844 0 0,0 0 0 0 0,1-30 0 0 0,-19 62-884 0 0,5 28 398 0 0,2 0 1 0 0,-4 68-1 0 0,12-78-95 0 0,4 46-1 0 0,-3-59-719 0 0,8 44-28 0 0,2 1-1 0 0,33 104 1 0 0,-8-37-222 0 0,-30-113-572 0 0,4 18-2113 0 0,-10-20-2247 0 0,-6-3-4275 0 0,1-9 6565 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:38:41.879"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">187 296 284 0 0,'-10'-66'5945'0'0,"8"29"-2159"0"0,-1 21 2158 0 0,6 85-4786 0 0,2 0 1 0 0,27 126-1 0 0,-3-45-1129 0 0,8 41-54 0 0,-33-176-23 0 0,1 2-430 0 0,-2 1-1 0 0,1-1 1 0 0,-1 20-1 0 0,-2-36 351 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-2 1 1 0 0,2-2-13 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-17-32-3797 0 0,-6-54 67 0 0,9 31 2151 0 0,-4 8 487 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="416.41">81 332 372 0 0,'-64'-155'3804'0'0,"49"92"-1468"0"0,15 62-2265 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 22 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2 1-1 0 0,3 0 173 0 0,1 0-1 0 0,-1 1 1 0 0,1 1 0 0 0,-1-1-1 0 0,9 6 1 0 0,36 20 366 0 0,-2 2 1 0 0,-1 2-1 0 0,-2 3 0 0 0,50 46 0 0 0,-46-37-463 0 0,13 14-2 0 0,-3 3-72 0 0,49 53-42 0 0,59 63-8 0 0,-148-150-15 0 0,-17-21 143 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,11 7-1 0 0,-15-13-105 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,3-18 1074 0 0,1-27 313 0 0,-3 36-1281 0 0,-1-1-1 0 0,0 0 1 0 0,0-14 0 0 0,-14-106-252 0 0,-6 0 0 0 0,-49-177 0 0 0,57 266-694 0 0,-8-31-3983 0 0,9 52-2590 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.45">1361 377 780 0 0,'15'1'7709'0'0,"0"0"-5101"0"0,26 1-2296 0 0,129-12 176 0 0,-56 7-4239 0 0,-101 2 2876 0 0,-1-1-4381 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1234.64">1556 458 628 0 0,'-30'15'1430'0'0,"24"-12"-897"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6 6 0 0 0,12-10-481 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,19 5 744 0 0,17-6-924 0 0,66-10-1 0 0,32-21-5698 0 0,-100 22 4065 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2005">2467 149 84 0 0,'-4'1'353'0'0,"-1"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 1 0 0 0,-19 6 676 0 0,-32 3 2051 0 0,57-11-2874 0 0,-4 1 741 0 0,9-3-179 0 0,17-4-472 0 0,13 0-250 0 0,0 1 0 0 0,0 1 0 0 0,41 3 0 0 0,-53 0-28 0 0,9 0 40 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,40 13 0 0 0,-65-18-11 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,2 5 0 0 0,-2-2 104 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-8 10-1 0 0,-7 8 258 0 0,-2-2-1 0 0,-1 0 0 0 0,0-1 1 0 0,-49 35-1 0 0,9-6 106 0 0,-58 52 334 0 0,45-42-485 0 0,73-59-362 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 4 1 0 0,1-5 2 0 0,30 6 440 0 0,40-9-171 0 0,110-20 1 0 0,-46 4-316 0 0,-44 6-744 0 0,-54 5-3990 0 0,-35 7 4567 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,2-5-2729 0 0,2 1 1024 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2500.35">3336 353 268 0 0,'-12'33'8289'0'0,"-16"37"-6027"0"0,25-59-2154 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,1 0 0 0 0,11 15 0 0 0,-13-20-66 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,13 4 0 0 0,-9-4-3 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,15-1-1 0 0,-3-2 3 0 0,1-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,0-2 1 0 0,41-18-1 0 0,-37 13 212 0 0,0-2 0 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-2-1-1 0 0,0-1 1 0 0,27-40 0 0 0,-39 51 125 0 0,-2 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,6-27 1 0 0,-10 35-262 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-5-6 0 0 0,2 3-83 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-16 0 0 0 0,-1 1-40 0 0,0 2-1 0 0,0 0 1 0 0,1 2-1 0 0,-1 1 1 0 0,-28 10-1 0 0,23-4-136 0 0,0 2-1 0 0,1 1 0 0 0,0 1 1 0 0,2 2-1 0 0,0 1 0 0 0,0 2 1 0 0,-27 24-1 0 0,46-34-719 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-9 16 0 0 0,15-22-38 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,1 10 1 0 0,4 4-1812 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -4980,6 +6976,349 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">25 100 156 0 0,'-24'1'5807'0'0,"30"1"-5507"0"0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,9-1-1 0 0,3 0 175 0 0,1050-51 2890 0 0,-216 2-2924 0 0,-734 47-387 0 0,514 0 2 0 0,-568 6-1771 0 0,-77 2-3464 0 0,-14 0 3185 0 0,-10 0-93 0 0,-7 1 247 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:38:48.706"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 156 456 0 0,'5'0'3798'0'0,"-5"0"-3737"0"0,0 7 270 0 0,-1 9 706 0 0,-1-1 0 0 0,-6 29 1 0 0,-2 9 301 0 0,3-14-474 0 0,5-27-508 0 0,0 0-1 0 0,-1 21 1 0 0,-7 30 1575 0 0,13-63-1798 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,4-1 1 0 0,-4 1-115 0 0,17-4-9 0 0,-1 1-1 0 0,2 1 0 0 0,-1 0 1 0 0,0 2-1 0 0,0 0 1 0 0,1 2-1 0 0,-1 0 0 0 0,0 1 1 0 0,23 5-1 0 0,-17-1 28 0 0,0 1 0 0 0,0 1-1 0 0,0 2 1 0 0,-1 0-1 0 0,-1 2 1 0 0,27 16 0 0 0,-41-21 142 0 0,-1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,10 17 0 0 0,-14-21-71 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 9 1 0 0,-1-10 87 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-6 3-1 0 0,-10 4 227 0 0,-1 0 1 0 0,-24 7-1 0 0,35-13-350 0 0,-33 8 5 0 0,-1-1 0 0 0,-1-2 0 0 0,1-3 0 0 0,-1-1-1 0 0,-52-3 1 0 0,60-4-479 0 0,35 2 142 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-2-1 1 0 0,3 1-101 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-2-1 0 0,15-17-3802 0 0,13-13-618 0 0,-11 15 2894 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="419.47">96 207 328 0 0,'-16'-6'9467'0'0,"17"6"-8811"0"0,11 3 1157 0 0,166 6 1652 0 0,-98-10-2873 0 0,1 0-49 0 0,133 15-1 0 0,-202-11-1162 0 0,-26 6-10763 0 0,7-6 9743 0 0,1 0-871 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.34">1390 483 980 0 0,'21'3'2931'0'0,"-20"-3"-2882"0"0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,-73 79 4679 0 0,59-65-4380 0 0,1 1 0 0 0,0 1 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-10 25 0 0 0,21-42-330 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 2-1 0 0,-2-1 9 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,4 1-1 0 0,1-1-14 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,5-11 0 0 0,-8 15-2 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-5-3 0 0 0,-4-4 7 0 0,-1 1-1 0 0,0 0 1 0 0,-18-9-1 0 0,-24-12 49 0 0,27 16 145 0 0,2-1 0 0 0,-40-29 0 0 0,55 36-117 0 0,7 7 53 0 0,0-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-4-5 0 0 0,8 8-119 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,0 1-4 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,3 0 0 0 0,6-3-122 0 0,0 2-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1-1 0 0,19 2 1 0 0,-29-2 69 0 0,4 0-594 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,9 6 0 0 0,14 6-3396 0 0,-1-2-1326 0 0,-13-6 3085 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1637.95">1545 525 476 0 0,'1'9'3293'0'0,"0"-8"-3164"0"0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 1 0 0,-3 6 519 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 11 1 0 0,0-15-566 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,6 7-1 0 0,-7-10-62 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,2 0-1 0 0,-1-1-6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,4-4 0 0 0,6-5 65 0 0,-2 0 1 0 0,1-1-1 0 0,-1-1 0 0 0,11-16 1 0 0,-19 25-17 0 0,36-62 3713 0 0,-35 59-1156 0 0,-1 14-1875 0 0,-2-4-650 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 4-1 0 0,0-4-92 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,3 5 1 0 0,1 5-228 0 0,5 5-1359 0 0,-6-14 578 0 0,-4-4 710 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-1 1 0 0,5-2-1032 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,6-4 1 0 0,-3 2-41 0 0,5-5-140 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1980.5">2005 552 496 0 0,'44'-39'8071'0'0,"-43"39"-7673"0"0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,6 28 3052 0 0,4 42-1712 0 0,-9-62-1749 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,6 14-1 0 0,-4-6-1121 0 0,-4-9-1700 0 0,-13-31-12402 0 0,8 13 12822 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2321.83">1921 552 624 0 0,'-5'-3'930'0'0,"0"0"1"0"0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-5-7 0 0 0,2 2 5070 0 0,21 6-3917 0 0,23-3-1087 0 0,0 2-1 0 0,38 2 0 0 0,10-1-4833 0 0,-70 1 954 0 0,0 1 0 0 0,0-2 0 0 0,14-4 0 0 0,-13-1 330 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2741.05">2890 36 392 0 0,'8'-26'3896'0'0,"-10"16"4716"0"0,2 10-8529 0 0,-6 8 599 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-5 14 1 0 0,2-4-79 0 0,-148 372 4561 0 0,14 163-4776 0 0,126-466-886 0 0,11-67-299 0 0,-2 5-1027 0 0,27-48-16241 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3083.65">3110 609 184 0 0,'0'1'133'0'0,"0"1"0"0"0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-2 30 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,2-6 0 0 0,-1 4 103 0 0,-3 3-200 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-3 1-1 0 0,-9-1 37 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 2-1 0 0,0 0 1 0 0,1 0-1 0 0,-13 16 1 0 0,19-21-94 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,6 6 0 0 0,-4-6-288 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,2 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,14 3-1 0 0,-10-4-536 0 0,-1-1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-2 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,18-4 0 0 0,0-3-652 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3511.02">3505 597 432 0 0,'2'-3'466'0'0,"0"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,5-4 0 0 0,7-13 6997 0 0,-24 29-6265 0 0,3 0-1071 0 0,1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-4 18 0 0 0,4-2 284 0 0,0 54 0 0 0,3-80-436 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2 0-1 0 0,-2 0-67 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,4-2 0 0 0,4-3-324 0 0,-1 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,17-12-1 0 0,-12 5 477 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,15-35 0 0 0,-11 20 1550 0 0,-13 30-1465 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-6 19 1497 0 0,4-13-1469 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 8-1 0 0,-4 21 143 0 0,2-23-373 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,2 11 0 0 0,8 37-4813 0 0,-10-59 4561 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,2 0 1 0 0,6-3-2022 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4824.11">3960 507 912 0 0,'10'-48'3816'0'0,"-8"43"-3389"0"0,-3 11 158 0 0,-5 30 1695 0 0,0-19-1029 0 0,-5 36 0 0 0,3-13-450 0 0,-9 60 539 0 0,15-83-1159 0 0,0 3 126 0 0,2 40 0 0 0,1-24-6 0 0,-1-35-176 0 0,4-16 10 0 0,-1-1-119 0 0,0 0-1 0 0,-2 0 0 0 0,0 0 1 0 0,-1-19-1 0 0,2-28-9 0 0,1 8-6 0 0,-3 35 4 0 0,1-1 0 0 0,5-21 0 0 0,-5 9 140 0 0,-1 18 301 0 0,0 14-438 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,5 13 521 0 0,0 58 1377 0 0,-4-52-1658 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,0 0 0 0 0,2-1 0 0 0,10 27-1 0 0,-15-43-235 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,4 1 0 0 0,-4-2-7 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,4-4 0 0 0,16-17-75 0 0,0-1-1 0 0,33-45 0 0 0,-56 69 71 0 0,7-10-10 0 0,-1-1 0 0 0,9-15 0 0 0,-11 16 20 0 0,1 1-1 0 0,1-1 0 0 0,9-11 0 0 0,-14 20 42 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-3 1 0 0,-1 4 150 0 0,-10 25 939 0 0,1-6-1208 0 0,1 1-1 0 0,1-1 1 0 0,1 1 0 0 0,0 1-1 0 0,2-1 1 0 0,0 1 0 0 0,1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,2 0 1 0 0,5 32 0 0 0,-6-50-212 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,3-1 0 0 0,16-9-1527 0 0,-1 0 0 0 0,23-15 0 0 0,-13 4 2254 0 0,54-49 0 0 0,-70 56 1138 0 0,1 2 0 0 0,28-19 0 0 0,-39 28 265 0 0,4 1 1329 0 0,-7 19-802 0 0,-12 26-174 0 0,9-14-1521 0 0,0-17-603 0 0,1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,5 15 1 0 0,-6-21-62 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,7 6 0 0 0,-9-8-10 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-2-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,4-1 0 0 0,-3 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-2-1 0 0 0,3-3-1 0 0,-2 1 15 0 0,1-1 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-11 0 0 0,-1 11-13 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-6-4 0 0 0,-10-10-29 0 0,-34-20 1 0 0,51 36 21 0 0,-16-10 6 0 0,10 7 0 0 0,0-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-7-8 0 0 0,13 12-14 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,0-3 0 0 0,2-6-34 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,6-9 0 0 0,-4 7 40 0 0,-1 1 1 0 0,8-22 0 0 0,-12 26 29 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-3-12 0 0 0,3 17 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 2 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 1-1 0 0,-3-2 1 0 0,3 2-12 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 4-1 0 0,-5 11-153 0 0,0-1 0 0 0,2 1 0 0 0,0 0 0 0 0,-4 21-1 0 0,5-18-337 0 0,-10 45-2880 0 0,3 2-3553 0 0,5-22 1345 0 0,2-17 2654 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5660.13">3005 975 244 0 0,'0'0'1738'0'0,"21"6"1060"0"0,7-7-1650 0 0,1-1-1 0 0,-1-2 1 0 0,30-7 0 0 0,83-28-488 0 0,-121 33-576 0 0,-15 5-165 0 0,-2 0-196 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,4-3 0 0 0,-6 5 188 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-17-2-1750 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:38:45.281"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">194 263 296 0 0,'6'1'7390'0'0,"-3"5"-6798"0"0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 8-1 0 0,2 59 1255 0 0,-1-9-655 0 0,3 35 10 0 0,5 52 929 0 0,-8-127-1313 0 0,-2 47-1 0 0,-1-28 137 0 0,1-44-559 0 0,15-9 310 0 0,-7-2-654 0 0,1 0 0 0 0,0 1 0 0 0,13-10 0 0 0,15-18-64 0 0,-14 10-516 0 0,22-35 1 0 0,-37 50-646 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-2 0 1 0 0,6-22-1 0 0,-10 28 268 0 0,0 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-4-8 1 0 0,6 14 768 0 0,-9-21-1575 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.89">10 32 664 0 0,'0'0'207'0'0,"-1"0"-1"0"0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0-1 973 0 0,18-7 3940 0 0,-16 8-4999 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,2-1 0 0 0,-2 1-425 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,3 2 0 0 0,21 20-6925 0 0,-16-15 4951 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1024.24">975 425 96 0 0,'0'1'296'0'0,"0"-1"0"0"0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,3 4 2665 0 0,-3-4-2664 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,13 4 2456 0 0,24-4-2656 0 0,-25-1 752 0 0,93 3-148 0 0,62-1-911 0 0,-59-10-2708 0 0,-49 0-4027 0 0,-54 6 5486 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2091.14">1105 701 184 0 0,'0'0'43'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2 0 742 0 0,1 3 1331 0 0,-13 0 755 0 0,-5 0-1374 0 0,13-3-1185 0 0,-24 6 475 0 0,13-6-571 0 0,11 0-201 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1 1 0 0,2-1 16 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-8 4 501 0 0,5-1-124 0 0,14-2 61 0 0,307 0 295 0 0,-277 6-828 0 0,-39-6-5 0 0,-12 0-7495 0 0,-4-11 2254 0 0,6 7 3810 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:39:03.232"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">62 147 556 0 0,'0'0'74'0'0,"0"1"0"0"0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 14 469 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-11 16 0 0 0,7-11-193 0 0,-15 27 266 0 0,24-44-606 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,13 3 179 0 0,28-9-33 0 0,-28 3-157 0 0,11 1 0 0 0,1 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 1 1 0 0,0 2-1 0 0,28 8 0 0 0,-42-9 31 0 0,-1 0 0 0 0,0 0 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 1 0 0,6 11-1 0 0,-11-13 81 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 8-1 0 0,0-9 65 0 0,-2-2-41 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,-1 1 200 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-7 4 0 0 0,0-3-111 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-27 3-1 0 0,2-3-423 0 0,-42-1-1 0 0,78-3-60 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,-5-5-1 0 0,7 5 50 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1-1 0 0 0,8-19-3420 0 0,24-38 0 0 0,-20 40 2343 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368.09">193 54 512 0 0,'-4'-7'766'0'0,"-7"-16"2690"0"0,17 14 6 0 0,134 7 2076 0 0,69-8-4413 0 0,-195 10-1149 0 0,4-2-120 0 0,1 1-1 0 0,-1 1 0 0 0,1 1 1 0 0,23 4-1 0 0,-41-5 31 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 2 1 0 0,-2 5-1093 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-8 10 0 0 0,8-12 267 0 0,-7 7-575 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1080.05">1042 522 624 0 0,'14'-5'725'0'0,"0"2"-1"0"0,0-1 1 0 0,28-2-1 0 0,-25 4 1112 0 0,32-8-1 0 0,-48 10-1774 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 11 1199 0 0,-9 15-169 0 0,8-25-967 0 0,-5 14 311 0 0,-2-1-1 0 0,0 0 1 0 0,-11 15-1 0 0,-15 29 246 0 0,0 14-254 0 0,34-73-421 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,2-1-1 0 0,22 0 312 0 0,-15-3-290 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,4-16 0 0 0,-7 21 11 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,-4-5-1 0 0,0 0-5 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,-16-8 0 0 0,-28-20 48 0 0,18 10 1082 0 0,36 25-1073 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,22-6 519 0 0,-15 4-574 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,11-2 0 0 0,11 0-8 0 0,-19 2-679 0 0,1 1 0 0 0,19 0 0 0 0,-29 1-172 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,6 4 0 0 0,10 3-4622 0 0,-9-3 3153 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1591.73">1407 435 360 0 0,'3'2'517'0'0,"-1"-1"-1"0"0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,7 0 904 0 0,-3 17 4093 0 0,-3-11-4830 0 0,-2-5-499 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 3 0 0 0,10 83 3008 0 0,-5-40-1670 0 0,-5-48-1519 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,17-6-31 0 0,15-14-250 0 0,-6-2 87 0 0,-1-1 0 0 0,24-30-1 0 0,-6 14 832 0 0,-42 39-587 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,2 20 795 0 0,-2 27-651 0 0,0-44-16 0 0,0 5-109 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,3 14-1 0 0,-3-10-78 0 0,-2-11-119 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 2-1 0 0,5 3-3242 0 0,9-8-5640 0 0,4-11 3126 0 0,-9 8 3607 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2180.13">1957 510 156 0 0,'13'-11'2573'0'0,"-12"10"-2144"0"0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 2356 0 0,-1 21 1518 0 0,-5 42 416 0 0,-5 48-4050 0 0,15-19-1914 0 0,-11-103-2271 0 0,3 1 2895 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0-1 0 0,-11-18 1 0 0,8 17 555 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-17-13 0 0 0,-69-40 1279 0 0,96 63-1143 0 0,0 1 25 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-7-8 6011 0 0,23 9-5106 0 0,24-2-671 0 0,-1-2 0 0 0,44-10 0 0 0,-44 7-332 0 0,0 1 0 0 0,45 0 0 0 0,-62 3-186 0 0,2-1-1383 0 0,-11 7-3255 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:39:10.183"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 8 200 0 0,'-6'-7'9832'0'0,"6"7"-9603"0"0,14 1 4410 0 0,-8 0-3654 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,7 4-1 0 0,-6-1-590 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6 13 1 0 0,2 7 144 0 0,14 37 1 0 0,-10-19-55 0 0,19 56 114 0 0,-17-41-338 0 0,30 104 281 0 0,-13-39-335 0 0,-16-36-117 0 0,-9-35-43 0 0,-2-12-22 0 0,10 36 29 0 0,-17-70-47 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 12 0 0 0,0-19-26 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,13-10-1426 0 0,4-13-2693 0 0,-17 21 3238 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-5 0 0 0,-8-10-2081 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:39:23.368"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">51 66 300 0 0,'-3'-1'1419'0'0,"-9"0"8195"0"0,18-4-4624 0 0,9 0-3644 0 0,22-3-2214 0 0,-30 7 1311 0 0,38-9-449 0 0,106-17 53 0 0,-118 23-43 0 0,0 1 0 0 0,55 3 0 0 0,-81 0-4 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,6 6-1 0 0,-9-8 47 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,-2 6 1 0 0,-2 2 179 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-11 12 1 0 0,-72 64 939 0 0,41-41-882 0 0,-104 86 351 0 0,68-61-359 0 0,-24 29 54 0 0,95-82-258 0 0,15-18-65 0 0,10 6 53 0 0,16-4-29 0 0,0 0 0 0 0,-1-1 0 0 0,1-2-1 0 0,45-6 1 0 0,-15 1 0 0 0,56-4-57 0 0,225-10-1228 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:39:31.728"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">85 266 448 0 0,'-21'-6'3396'0'0,"8"2"-2448"0"0,5 2-154 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,-12-7 0 0 0,21 10-766 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,30-6 16 0 0,-26 5 77 0 0,22-2-34 0 0,0 1 0 0 0,-1 2 0 0 0,1 0 0 0 0,47 7 0 0 0,-32-3 8 0 0,-9-1 44 0 0,0 2 1 0 0,0 0-1 0 0,0 3 1 0 0,-1 0-1 0 0,-1 2 0 0 0,32 14 1 0 0,-58-22-56 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 5 0 0 0,-3 5 181 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-13 12 0 0 0,-74 65 949 0 0,77-72-1019 0 0,-10 7 33 0 0,-120 100 840 0 0,141-117-953 0 0,7-6-70 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-4 2 0 0 0,1 0 418 0 0,11 0-179 0 0,14-1-121 0 0,213-18-14 0 0,-162 14-138 0 0,-9-2-6 0 0,61-1-1407 0 0,-131 7-5295 0 0,8-2 6497 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-7-12-5542 0 0,7 5 3787 0 0,4 1 262 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851.7">1059 362 376 0 0,'-1'-1'102'0'0,"-1"1"0"0"0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 1 0 0 0,-5 6 174 0 0,0 0 0 0 0,0 1 0 0 0,-4 11 0 0 0,10-19-175 0 0,-15 23 468 0 0,11-17-389 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-2 11 1 0 0,2-4 77 0 0,1-6-108 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,2 11 0 0 0,-1-13-93 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,13 4 0 0 0,-1-2-3 0 0,-1 0 0 0 0,1-1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-2-1 0 0,0 0 1 0 0,-1-2 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1-1 0 0,12-17 1 0 0,-11 12 21 0 0,5-7 186 0 0,19-31-1 0 0,-32 47-107 0 0,-1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,2-14-1 0 0,-4 15-28 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-13-6 0 0 0,-1 2-37 0 0,0 0-1 0 0,-1 2 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 2 1 0 0,1 0-1 0 0,-1 2 1 0 0,0 0-1 0 0,-37 4 1 0 0,40-1-82 0 0,1 1 0 0 0,0 1 0 0 0,-1 0 1 0 0,2 1-1 0 0,-1 2 0 0 0,1-1 0 0 0,-1 2 0 0 0,2 1 0 0 0,-1 0 0 0 0,2 1 1 0 0,-1 1-1 0 0,-25 21 0 0 0,35-24-86 0 0,-1 1 1 0 0,1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 22-1 0 0,2-20-459 0 0,2-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,5 21 1 0 0,-4-24-206 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,8 9 1 0 0,-6-10-184 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11 7 1 0 0,7 3-825 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683">2110 17 192 0 0,'4'-4'869'0'0,"4"-6"1031"0"0,-8 10-1861 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-10 19 2158 0 0,4-3-1382 0 0,0 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,-12 19 0 0 0,-5 13 235 0 0,-5 7-157 0 0,15-29-367 0 0,-13 32 0 0 0,5-5 161 0 0,-48 79-1 0 0,51-97-467 0 0,15-29-168 0 0,3-4-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3-1 0 0,1-5 106 0 0,31-15 61 0 0,-11 9-905 0 0,0 0 0 0 0,0 1 0 0 0,30-3-1 0 0,-29 6-331 0 0,1-2 1 0 0,34-10-1 0 0,-48 9 131 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,8-7 0 0 0,-10 10 596 0 0,20-33-730 0 0,-23 33 1044 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-7 0 0 0,1-38 1694 0 0,-2 37-907 0 0,0 10-651 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,2 2-72 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1 1 118 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-2 4 1 0 0,-2 9 379 0 0,-5 15 697 0 0,0 0 0 0 0,3 1 0 0 0,-6 41-1 0 0,3 26 474 0 0,6-72-1671 0 0,2-16-217 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,5 12 1 0 0,-5-21-38 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,2-2-725 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,2-4 1 0 0,22-30-3571 0 0,-14 14 2724 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2288.11">2485 200 308 0 0,'7'-36'2016'0'0,"-6"26"-1602"0"0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,5-10 1 0 0,-5 16-352 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,5-2-1 0 0,3-1 108 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,21 3 1 0 0,-29-3-9 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 9 1 0 0,0-1 218 0 0,0 0 0 0 0,-2 0 1 0 0,1 1-1 0 0,-2-1 1 0 0,0 0-1 0 0,0-1 0 0 0,-8 22 1 0 0,-3 3 533 0 0,-23 42 0 0 0,1-5-135 0 0,-9 21-153 0 0,28-66-520 0 0,2 1 0 0 0,1 0-1 0 0,1 1 1 0 0,-13 57 0 0 0,25-86-98 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 2 0 0 0,-1-3-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,4-1-1 0 0,4 0 2 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,14-7 0 0 0,-10 3 8 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,16-18 0 0 0,-22 21 12 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0-11-1 0 0,-1 9-14 0 0,0 0 1 0 0,-2 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-2 0-1 0 0,-14-10 1 0 0,-149-101-20 0 0,-12 4 337 0 0,172 107-180 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-18-19-1 0 0,28 27-145 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,18-12 61 0 0,25 0-73 0 0,-16 7-316 0 0,45-1-1 0 0,28 5-4785 0 0,55-3-7627 0 0,-115-2 10212 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:39:44.968"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">37 1 356 0 0,'2'12'7054'0'0,"5"-7"-5363"0"0,-7-4-1291 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,4 6 1835 0 0,-6-7-2096 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 4 295 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,3 7 1 0 0,4 13 223 0 0,5 35 425 0 0,5 18-215 0 0,-14-59-596 0 0,6 33-1 0 0,-8-32-60 0 0,10 33 1 0 0,-9-37-119 0 0,0 1-1 0 0,-2-1 1 0 0,3 29 0 0 0,-5-28-24 0 0,2 0 1 0 0,1 0-1 0 0,7 27 0 0 0,-7-34-13 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,2 21-1 0 0,1 10 205 0 0,0 22 157 0 0,-5 22 210 0 0,-5-79-449 0 0,-1 3 40 0 0,6-10-214 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 21 0 0,29-1 51 0 0,194-35-1914 0 0,-196 28 1001 0 0,0-5-3990 0 0,-27 12 4285 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-2 1 0 0,-7-10-2435 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.94">6 67 568 0 0,'-5'0'6033'0'0,"5"2"-5786"0"0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 0 1 0 0,8 1 564 0 0,0-1 0 0 0,1-1 0 0 0,15-2 0 0 0,-21 3-498 0 0,266-26 3833 0 0,-92 24-7918 0 0,-146 2-2801 0 0,53-7 0 0 0,-76 6 5110 0 0,14-2-1667 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:40:00.051"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">911 68 440 0 0,'-1'0'85'0'0,"1"0"0"0"0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,6-17 1859 0 0,-2 1 4579 0 0,-4 22-4135 0 0,4 89 1726 0 0,1 37-2009 0 0,0-14-1289 0 0,0 45-240 0 0,-3-119-375 0 0,-2 44 1 0 0,-1-28 227 0 0,1-58-402 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-3 1 53 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-6 1 0 0 0,-5 1 30 0 0,-2 1-44 0 0,0-2 1 0 0,-34 1-1 0 0,14-2-47 0 0,-244 28-941 0 0,234-20-1386 0 0,20-1-2043 0 0,64-31-11618 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.19">651 44 4 0 0,'21'-6'3428'0'0,"-17"3"-2499"0"0,21-15 7909 0 0,-51 9-5889 0 0,-1 6-2919 0 0,-1 0 0 0 0,1 1 0 0 0,-1 2 0 0 0,1 1 0 0 0,-34 5 0 0 0,44-4-165 0 0,-144 18-3074 0 0,-78 21-6107 0 0,236-40 9186 0 0,-53 8-2056 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:40:05.197"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">836 51 184 0 0,'0'0'925'0'0,"5"-20"12881"0"0,1 41-12114 0 0,3 30 216 0 0,5 72 0 0 0,-3-16-826 0 0,18 70-379 0 0,-5-27-368 0 0,-3-12 315 0 0,-15-90-376 0 0,-4-40-161 0 0,-1-4 466 0 0,-8-7-230 0 0,3 1-326 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,-6 1 0 0 0,-61 11-65 0 0,37-6 52 0 0,-46 8-42 0 0,-156 20-507 0 0,208-35-337 0 0,26 1 416 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,-2-1 0 0 0,3 1 192 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1-1 0 0 0,-1 0-202 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,3-2-1 0 0,13-16-2586 0 0,-1-1 491 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="402.47">781 66 584 0 0,'0'-1'165'0'0,"0"0"0"0"0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1-1 0 0 0,5-11 2477 0 0,-4 10 559 0 0,-3 3-3064 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-2-3 2321 0 0,2 3-2321 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-23-6 847 0 0,-1 1 1 0 0,0 0-1 0 0,0 3 0 0 0,-30-1 1 0 0,-106 8-1726 0 0,102-2 977 0 0,-178 22-4503 0 0,81 4-8196 0 0,130-23 9695 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:40:08.420"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 336 256 0 0,'0'0'959'0'0,"21"3"536"0"0,488-27 1710 0 0,-338 12-3006 0 0,550-51-196 0 0,-1-22-90 0 0,-677 80 90 0 0,248-30-106 0 0,408-53-84 0 0,-648 82 172 0 0,87-14 22 0 0,-113 19 8 0 0,-25 1-12 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-8 7 239 0 0,-6-1-203 0 0,0 0 1 0 0,0-2-1 0 0,0 1 1 0 0,0-2-1 0 0,-1 0 1 0 0,1 0-1 0 0,-23 0 1 0 0,11 0-17 0 0,-457 56 29 0 0,-221 10 340 0 0,260-27-146 0 0,330-33-225 0 0,-96 13 17 0 0,210-22-38 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,471 3 11 0 0,-364-6-20 0 0,1319-68-1808 0 0,-804 7 2332 0 0,-594 57-86 0 0,-22 1-110 0 0,-7 5-304 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-19-4 18 0 0,-1 1-1 0 0,0 1 1 0 0,0 1 0 0 0,0 1-1 0 0,-28 1 1 0 0,7 0-10 0 0,-771 6 710 0 0,0 24 977 0 0,5 19-678 0 0,667-32-1030 0 0,132-13-6 0 0,18 0 19 0 0,21 1 20 0 0,-30-5-34 0 0,410 15 28 0 0,-331-16-42 0 0,871-9-40 0 0,-593 5-19 0 0,173-9 231 0 0,-521 14-54 0 0,-6 0-25 0 0,0 0 0 0 0,0 1-1 0 0,0-2 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,4-1 0 0 0,-8 2-55 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-2-2 37 0 0,-40-5 27 0 0,0 3 0 0 0,-76 2-1 0 0,46 2-63 0 0,-1131 36 1569 0 0,800-20-560 0 0,97-6-431 0 0,-284 14-216 0 0,590-25-384 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 1 1 0 0,3-2 2 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-1 0 0 0,424 11 242 0 0,-366-11-246 0 0,1421-22 20 0 0,-564 19-30 0 0,-1151-2 107 0 0,-633 2-121 0 0,-146-4 413 0 0,233-1 420 0 0,772 9-802 0 0,5 0-3 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-3 1 0 0 0,5-1 8 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,18 4 194 0 0,470 29 1658 0 0,-383-30-1756 0 0,1792-18 172 0 0,-1498-15-300 0 0,-243 15 80 0 0,-81 6 296 0 0,-74 9-332 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-2-1 0 0,-1 2-12 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,-33-7 33 0 0,0 1-1 0 0,-50-2 1 0 0,-74 5-20 0 0,118 3-5 0 0,-1149 44 279 0 0,2 53 633 0 0,959-79-511 0 0,997-81-125 0 0,113-9-318 0 0,-441 35-272 0 0,-152 11-1128 0 0,2 5-3494 0 0,-180 11 171 0 0,-4 0-3684 0 0,-85 9 5693 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5013,7 +7352,383 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">561 303 136 0 0,'-2'2'396'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 3 0 0 0,1 22 169 0 0,-5 31 1 0 0,1-7 3108 0 0,8-79-2901 0 0,-1 20-698 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-13 0 0 0,2 14-34 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,-11-5 0 0 0,4 5-32 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 2 0 0 0,0-1 0 0 0,1 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,-15 11 0 0 0,18-11-10 0 0,0 1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0-1-1 0 0,2 24 0 0 0,0-26 7 0 0,1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-2-1 0 0,0 1 1 0 0,7 11-1 0 0,1-1 5 0 0,1-1-1 0 0,23 25 0 0 0,-33-39-9 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,10 1 0 0 0,-8-2-1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,8-7 1 0 0,28-24-25 0 0,-2-2 0 0 0,42-49-1 0 0,-72 73 19 0 0,44-53 79 0 0,-15 16 466 0 0,-31 40-276 0 0,2-2 45 0 0,-11 12-301 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,29 116 1052 0 0,-24-86-1383 0 0,2 0 0 0 0,2-1 0 0 0,23 57 0 0 0,-31-84 115 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,3 1 0 0 0,-2-2-183 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,5-3 0 0 0,15-7-1140 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="491.85">1057 315 920 0 0,'0'-11'800'0'0,"1"0"-1"0"0,0-1 1 0 0,0 1-1 0 0,5-16 1 0 0,-5 19-492 0 0,0 1 524 0 0,2 11-91 0 0,-2 2-541 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-2 11 1 0 0,1 3 137 0 0,6 79 573 0 0,-4-79-772 0 0,6 33 1 0 0,-4-34-73 0 0,1 33 1 0 0,1-36-7 0 0,-2-11 231 0 0,-1-7 595 0 0,-1-4-850 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,4-6 0 0 0,3-7-15 0 0,27-45 6 0 0,-26 43-28 0 0,2 0 0 0 0,0 1 0 0 0,23-26-1 0 0,-33 42 3 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,6-2 1 0 0,-8 3 23 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,2 1 1 0 0,2 3 96 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,2 8-1 0 0,5 13 411 0 0,-3 1 0 0 0,7 37 0 0 0,-10-42-383 0 0,19 89 9 0 0,-23-104-174 0 0,4 14-1419 0 0,-4-24 1335 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,7-5-957 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,8-13-1 0 0,3-1-599 0 0,6-6 76 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.35">2082 9 520 0 0,'0'0'143'0'0,"0"0"0"0"0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,9 22 1078 0 0,-9-17-893 0 0,67 210 4178 0 0,26 74-3114 0 0,-70-213-1244 0 0,-23-69 129 0 0,-5-9 17 0 0,-4-11-95 0 0,4 2-206 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-13-5-1 0 0,5 4 3 0 0,-1 0-1 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 2-1 0 0,-22 3 1 0 0,31-2 0 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2-1 0 0,0-1 1 0 0,-12 8 0 0 0,17-9 4 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 6 1 0 0,0-3 35 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 0 0 0,11 6 0 0 0,-6-5 34 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,17-3-1 0 0,10-3-40 0 0,71-20 0 0 0,-75 15-282 0 0,58-26 1 0 0,-14-5-2915 0 0,-66 33 889 0 0,-12 9 1956 0 0,0 0 239 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-240 0 0,0 0 240 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 0-328 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-22 5-1265 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.33">2082 9 520 0 0,'0'0'143'0'0,"0"0"0"0"0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,9 22 1078 0 0,-9-17-893 0 0,67 210 4178 0 0,26 74-3114 0 0,-70-213-1244 0 0,-23-69 129 0 0,-5-9 17 0 0,-4-11-95 0 0,4 2-206 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-2 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-13-5-1 0 0,5 4 3 0 0,-1 0-1 0 0,0 1 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 2-1 0 0,-1-1 1 0 0,1 2-1 0 0,-22 3 1 0 0,31-2 0 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 2-1 0 0,0-1 1 0 0,-12 8 0 0 0,17-9 4 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 6 1 0 0,0-3 35 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 0 0 0 0,11 6 0 0 0,-6-5 34 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-2 1 0 0,0 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,17-3-1 0 0,10-3-40 0 0,71-20 0 0 0,-75 15-282 0 0,58-26 1 0 0,-14-5-2915 0 0,-66 33 889 0 0,-12 9 1956 0 0,0 0 239 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-240 0 0,0 0 240 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 0-328 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,-22 5-1265 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:40:13.491"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 84 48 0 0,'0'0'1069'0'0,"3"0"-36"0"0,4 0 1863 0 0,-3 1-2616 0 0,-4-1-86 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,3 2 2324 0 0,-3-2-2324 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 232 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,5 1 72 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1-1-1 0 0,15 2 1 0 0,59-1 188 0 0,-61-2-514 0 0,217-3 753 0 0,121-18 138 0 0,50-21-151 0 0,-331 34-696 0 0,89 2 1 0 0,7 0-110 0 0,162-4 180 0 0,-319 10-257 0 0,174 9 1091 0 0,-223-24-16492 0 0,-5-3 6110 0 0,13 9 6537 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:37:29.803"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17646 183 44 0 0,'0'-8'486'0'0,"-1"-8"8"0"0,-1 13-260 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-4 1 0 0,-5 1 491 0 0,4 6-585 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0-2 1849 0 0,0 22-1206 0 0,5 283 1533 0 0,-5-251-2191 0 0,-4 130 71 0 0,-1-32-106 0 0,0 13-31 0 0,3-109-52 0 0,2-38-8 0 0,0 1 0 0 0,-4 23 0 0 0,-8 30 26 0 0,3 0-1 0 0,0 99 1 0 0,4 33-14 0 0,5 138 133 0 0,5-231-112 0 0,0 75 8 0 0,-8-74-38 0 0,5 99-5 0 0,8 3-45 0 0,-9-146 25 0 0,-1-42 3 0 0,5 42 1 0 0,-3-41 8 0 0,1 30 0 0 0,-3-31 16 0 0,5 35 0 0 0,1-3 61 0 0,-2 111-1 0 0,-4-111-49 0 0,0-4 5 0 0,1 5-1 0 0,-12 107-1 0 0,3-102-7 0 0,2 73-1 0 0,1-15 0 0 0,0-15-21 0 0,-6 54-8 0 0,-14 90-28 0 0,18-142 20 0 0,5-37 38 0 0,-5 129 70 0 0,3-106-32 0 0,13 137 0 0 0,-5-160-31 0 0,16 152 256 0 0,-6-73-220 0 0,-12-124-18 0 0,0 124 240 0 0,-3-80-212 0 0,-8 40-5 0 0,2-51-62 0 0,-19 117-20 0 0,17-109 362 0 0,3 1 1 0 0,2 0 0 0 0,3 0 0 0 0,14 115 0 0 0,-2-106 18 0 0,3 0 1 0 0,25 78 0 0 0,-21-86-121 0 0,13 36 128 0 0,9 33-27 0 0,7 46-10 0 0,-38-143-331 0 0,-9-36-1 0 0,2 4-74 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 12 1 0 0,0-18-8 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 3-1 0 0,0-3-103 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-3-1-1 0 0,1 0-203 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-3-1 0 0,-22-38-3998 0 0,22 36 3857 0 0,-12-25-1240 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2743.65">39495 9 248 0 0,'44'-9'4404'0'0,"-43"9"-3802"0"0,0 0-477 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,3 33 1089 0 0,-2-18-801 0 0,0 15-238 0 0,0 0 0 0 0,-2-1 1 0 0,-8 64-1 0 0,5-60 5 0 0,-12 83 279 0 0,5-18-217 0 0,-4 105 397 0 0,9-22 57 0 0,0 6-308 0 0,-10 114 295 0 0,9-216-531 0 0,-47 333 914 0 0,45-365-790 0 0,-1 68 0 0 0,6-64-103 0 0,-18 505 814 0 0,31-295-337 0 0,-10-232-584 0 0,9 365 506 0 0,-4-177 213 0 0,-2-144-207 0 0,5 48 327 0 0,3-35-679 0 0,34 336 740 0 0,-25-262-902 0 0,-5-62-18 0 0,-11-75-1 0 0,13 44 1 0 0,-4-26 5 0 0,12 54 129 0 0,20 107 19 0 0,-39-173-187 0 0,24 166 52 0 0,0 10-33 0 0,-26-190-30 0 0,1 18 0 0 0,0 92 18 0 0,-4-91-25 0 0,-1 28-16 0 0,-3 21-1 0 0,1 6-10 0 0,-3 47 54 0 0,3-121-2 0 0,2 0-1 0 0,3 30 0 0 0,0 7 16 0 0,0 2 6 0 0,-1-42-27 0 0,-1 1 1 0 0,-3 36-1 0 0,-1-23 5 0 0,5 65 1 0 0,0-28-8 0 0,0 1 18 0 0,0-35 6 0 0,-5 64-1 0 0,-2 4 2 0 0,-6 185 5 0 0,21-202-43 0 0,-8-81 263 0 0,1 5-2168 0 0,-3-12 1749 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-20-18-15182 0 0,15 10 13096 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21403.6">6891 1848 140 0 0,'-8'-3'10769'0'0,"10"1"-9872"0"0,-1 1-625 0 0,14 4 595 0 0,16-1-247 0 0,1 0 0 0 0,44-4 0 0 0,-10 0-546 0 0,-5 3-105 0 0,17 0-1059 0 0,-27-3-2788 0 0,-47 1 2985 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,4-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21884.88">6851 2067 236 0 0,'4'6'3646'0'0,"-3"-6"-3133"0"0,13 0 2000 0 0,1 3-1180 0 0,-1-1-1 0 0,16-1 1 0 0,63-5 233 0 0,-59 1-1243 0 0,88 1-372 0 0,-30 1-1984 0 0,-2-7-3407 0 0,-59 5 3201 0 0,-1 0 205 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20022.73">6129 1620 92 0 0,'10'0'17679'0'0,"-10"0"-17640"0"0,1-5 848 0 0,4 6 1076 0 0,-6-6-1020 0 0,6 2-323 0 0,-5 3-615 0 0,0 0 4 0 0,0 0-11 0 0,0 0 6 0 0,-4 0 1 0 0,3 0 18 0 0,6 3-41 0 0,-5-3 50 0 0,0 0-35 0 0,0-2-2 0 0,0 1 18 0 0,-5 2 56 0 0,5-2-15 0 0,1 1 1 0 0,-2 0-26 0 0,1 6-8 0 0,0-10 85 0 0,0 8-65 0 0,0-4-29 0 0,0-5 340 0 0,0 8-327 0 0,0-6 26 0 0,0 2-2 0 0,0 2-45 0 0,0 1 0 0 0,0-2 72 0 0,-4 0-89 0 0,4 0 13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0-3 0 0,0 0 1 0 0,-4 0 5 0 0,3 0 7 0 0,1 14 237 0 0,-2-1 0 0 0,-4 25 0 0 0,-1 2-99 0 0,-5 19 29 0 0,8-42-118 0 0,1 0-1 0 0,0 1 1 0 0,0 18 0 0 0,1 31 109 0 0,0-35-96 0 0,2-1 1 0 0,4 33 0 0 0,-3-9-11 0 0,-2-44-43 0 0,1 0 0 0 0,1 0 1 0 0,3 21-1 0 0,-3-26-14 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,-1 7-1 0 0,0 14 42 0 0,1-25 38 0 0,25-31 296 0 0,-23 26-380 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,8-6 0 0 0,34-21-11 0 0,55-28 28 0 0,-87 48-13 0 0,-11 9-14 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,2 0 0 0 0,-4 0-82 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-9 1-2794 0 0,7-1 1653 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-2-1 0 0,-4-3-5 0 0,-3 0-1529 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20687.82">6114 1275 120 0 0,'0'-8'5350'0'0,"-1"17"-2826"0"0,-3 20-364 0 0,1-15-1116 0 0,1 2 10585 0 0,27 5-33260 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91858.58">24565 2970 196 0 0,'6'-6'378'0'0,"5"-7"3483"0"0,-10 10-1958 0 0,-9 7-1112 0 0,3 0-512 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-7 8 0 0 0,-9 9 324 0 0,14-15-466 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-5 12-1 0 0,11-20-121 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,2 2-1 0 0,36 16 320 0 0,12 4-218 0 0,-1 2-1 0 0,49 31 1 0 0,-55-27 364 0 0,-1 2 1 0 0,41 36 0 0 0,-74-58-371 0 0,-1 0 20 0 0,0-1-1 0 0,0 2 1 0 0,0-1-1 0 0,-1 1 0 0 0,7 11 1 0 0,-2-2 147 0 0,-10-16-183 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 3 0 0 0,-1-5-13 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-32 7 954 0 0,27-6-791 0 0,-30 4 537 0 0,1-2 0 0 0,-70-3 0 0 0,-74-17-1182 0 0,179 17 378 0 0,-10-2-906 0 0,0 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,-12-6-1 0 0,21 7 483 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1-3 0 0 0,1-6-1922 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="92247.71">24525 2934 732 0 0,'-2'-8'1973'0'0,"0"1"3371"0"0,11 4-1934 0 0,251 0 162 0 0,-115-3-3507 0 0,-137 5-115 0 0,-2 0-282 0 0,-10 5-1190 0 0,2-3 1061 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-2-1 0 0 0,-9-2-2829 0 0,2 4 1392 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91054.7">23415 3246 68 0 0,'-16'2'4211'0'0,"27"-5"-3032"0"0,118-16 377 0 0,1 8-3441 0 0,-90 9-1837 0 0,-30 5 2507 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91396.72">23376 3441 916 0 0,'-14'11'2021'0'0,"14"-11"-1993"0"0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,29-1 1409 0 0,-19-1-1359 0 0,33-2-335 0 0,50-12 0 0 0,-2-10-2822 0 0,-57 15 1833 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89070.6">21131 3267 1212 0 0,'1'0'236'0'0,"0"1"1"0"0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 3 0 0 0,12 41 1364 0 0,-7-20-750 0 0,7 9-329 0 0,21 43 1 0 0,-27-64-635 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,14 12 0 0 0,-22-22-81 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-2 0 0 0,7-6-1297 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89412.61">21400 3252 108 0 0,'0'-1'123'0'0,"0"0"0"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-15 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-3 3 359 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-4 7 0 0 0,-4 10 520 0 0,1 1 0 0 0,1 0 0 0 0,-10 43-1 0 0,-11 87-267 0 0,26-136-1093 0 0,1 1 0 0 0,1-1 0 0 0,1 21 1 0 0,0-35 58 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-3 4 0 0 0,3-6 11 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-2-1-1067 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89752.94">21076 3612 420 0 0,'-1'0'96'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1-2 657 0 0,3 0-330 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,8-1-1 0 0,0 0 1 0 0,37-13-7 0 0,0 2 0 0 0,59-9 0 0 0,16-5-4651 0 0,-49 5-1429 0 0,-51 16 4133 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="90308.75">22141 3024 792 0 0,'0'0'913'0'0,"-6"7"993"0"0,-18 55 719 0 0,13-40-1597 0 0,-13 36 1 0 0,-1 6 120 0 0,15-44-709 0 0,2 0 0 0 0,-9 29 0 0 0,16-41-404 0 0,-1 8 336 0 0,3-16-353 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,2 0-1 0 0,12-1 25 0 0,0-1 0 0 0,-1 0 0 0 0,19-5-1 0 0,-18 3-50 0 0,-1 1 0 0 0,1 1 0 0 0,18-1-1 0 0,-11 3 30 0 0,0 0 0 0 0,-1 2 0 0 0,36 7 0 0 0,-50-8 15 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,6 7 0 0 0,-2 4 159 0 0,-1-1-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 1 0 0,2 21-1 0 0,-6-31-50 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-9 7-1 0 0,4-5 24 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,-17 5 0 0 0,-92 9 282 0 0,108-16-433 0 0,-14 2-118 0 0,-56 3 317 0 0,73-6-509 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,-12-6 0 0 0,19 7 116 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,1-1-205 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,5-5-975 0 0,-1 1 0 0 0,1 0 0 0 0,9-8 0 0 0,-14 14 1215 0 0,18-18-1587 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="90682.99">22245 3108 204 0 0,'-35'-19'3386'0'0,"58"20"4860"0"0,94-2-6777 0 0,-3-6-1253 0 0,6-1-853 0 0,-39 6-3184 0 0,-31 2-2650 0 0,-35 0 4599 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="87968.67">19849 3543 968 0 0,'-6'11'2856'0'0,"5"-7"-981"0"0,4-7-167 0 0,16-22-361 0 0,15-27 1 0 0,-2 2-760 0 0,-1 2-64 0 0,-1-2 0 0 0,39-91 0 0 0,-43 71 72 0 0,12-28 1008 0 0,-33 78-917 0 0,-5 19-445 0 0,0 13-204 0 0,-10 90 644 0 0,2 15 684 0 0,1 0-364 0 0,5-32-661 0 0,3 70-123 0 0,9 21-1068 0 0,-9-123-1940 0 0,-1-34-636 0 0,2-25-1293 0 0,1-5 2491 0 0,-2-2-31 0 0,8-4 349 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88496.59">20229 3468 488 0 0,'4'0'484'0'0,"0"-1"-1"0"0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,6-4 1 0 0,5-5 484 0 0,22-27 0 0 0,-21 22-653 0 0,-2 3-77 0 0,12-13 412 0 0,-1-1 0 0 0,34-52 0 0 0,-31 38-157 0 0,-16 26-147 0 0,0-2 1 0 0,-1 0-1 0 0,-1 0 0 0 0,8-20 1 0 0,2-16 1435 0 0,-16 42-1327 0 0,-6 12-308 0 0,-11 18-30 0 0,6 0 264 0 0,1 1 0 0 0,0 0-1 0 0,2 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1 20 1 0 0,1-8 266 0 0,-2 18 230 0 0,2 74-1 0 0,9 28-632 0 0,-3-69-270 0 0,20 119 0 0 0,-21-162-1728 0 0,-1-26-1756 0 0,0-35-9848 0 0,5 10 11151 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120670.03">43800 1704 108 0 0,'-5'-6'1859'0'0,"5"6"-1750"0"0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,39-4 2840 0 0,149-3-1719 0 0,-64 15-5860 0 0,-110-7 2849 0 0,0 0 87 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="121007.75">43924 1812 932 0 0,'0'3'1036'0'0,"0"0"288"0"0,5-3-940 0 0,5 0 16 0 0,0 0 44 0 0,4-3-12 0 0,2 0-68 0 0,8 3-75 0 0,1-6-125 0 0,0 6-108 0 0,5-3-92 0 0,0 0-192 0 0,0 0-257 0 0,5 0-391 0 0,-5-3-356 0 0,10 3-112 0 0,-5 0 96 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118712.9">42613 1017 28 0 0,'-5'1'1212'0'0,"10"-2"-46"0"0,0-5 2839 0 0,-5 1 400 0 0,-5-22-1131 0 0,0 14-1967 0 0,5 12-1268 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 43 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,2-2 1 0 0,-4-1 476 0 0,1 9 627 0 0,2-6-1136 0 0,0 30 774 0 0,3-24-641 0 0,-1 0 1 0 0,1 0-1 0 0,-2 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 11 0 0 0,4 30 14 0 0,0 109-48 0 0,-5-125-17 0 0,0-32-123 0 0,0 1-1 0 0,0 1-2 0 0,0-2 6 0 0,0 1-7 0 0,0 3-61 0 0,0-8-412 0 0,-5-24-19246 0 0,5 16 17543 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120085.62">42874 903 36 0 0,'1'0'1261'0'0,"8"0"4574"0"0,-4 12 984 0 0,-5-11-6655 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,5 14 642 0 0,-3-13-739 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 3 1 0 0,3 20 232 0 0,0-20-197 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 11 0 0 0,8 42 876 0 0,-5-6-252 0 0,0-2-345 0 0,-10-41-256 0 0,5-11-112 0 0,0 5-3157 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="128522.85">52049 2280 76 0 0,'-8'-2'780'0'0,"0"0"-1"0"0,0 0 1 0 0,0 1-1 0 0,-24-2 8876 0 0,48 1-5987 0 0,28-2-1889 0 0,473-49 2879 0 0,-195 14-4234 0 0,303-37 535 0 0,-591 71-916 0 0,-5 1-96 0 0,17-2-967 0 0,-14 4-3011 0 0,-31 2 3346 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-2 1 0 0,0 0-528 0 0,3-3-1606 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="125841.69">51449 1422 580 0 0,'-1'1'315'0'0,"0"1"-1"0"0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 4-1 0 0,0-4-185 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,9-2 284 0 0,0-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,18-11 0 0 0,64-51 1039 0 0,-85 61-1321 0 0,12-10 148 0 0,-1-1 1 0 0,0 0-1 0 0,-2-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,15-29-1 0 0,-4-2 1050 0 0,-22 42-719 0 0,-3 8-412 0 0,-3 5-40 0 0,-20 56 817 0 0,20-49-693 0 0,0 0 1 0 0,1 0 0 0 0,-2 21-1 0 0,0 1 253 0 0,-2 23-121 0 0,2 1-1 0 0,2-1 1 0 0,3 1 0 0 0,9 62-1 0 0,-8-47-350 0 0,-3-43-290 0 0,5-10-2821 0 0,7-33-7795 0 0,-9 10 9622 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,5-7-1 0 0,5-2-951 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="126353.15">51974 1506 656 0 0,'1'-4'580'0'0,"0"-1"-1"0"0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,7-4 0 0 0,15-20 1203 0 0,35-44 574 0 0,-36 40-1670 0 0,-1-2 1 0 0,-2 0 0 0 0,-1-2 0 0 0,23-58 0 0 0,-35 74-322 0 0,-5 15-228 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,3-10 0 0 0,3-5 331 0 0,-6 17-379 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-3 0 0 0,1-9 897 0 0,-7 30-925 0 0,4-9-17 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 7 1 0 0,-2 9 176 0 0,-2 12 268 0 0,1 0 1 0 0,0 39-1 0 0,2-18-47 0 0,2-6-167 0 0,2 1-1 0 0,11 73 1 0 0,-11-112-270 0 0,14 70 66 0 0,-14-77-217 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,5 6-1 0 0,26-9-17853 0 0,-25-5 16126 0 0,7-2-290 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127965.03">53054 1416 480 0 0,'1'0'199'0'0,"-1"-1"-1"0"0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0-75 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 2 1 0 0,-17 19 1302 0 0,0 1 1 0 0,2 1 0 0 0,-27 45 0 0 0,38-57-1150 0 0,0 1 0 0 0,-8 22 0 0 0,13-30-242 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,2 8-1 0 0,-2-10-28 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,3 1-1 0 0,-1 0 2 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,5-1 0 0 0,2-1 1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,10-7 1 0 0,-13 8 5 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-10 0 0 0,1 8 38 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,-7-6-1 0 0,-8-5-4 0 0,-48-29 1 0 0,46 31 60 0 0,-42-32 1 0 0,66 47-87 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 11 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3 0-1 0 0,27-8-20 0 0,1 3 0 0 0,0 1-1 0 0,0 1 1 0 0,1 2 0 0 0,-1 1 0 0 0,37 4-1 0 0,-64-3-250 0 0,-1 1-1 0 0,0-1 0 0 0,1 2 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 1-1 0 0,5 2 0 0 0,-9-4-69 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 3-1 0 0,0 0-468 0 0,0 1 175 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 8 0 0 0,-1-12 639 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 2 0 0 0,0-2 85 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,3-1 1 0 0,-3 0 29 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 7 784 0 0,-1 0-1 0 0,0-1 0 0 0,-5 18 0 0 0,2-8-869 0 0,-9 65 1002 0 0,12-77-1021 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,5 10 0 0 0,-6-15-40 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,2 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,5-2 1 0 0,-1 0-7 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,8-7 0 0 0,10-10 220 0 0,-1-1 0 0 0,-1-1 0 0 0,-1-2-1 0 0,34-46 1 0 0,-46 52 1149 0 0,-8 12-150 0 0,-5 6-74 0 0,2 2-1100 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 4-1 0 0,0 0 61 0 0,1-5-94 0 0,-5 20 296 0 0,-2 30 0 0 0,7-47-363 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,3 6 0 0 0,1-2-999 0 0,-6-8 661 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,2 1-1 0 0,-1-2 73 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,2 0-1 0 0,9-3-906 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,14-9 0 0 0,55-42-887 0 0,-67 46 2299 0 0,54-51 2629 0 0,-65 60-2383 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,2-5 0 0 0,-1-6 6192 0 0,-3 41-4321 0 0,-5 54-509 0 0,0-30-1543 0 0,-10-72-270 0 0,4 9-58 0 0,-102-131-179 0 0,83 97 530 0 0,30 46-262 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,14-11 182 0 0,-15 11-181 0 0,10-5 54 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 1 0 0,13 0-1 0 0,-17 1-47 0 0,30-4-44 0 0,-16 2-316 0 0,1 0 0 0 0,-1 1 0 0 0,33 4 0 0 0,-45-1 1002 0 0,2 4-7965 0 0,-17 9-4339 0 0,-8-9 9456 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167705.9">1 7707 208 0 0,'0'0'1754'0'0,"5"11"-1169"0"0,1 1-109 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 15 0 0 0,11 37 792 0 0,11 26-300 0 0,12 30-370 0 0,-18-69-490 0 0,3-1 0 0 0,2 0 1 0 0,2-2-1 0 0,3-1 0 0 0,1-2 1 0 0,50 55-1 0 0,-39-54-89 0 0,2-2 0 0 0,83 64-1 0 0,-72-69-55 0 0,1 2 143 0 0,2-2 1 0 0,119 60-1 0 0,-86-61-44 0 0,1-3 0 0 0,157 36 1 0 0,-77-40 3 0 0,1-9 0 0 0,248 3 1 0 0,285-41 707 0 0,-483 6-624 0 0,354-33 51 0 0,-2-26-128 0 0,-551 64-65 0 0,352-46 148 0 0,132-17 19 0 0,-216 33-182 0 0,1644-203 210 0 0,-1231 133-154 0 0,47-7-12 0 0,-46 10-114 0 0,-279 37 144 0 0,266-38-99 0 0,913-116-16 0 0,-544 71-4 0 0,-707 97 73 0 0,1099-141 86 0 0,-872 126-97 0 0,774-76 24 0 0,-644 72-34 0 0,304-25-3 0 0,638 9 30 0 0,75 100-43 0 0,-470 89 136 0 0,-299 70 310 0 0,-666-99 128 0 0,344 138-1 0 0,-360-96 100 0 0,406 237 0 0 0,-255-97-512 0 0,-230-137-29 0 0,174 90 9 0 0,-223-139-104 0 0,-147-69-8 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,8-1 0 0 0,-10 0-3 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-3 0 0 0,71-184 28 0 0,-72 187-38 0 0,10-25-9 0 0,2 0 0 0 0,0 0 0 0 0,2 1 0 0 0,0 0 0 0 0,2 2 0 0 0,33-39 0 0 0,-13 22-22 0 0,3 1-1 0 0,67-52 0 0 0,19 0 11 0 0,4 5-1 0 0,3 7 1 0 0,4 5-1 0 0,147-56 1 0 0,3 19 35 0 0,308-74 1 0 0,109 35 27 0 0,9 57-26 0 0,744-8-43 0 0,4 65 40 0 0,-1216 32 4 0 0,1231-16-45 0 0,-136 4 54 0 0,-668 6-38 0 0,874-19 74 0 0,106-6-88 0 0,-453 13 56 0 0,1477-8-61 0 0,-1710 24 89 0 0,670 9-50 0 0,559 56 178 0 0,-1779-40-167 0 0,956 49 58 0 0,-67 24 82 0 0,-424-28-185 0 0,-387-29 54 0 0,556 35-83 0 0,0-25 98 0 0,-231-48-64 0 0,0-25 68 0 0,-705 23-43 0 0,52-1-8 0 0,388-22-33 0 0,-7-44 136 0 0,-463 54 20 0 0,-1-4-1 0 0,-1-3 0 0 0,-2-4 1 0 0,107-55-1 0 0,-125 51-68 0 0,-2-2 0 0 0,-1-4 0 0 0,-3-1-1 0 0,-1-3 1 0 0,90-93 0 0 0,-107 95-100 0 0,-1-1 0 0 0,-2-2 0 0 0,-2-2 1 0 0,-2 0-1 0 0,47-100 0 0 0,-66 120-14 0 0,-2 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-13-52 0 0 0,3 43-108 0 0,-1 0 0 0 0,-1 1 0 0 0,-3 1-1 0 0,0 0 1 0 0,-2 2 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-33-35 0 0 0,-7 2-681 0 0,-2 2 0 0 0,-104-75 0 0 0,0 18-1523 0 0,-5 8-1 0 0,-4 7 1 0 0,-253-105-1 0 0,194 110 625 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170185.62">11956 9557 748 0 0,'0'1'298'0'0,"-1"-1"-1"0"0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,13-8 2014 0 0,26-6-2291 0 0,-23 11 81 0 0,1-1 0 0 0,0 2 1 0 0,0 0-1 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,32 8 0 0 0,-45-8-48 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 4 0 0 0,0 1 62 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-7 7 1 0 0,-7 8 234 0 0,-2-1 1 0 0,0 0 0 0 0,-36 28-1 0 0,20-19 110 0 0,-5 0 805 0 0,40-30-1219 0 0,20-3 37 0 0,-6 1-84 0 0,1 2 1 0 0,-1-1-1 0 0,1 2 0 0 0,-1 0 0 0 0,1 1 1 0 0,15 4-1 0 0,-4 0-6 0 0,-1 1 1 0 0,36 16-1 0 0,-44-14 8 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,-1 2-1 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,15 25 1 0 0,-24-35 24 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 9-1 0 0,-1-12 11 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 1 0 0,-13 5 77 0 0,0-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-35-4 0 0 0,21 0-609 0 0,-41-7-1 0 0,74 10 406 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0-1-158 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,39-21-4118 0 0,-41 22 4338 0 0,78-41-6303 0 0,-52 28 4509 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170527.64">12896 9809 348 0 0,'0'0'1497'0'0,"30"6"1440"0"0,43-4-1286 0 0,-28 0-1288 0 0,52-6 1 0 0,-11-3-309 0 0,56-7-2170 0 0,-96 2-1300 0 0,-35 9 2234 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170880.82">13067 9578 416 0 0,'1'-8'3194'0'0,"0"9"-3004"0"0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 3-1 0 0,6 31 1653 0 0,-4-17-897 0 0,2 11 119 0 0,-1 0 0 0 0,0 37 0 0 0,-2-33-542 0 0,8 47 1 0 0,3 18-266 0 0,-13-69-625 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172116.01">14261 9515 320 0 0,'0'0'89'0'0,"0"1"0"0"0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-13 20 465 0 0,8-11 78 0 0,-26 46 1167 0 0,-22 42 284 0 0,47-84-1837 0 0,5-10-110 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-2 6 0 0 0,39-12 348 0 0,-17 1-478 0 0,0 1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 2-1 0 0,0 0 1 0 0,0 1 0 0 0,0 1 0 0 0,22 9 0 0 0,-31-10 31 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,15 14 0 0 0,-18-16 28 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3 16 0 0 0,-4-18 13 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-4 8 0 0 0,3-10-4 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-4 1 0 0 0,-27 5 86 0 0,1-2-1 0 0,-1-2 0 0 0,-51 0 1 0 0,-105-18-410 0 0,185 14 115 0 0,-27-5-1129 0 0,32 6 1111 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1-2-1 0 0,15-44-7067 0 0,-8 32 5721 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172452.97">14186 9551 300 0 0,'-1'-1'371'0'0,"0"0"1"0"0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1-4 1507 0 0,26 3 18 0 0,198-17 1077 0 0,-221 20-2965 0 0,14-1-98 0 0,1 2 0 0 0,-1 0 0 0 0,26 4 0 0 0,15 9-4555 0 0,-45-7 1110 0 0,-7-2 1879 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172993.35">14971 9512 832 0 0,'1'1'157'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 3 1 0 0,-3 7 328 0 0,-1-1 1 0 0,0 1-1 0 0,-8 12 0 0 0,-3 7 361 0 0,9-14-546 0 0,5-10-220 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 9 0 0 0,3-13-61 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,3 2 0 0 0,18 12 159 0 0,1-2-1 0 0,1 0 1 0 0,44 16-1 0 0,-40-18-138 0 0,-1 2 0 0 0,47 27 1 0 0,-57-27 131 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-2 0 0 0 0,25 32 0 0 0,-35-42 3 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,3 8 0 0 0,-5-13-82 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 1-1 0 0,-7 6 152 0 0,-1-2-1 0 0,1 1 0 0 0,-2-2 1 0 0,1 1-1 0 0,0-2 0 0 0,-18 5 1 0 0,-82 12 195 0 0,57-12-291 0 0,20-2-447 0 0,0-2 0 0 0,0-2 0 0 0,0-1-1 0 0,-60-4 1 0 0,93 2 67 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-3-1 0 0,0 0-560 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,3-8 0 0 0,1-3-768 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="173395.06">14937 9440 692 0 0,'-1'0'118'0'0,"1"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1-6 3914 0 0,0 7-3497 0 0,25 7 1790 0 0,1 0-1679 0 0,1-2 0 0 0,0 0 1 0 0,0-2-1 0 0,44-2 0 0 0,-39-1-462 0 0,69 3 714 0 0,-29-1-3242 0 0,-25-1-7099 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="173798.8">15947 9749 336 0 0,'0'1'91'0'0,"1"0"-1"0"0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0-1 0 0,27 1 1453 0 0,-26-1-1272 0 0,51 1 2324 0 0,10-1-1246 0 0,63-7 1 0 0,-84 4-1393 0 0,19-3-560 0 0,-22-6-2627 0 0,-40 12 3088 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0-4-1205 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="174139.97">16232 9530 792 0 0,'-16'16'2201'0'0,"14"-14"-2088"0"0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 3-1 0 0,-2 38 1781 0 0,1-22-732 0 0,3 38-1 0 0,32 158 971 0 0,-18-139-3561 0 0,-15-59-3259 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="174988.79">16992 9845 756 0 0,'0'0'87'0'0,"-1"0"-1"0"0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,7-20 1490 0 0,17-18-34 0 0,70-85 417 0 0,-83 106-1852 0 0,0-1 0 0 0,-1 0-1 0 0,-1-1 1 0 0,9-23 0 0 0,6-23 949 0 0,-24 53-366 0 0,-1 12-667 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 56 0 0,-2 13 178 0 0,-2 2 47 0 0,1-1 0 0 0,0 1 0 0 0,1 20 1 0 0,-1 12 499 0 0,0-13 43 0 0,6 64 0 0 0,0-12-305 0 0,-2-32-737 0 0,3-1 0 0 0,12 60 1 0 0,-17-100-463 0 0,0-12 302 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,2 1 0 0 0,4-18-7015 0 0,-1 6 5321 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="175436.93">17501 9755 284 0 0,'0'-1'187'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,8-7 381 0 0,0-5-259 0 0,1 1 0 0 0,15-14 0 0 0,19-21 617 0 0,-27 23-495 0 0,-6 10 35 0 0,-1-1 0 0 0,18-32 0 0 0,-16 24 170 0 0,-9 18-406 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-11 0 0 0,0 6 550 0 0,0 2 295 0 0,-5 15-542 0 0,-10 32 792 0 0,3 0 1 0 0,1 1 0 0 0,-6 67 0 0 0,12-77-896 0 0,1-13-209 0 0,1 0 0 0 0,0 0 0 0 0,4 33 0 0 0,3-3-73 0 0,-3-20-94 0 0,12 49 1 0 0,-10-58-223 0 0,15 42-1118 0 0,-17-54 161 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,5 6 0 0 0,-9-11 811 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 249 0 0,5-5-2053 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176007.61">18422 9767 240 0 0,'43'-3'5272'0'0,"16"-5"-4259"0"0,69-7-1559 0 0,-28 2-3928 0 0,-85 10 3217 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176691.71">18437 9995 440 0 0,'-9'2'2281'0'0,"17"1"3872"0"0,-8 1-4465 0 0,169-8 1079 0 0,-3-10-6302 0 0,-101 2-3182 0 0,-49 6 4664 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179736.84">20921 9437 704 0 0,'0'0'551'0'0,"-5"6"2234"0"0,24 12 452 0 0,-18-18-2835 0 0,4 0 996 0 0,-6-1-1358 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-2 0 0 0,-3-1 42 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-9-2 1 0 0,1 2 77 0 0,1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,-25 4 0 0 0,14 1 277 0 0,0 1-1 0 0,-30 11 1 0 0,28-6-75 0 0,0 2 0 0 0,1 1 1 0 0,1 1-1 0 0,0 1 0 0 0,2 2 0 0 0,0 0 1 0 0,0 1-1 0 0,2 2 0 0 0,1 0 0 0 0,-23 28 1 0 0,30-31-200 0 0,1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-7 23 0 0 0,12-30-116 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,1 1-1 0 0,7 22 1 0 0,-7-26-35 0 0,0-1 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 0 0 0,1-1 1 0 0,11 6-1 0 0,-4-5-2 0 0,0 0 1 0 0,0-1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-2 0 0 0,-1 0 1 0 0,23-5-1 0 0,-21 3-6 0 0,0-2 0 0 0,-1 1 1 0 0,1-2-1 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0-2-1 0 0,27-23 0 0 0,-38 29 6 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,2-12 0 0 0,-3 16 5 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-6-3-1 0 0,-4 0-10 0 0,-1-1 0 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,-15 1 1 0 0,-19 1-27 0 0,-81 14 0 0 0,94-9-157 0 0,-54 15 1 0 0,79-18-417 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 2-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-16 13 0 0 0,25-19 317 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 48 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,13 6-1958 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180540.88">21777 9416 228 0 0,'15'-3'4630'0'0,"-14"3"-4604"0"0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-6-5 1023 0 0,-12-7 325 0 0,5 10-1032 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-21 6 1 0 0,6 1 138 0 0,0 1 1 0 0,0 1 0 0 0,1 1 0 0 0,-32 19 0 0 0,49-24-332 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,2 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-8 19 0 0 0,10-18-24 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,2 18 0 0 0,-1-23-101 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,9 1 0 0 0,4 1-459 0 0,0-2 0 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 0 0 0,26-4 1 0 0,-35 2-456 0 0,-1 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,15-12 0 0 0,-19 12-20 0 0,0 0-1 0 0,0-1 0 0 0,9-12 1 0 0,-1 0-510 0 0,6-2 111 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181078.72">21876 9521 60 0 0,'-5'-38'2130'0'0,"0"-2"3122"0"0,-5 44-2518 0 0,3 19-380 0 0,5-20-2120 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1 3-1 0 0,-2 36 2096 0 0,1-25-1265 0 0,0 0 1 0 0,4 26-1 0 0,12 73 1184 0 0,-12-76-1779 0 0,-4 57 1 0 0,0-32-199 0 0,-1-37-178 0 0,0 0 0 0 0,-2 0-1 0 0,-2 0 1 0 0,-9 31 0 0 0,12-50-16 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-10 18 0 0 0,11-23-42 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-6 4 1 0 0,-11 2 26 0 0,0-1 1 0 0,0-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,0-1 0 0 0,-26 0-1 0 0,-9-2 80 0 0,-74-9-1 0 0,67 5-145 0 0,65 3-64 0 0,25-2-3840 0 0,-18 3 1740 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,7-2 0 0 0,1 0-1087 0 0,1 1 854 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="182831.92">23487 8723 184 0 0,'-10'-2'2558'0'0,"5"1"1638"0"0,-2 11-951 0 0,-106 216 4722 0 0,-3 4-4865 0 0,-88 142-933 0 0,-66 116-848 0 0,51-21-890 0 0,169-355-382 0 0,27-54-23 0 0,15-35-6 0 0,-1-1 0 0 0,-1 0 1 0 0,-21 33-1 0 0,27-48 91 0 0,-8 6-791 0 0,7-15-271 0 0,0-10-473 0 0,3 6-127 0 0,1-1 1 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,2-11-1 0 0,0 9 97 0 0,1 0-1 0 0,0 0 0 0 0,4-11 1 0 0,8-10-810 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="183520.84">23351 9659 428 0 0,'-1'-1'131'0'0,"0"1"0"0"0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0-24 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,3 0 153 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,12-1 0 0 0,-8 2 152 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,1 0 0 0 0,21 5 0 0 0,-30-6-271 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 6 0 0 0,-2 3 314 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-8 13 0 0 0,-57 93 2414 0 0,56-98-2464 0 0,-55 85 978 0 0,-63 101-366 0 0,106-161-882 0 0,-34 84 0 0 0,53-113-127 0 0,1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 1 0 0 0,0-1-1 0 0,0 1 1 0 0,3 18 0 0 0,-2-33-6 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,4 0-1 0 0,0-1 7 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,11-7 0 0 0,-8 3 2 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,5-14 0 0 0,-3 5-5 0 0,-1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,3-34 1 0 0,-8 42-27 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-5-11 0 0 0,-3-1-124 0 0,-1 0-1 0 0,-1 1 1 0 0,-30-35 0 0 0,-15-4-108 0 0,-24-30 67 0 0,75 79 174 0 0,0-1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,1 0-1 0 0,-7-17 1 0 0,12 26 5 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-5 0 0 0,-2 3-20 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,8-5 1 0 0,3-2-361 0 0,1 1 0 0 0,1 0 0 0 0,0 2 0 0 0,29-13 0 0 0,90-28-4482 0 0,76-2-7549 0 0,-170 43 10254 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="183968.56">24970 9620 420 0 0,'4'5'7205'0'0,"-4"-5"-7126"0"0,12-2 1001 0 0,83-13 1853 0 0,28-3-2471 0 0,-42 13-804 0 0,-24 1-1484 0 0,1-1-4033 0 0,-48 4 3964 0 0,-5 1 238 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="184400.58">24931 9878 28 0 0,'-3'6'9718'0'0,"102"-13"-6924"0"0,6-1-3784 0 0,-68 7-1667 0 0,47-9 0 0 0,-40 3 290 0 0,5 1 158 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:40:53.290"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">544 168 688 0 0,'10'10'2359'0'0,"-9"-9"-2214"0"0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,2 0 0 0 0,15 8 2273 0 0,-17-9-2280 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,2-3 1 0 0,1 1-43 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-4 0 0 0,-1 4-44 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-6-5-1 0 0,-1 0 18 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-22 4 0 0 0,14-1 252 0 0,0 1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 2-1 0 0,0 0 1 0 0,0 1 0 0 0,0 1 0 0 0,1 1 0 0 0,1 1-1 0 0,-20 14 1 0 0,29-18-268 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,14 12 0 0 0,-11-11-209 0 0,1 0 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-2-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,19 0 0 0 0,-18-2-574 0 0,1-1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-2 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-2-1 0 0,-1 1 1 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,16-18 0 0 0,-14 14 127 0 0,-2-1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-2-1 0 0,10-22 0 0 0,-13 23 768 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-1 1 0 0 0,4-30 0 0 0,-8 35 410 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,-7-19 0 0 0,9 26-298 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-3-2 0 0 0,5 3-128 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 3 1 0 0,-1 3 103 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 10-1 0 0,13 57 357 0 0,-7-47-402 0 0,43 238 1081 0 0,-31-148-884 0 0,-5 0 1 0 0,-2 161-1 0 0,-11-243-365 0 0,-2 0 0 0 0,-1-1 0 0 0,-2 1 0 0 0,-15 66 0 0 0,13-84-19 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 0 0 0,-2 1 0 0 0,-14 21 0 0 0,18-30-7 0 0,-1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-13 3 0 0 0,4-3 9 0 0,-1 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,-29-1 0 0 0,-1-4-18 0 0,-60-13-1 0 0,0-10-1257 0 0,38 1-5821 0 0,70 26 6685 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-3 0 0 0,4-6-3126 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="923.53">1519 924 388 0 0,'0'0'99'0'0,"0"0"0"0"0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-16 10 1913 0 0,-14 20-176 0 0,30-30-1776 0 0,-17 20 945 0 0,0 0 1 0 0,2 0 0 0 0,-24 39 0 0 0,35-50-828 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 1 0 0,0 19-1 0 0,0-26-139 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,3 1 0 0 0,-2-2-6 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,10-1 0 0 0,-3-1-12 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1-1 1 0 0,19-11-1 0 0,-23 12-14 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,4-8 0 0 0,-5 9-3 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-6 1 0 0,-1 0-2 0 0,0 1 0 0 0,-2-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-15-9 0 0 0,-10-5 97 0 0,-67-33-1 0 0,66 38 288 0 0,-60-40 1 0 0,92 56-351 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1-4-1 0 0,2 5-21 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,3-3 1 0 0,4-4 7 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,23-7 1 0 0,-11 5-100 0 0,0 2 0 0 0,0 1 1 0 0,41-5-1 0 0,-53 10-432 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,15 7 0 0 0,-6-2-2200 0 0,-1 2 1 0 0,0 1-1 0 0,28 21 1 0 0,-17-11 455 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2006.27">2099 1056 1044 0 0,'2'0'232'0'0,"0"-1"0"0"0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-2 0 0 0,2 3-144 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-26 5 679 0 0,16-1-654 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,2 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 1 1 0 0,0 1 0 0 0,1-1-1 0 0,0 2 1 0 0,0-1-1 0 0,-9 23 1 0 0,16-32-112 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,2 2 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,5-4 1 0 0,2-1 1 0 0,1-1-1 0 0,-2 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,13-18-1 0 0,-2-1 344 0 0,29-62 0 0 0,-34 54 1309 0 0,-15 37-1631 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-8 10 1236 0 0,1 10-236 0 0,3-9-611 0 0,0 1-1 0 0,-4 25 1 0 0,7-32-402 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,3 7 1 0 0,-2-6-51 0 0,-1-1 1 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,5 3-1 0 0,-4-4-256 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,9-1 0 0 0,2-1-532 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-2 0 0 0,23-12 0 0 0,-17 6 359 0 0,0-1-1 0 0,0-1 1 0 0,-2 0 0 0 0,24-23 0 0 0,-26 18 1386 0 0,29-40-1 0 0,-46 59-788 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 1 0 0,-2 1-63 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-3 1 183 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-5 2 0 0 0,3 0-172 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 10 0 0 0,-4-12-88 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,5 3-1 0 0,-3-3-41 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-2 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,5-2-1 0 0,6-2-3 0 0,-1 0-1 0 0,0-2 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,16-14-1 0 0,74-80-459 0 0,-70 67 464 0 0,-29 32 58 0 0,11-11 133 0 0,0-1 0 0 0,-2 0 0 0 0,14-22 1 0 0,-30 42 1002 0 0,1-2-1028 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 3 0 0 0,-3 16 269 0 0,3-14-238 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 9-1 0 0,2-7-105 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-2 0 0 0,0 1 0 0 0,8 11 0 0 0,-3-6-86 0 0,-9-12-50 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3 3 0 0 0,-4-20-2755 0 0,-2 8 2491 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-7-7 0 0 0,1-2-208 0 0,-21-30-725 0 0,-68-83 1 0 0,77 105 1637 0 0,-2 1 1 0 0,0 1-1 0 0,-1 1 0 0 0,-49-32 0 0 0,51 40 1 0 0,13 7-123 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-13-13 0 0 0,21 19-210 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,15-1 99 0 0,-16 1-103 0 0,27 1-307 0 0,0 2 0 0 0,49 9 0 0 0,54 22-5071 0 0,-51-12-143 0 0,-44-13 3494 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2440.21">3369 894 92 0 0,'5'-1'691'0'0,"0"0"-1"0"0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 2 0 0 0,7 0-1 0 0,-10-1-545 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 2-1 0 0,-24 179 6716 0 0,16 4-6122 0 0,9-186-772 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,-5-9-1672 0 0,-6-21-1015 0 0,-3-19-2249 0 0,-37-85-1 0 0,39 108 5184 0 0,-1 0-1 0 0,-1 2 1 0 0,-2-1-1 0 0,-31-36 1 0 0,37 51 572 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-27-14 0 0 0,22 17 1391 0 0,14 4-186 0 0,13 3-934 0 0,34 7 938 0 0,52 5 0 0 0,116-5-515 0 0,-170-8-1290 0 0,136 0-1209 0 0,-62-1-2507 0 0,2 3-4572 0 0,-78-1 4919 0 0,-8 1 525 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:15.735"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 561 360 0 0,'-25'17'6876'0'0,"40"-23"-5216"0"0,0-2-1221 0 0,0-1 0 0 0,-1-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,23-25 0 0 0,-16 16-219 0 0,18-20-49 0 0,-2-1 0 0 0,56-84 0 0 0,-73 93-46 0 0,-2-1-1 0 0,25-68 0 0 0,-34 79 88 0 0,7-29 925 0 0,-13 41-515 0 0,-7 17-231 0 0,-5 17 151 0 0,1 16 370 0 0,-2 16 225 0 0,5 17 531 0 0,5 88-1 0 0,3-113-1281 0 0,7 70 249 0 0,-3-74-502 0 0,16 104 37 0 0,-6-76-174 0 0,-14-49-280 0 0,-2-23 56 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-9-6111 0 0,2-7 2747 0 0,4 2 460 0 0,4-4 521 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="590.89">771 453 212 0 0,'23'-29'7931'0'0,"54"-65"-6623"0"0,-47 55-823 0 0,-2-1 1 0 0,-1-1 0 0 0,29-61-1 0 0,-50 89-338 0 0,-3 8-50 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3-11 0 0 0,2-9 364 0 0,-6 22-206 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-6 0 0 0,-15 55 1230 0 0,1 50 1920 0 0,0 116-1 0 0,11-110-2900 0 0,3 89-133 0 0,0-148-341 0 0,-1-26-18 0 0,4 30 1 0 0,-5-16-530 0 0,-1-25-1900 0 0,1-20-1899 0 0,2 3 1306 0 0,1 0 0 0 0,0 0 0 0 0,8-22 1 0 0,-9 30 2620 0 0,8-22-2115 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1540.21">1440 93 316 0 0,'36'-27'3165'0'0,"-24"20"-2674"0"0,1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 2 0 0 0,16-1 1 0 0,-27 2-399 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 4 1 0 0,-4-2 43 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 9 0 0 0,-1 8 361 0 0,0 0-1 0 0,-2 0 1 0 0,-1 0-1 0 0,-10 33 1 0 0,-34 79 1020 0 0,40-114-1366 0 0,-22 48 476 0 0,16-37-196 0 0,-15 46 1 0 0,24-61-360 0 0,1 0-1 0 0,-3 28 1 0 0,7-38-64 0 0,-1 0-1 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,5 9-1 0 0,-6-11-4 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,1-2 0 0 0,3-1-3 0 0,-1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,5-9 1 0 0,-2 0 0 0 0,-1 5 1 0 0,-1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,3-14 0 0 0,-6 20-2 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-3-4 0 0 0,-6-8-3 0 0,-2 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,-1 1-1 0 0,-32-23 1 0 0,-22-21-4 0 0,48 38-4 0 0,6 6 43 0 0,1 0-1 0 0,-14-17 1 0 0,25 27 14 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-10 0 0 0,2 13-41 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3-2 0 0 0,34-11-247 0 0,-26 10-59 0 0,-2 0-855 0 0,0 2 0 0 0,0-1 1 0 0,16 1-1 0 0,17-2-4835 0 0,-21-3 2794 0 0,2 0 345 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2177.85">2206 27 560 0 0,'33'-1'1570'0'0,"-18"0"-1008"0"0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,19 4 0 0 0,-30-5-415 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 7 0 0 0,0-3 177 0 0,-1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,-6 16 1 0 0,-7 9 669 0 0,-21 33 0 0 0,24-45-634 0 0,-14 25 389 0 0,-27 68 0 0 0,46-95-532 0 0,1 0-1 0 0,1 1 1 0 0,1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-2 37-1 0 0,5-49-118 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,5 8 0 0 0,-5-14-88 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,5-1 0 0 0,0 0-4 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,3-9 0 0 0,-3 0-1 0 0,0 9-4 0 0,-1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1-12 0 0 0,-1 10-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,-12-13 1 0 0,-6-3-9 0 0,-44-38 0 0 0,42 41 5 0 0,-34-39 0 0 0,56 57 4 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,5-5 1 0 0,-2 2-23 0 0,1-1 1 0 0,0 2 0 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0-1 0 0,17-6 1 0 0,-11 5-1095 0 0,2 2-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,17 1-1 0 0,51-5-7404 0 0,-50 1 6068 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:19.521"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">35 56 104 0 0,'-34'3'15192'0'0,"42"1"-14568"0"0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,9 0 0 0 0,68 4 91 0 0,-50-5-287 0 0,340 15 890 0 0,-162-8-1073 0 0,319 7 28 0 0,-520-15-272 0 0,501-9 1 0 0,-181 5-82 0 0,-220 5 46 0 0,-76-1 44 0 0,435 8 138 0 0,-409-6-136 0 0,-28-1-2 0 0,0 0-1 0 0,34 7 0 0 0,-58-6-5 0 0,0-2-1 0 0,0 1 1 0 0,0-2-1 0 0,16-1 1 0 0,3 0-136 0 0,-96-1-10936 0 0,-8 0 3050 0 0,28 3 5180 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2366.18">3720 8 400 0 0,'-9'2'1491'0'0,"0"0"-1"0"0,1 0 1 0 0,-1-1-1 0 0,-16 1 1742 0 0,37-2-1079 0 0,102-10 29 0 0,-79 8-2353 0 0,84-2 323 0 0,-40 8-4076 0 0,-70-1 1525 0 0,-9-3 2288 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-9 6-1538 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2697.64">3735 158 1112 0 0,'-2'0'256'0'0,"0"1"-1"0"0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 4 0 0 0,3-5-84 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,2-1 1 0 0,23-2 1371 0 0,132-12 312 0 0,-12 3-6334 0 0,-70 2-610 0 0,-37 5 2758 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:20.593"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">51 49 432 0 0,'5'-2'8507'0'0,"17"-9"-6007"0"0,20-7-3502 0 0,-16 10 2120 0 0,-19 6-999 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,8 2-1 0 0,-13-2-79 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 3-1 0 0,-1 7 120 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,-9 16 1 0 0,-7 17 367 0 0,17-37-392 0 0,0-1 0 0 0,-1 1-1 0 0,-7 9 1 0 0,-7 11 255 0 0,9-16-233 0 0,9-12-145 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 24 0 0,28-1 3 0 0,-1 1-1 0 0,1 1 1 0 0,34 8 0 0 0,-49-6 23 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 1 0 0,1 2-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,21 16-1 0 0,-27-19 32 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 7-1 0 0,-5-11-7 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,-3 3 0 0 0,-2 3 44 0 0,-1-1 1 0 0,1 0 0 0 0,-2-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-15 3 0 0 0,9-2-117 0 0,0-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 0-1 0 0,-26-6 1 0 0,24 3-211 0 0,1-2 0 0 0,0 1-1 0 0,0-2 1 0 0,-19-12 0 0 0,36 20 46 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,23-19-5165 0 0,-16 13 3769 0 0,0 0-57 0 0,0 0-1 0 0,17-8 1 0 0,-17 9 969 0 0,22-12-1345 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="766.29">1006 46 772 0 0,'0'1'146'0'0,"1"-1"0"0"0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,30-4 1186 0 0,-28 4-1038 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,6-6 0 0 0,-10 8-240 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0 17 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-2 1 0 0 0,-40-2 1025 0 0,37 2-858 0 0,-11 1 392 0 0,-1 0 0 0 0,1 2 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-17 10 0 0 0,23-10-438 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,-2 13 0 0 0,0 0-91 0 0,2 0 1 0 0,1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,1 1-1 0 0,4 37 1 0 0,-2-49-96 0 0,2-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-2 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-2 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,10 10 1 0 0,-11-13-7 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,15-2 0 0 0,-11 0 2 0 0,-1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,14-10 0 0 0,-19 12 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,3-11 1 0 0,-6 15 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-10 0 0 0,0 12-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-5-3 0 0 0,-4-2 4 0 0,0 1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 2 0 0 0,-17-1 0 0 0,-4 2 5 0 0,-1 2 1 0 0,-39 7 0 0 0,45-5-436 0 0,-1 2 1 0 0,2 2 0 0 0,-1 0 0 0 0,-30 14 0 0 0,32-5-3525 0 0,27-16 3794 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0-227 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,17-1-3065 0 0,5-4 511 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:34.161"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 94 1460 0 0,'-1'-6'3908'0'0,"1"5"-3841"0"0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,5-2 68 0 0,100-22 5107 0 0,3 8-3389 0 0,-9 1-1491 0 0,44-2-2187 0 0,2 8-8876 0 0,-111 9 8134 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:35.056"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">664 142 432 0 0,'30'-63'6115'0'0,"-29"62"-5949"0"0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-3 0 0 0,-1 2 42 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-4-1 0 0 0,-6-1 329 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 1 0 0 0,-15 0 1 0 0,-15 1 584 0 0,1 2 1 0 0,0 2-1 0 0,0 2 1 0 0,-80 22 0 0 0,104-22-1027 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 2 0 0 0,0-1 0 0 0,0 2 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-15 19 1 0 0,22-23-78 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 15 0 0 0,-3-15-70 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,10 6 0 0 0,-12-8-198 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,11-2 0 0 0,-7 0-91 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-2 0 0 0,15-8 0 0 0,-8 3 157 0 0,-2-1-1 0 0,1 0 1 0 0,-2-1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,17-29-1 0 0,-21 30 502 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-28 0 0 0,-4 43 32 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1-3-1 0 0,2 6-318 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 13 355 0 0,5-5-303 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 0 0 0,4 10 1 0 0,0 1 45 0 0,5 9-32 0 0,1-1 0 0 0,0-1 0 0 0,26 35 0 0 0,-17-27-65 0 0,24 43 321 0 0,-4 1 1 0 0,-2 3-1 0 0,41 119 1 0 0,-77-188-301 0 0,0 1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-3 21-1 0 0,2-27-21 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-8 5 0 0 0,-5 1-2 0 0,-1-1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 0 0 0 0,-21 2-1 0 0,-102 11 14 0 0,109-16-38 0 0,-337 23-1805 0 0,370-26 1770 0 0,-38 0-1552 0 0,36 0 1216 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,-2-2-1 0 0,3 3 216 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,10-11-3581 0 0,16-10-991 0 0,-25 21 4354 0 0,23-18-2918 0 0,5-1 549 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:35.519"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 55 912 0 0,'1'0'256'0'0,"-1"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,16-3 674 0 0,-12 2-219 0 0,144-21 4851 0 0,77 8-4170 0 0,-129 9-1665 0 0,-98 5 266 0 0,57 0-1410 0 0,-52 0 827 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,7 3 0 0 0,-12-4 385 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-5 8-1699 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.34">99 346 248 0 0,'-23'7'12882'0'0,"37"-5"-11837"0"0,186-10 1773 0 0,-1 1-4934 0 0,-88-1-3390 0 0,-27 1-701 0 0,-49 7 3923 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:32.867"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">138 182 568 0 0,'-9'-6'1639'0'0,"9"6"-1501"0"0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 358 0 0,-13-1 5663 0 0,44-19-5279 0 0,-10 13-871 0 0,0 0 0 0 0,1 1-1 0 0,0 1 1 0 0,36-2 0 0 0,-44 6 31 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,18 8-1 0 0,-27-9 30 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,2 7 0 0 0,-2-5 42 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 12 0 0 0,-4 7 182 0 0,-1-1-1 0 0,0 0 0 0 0,-2 0 0 0 0,-16 33 1 0 0,13-34-56 0 0,0-1 1 0 0,-2-1-1 0 0,0 0 0 0 0,-30 34 1 0 0,12-21 472 0 0,-56 48 0 0 0,27-33-299 0 0,59-49-409 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,8 2 13 0 0,21-7-31 0 0,-25 3 17 0 0,27-3 4 0 0,0 1 0 0 0,0 2 0 0 0,53 4 1 0 0,94 22 79 0 0,-155-21-74 0 0,-1 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,-2 1 1 0 0,35 19-1 0 0,-48-23 6 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 16 0 0 0,-2-13 34 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-2 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,-11 16 1 0 0,5-12 3 0 0,-1-1 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-2 0 0 0 0,1-2-1 0 0,-1 0 1 0 0,-18 4 0 0 0,-11 0-22 0 0,0-2 0 0 0,-1-1 0 0 0,-62-1 0 0 0,-28-8-192 0 0,117 0-497 0 0,1-1-1 0 0,-1 0 1 0 0,1-2-1 0 0,-36-13 1 0 0,53 18 373 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,1-4 1 0 0,1-1-969 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,9-10-1 0 0,-11 15 1038 0 0,18-26-2443 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="877.24">818 170 888 0 0,'-2'-1'170'0'0,"0"0"-1"0"0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 1 0 0,1-1-1 0 0,0 0 0 0 0,0-2 1 0 0,1 0 34 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,4-2 1 0 0,25-8 101 0 0,0 1 0 0 0,1 2-1 0 0,0 1 1 0 0,0 2 0 0 0,1 1 0 0 0,0 2 0 0 0,-1 1 0 0 0,1 2 0 0 0,0 1 0 0 0,67 12 0 0 0,-93-11-219 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,7 8 0 0 0,-11-10-10 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 8-1 0 0,-2 4 130 0 0,-2-1 0 0 0,1 0-1 0 0,-2 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-18 28-1 0 0,11-22-6 0 0,-1-1 0 0 0,0 0 0 0 0,-2-2 0 0 0,-31 30 0 0 0,6-12 76 0 0,-1-3-1 0 0,-61 37 1 0 0,164-71-364 0 0,-6-1 69 0 0,1 2 0 0 0,-1 2 0 0 0,0 3 0 0 0,0 2 0 0 0,0 3 0 0 0,78 23 0 0 0,-100-20 26 0 0,0 2 0 0 0,48 27-1 0 0,-73-37-6 0 0,10 6 6 0 0,-1 0 0 0 0,1 1 0 0 0,-2 1 0 0 0,0 1 0 0 0,22 24 0 0 0,-33-32 9 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 13 0 0 0,-3-9 32 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-5 12 0 0 0,-1-4 112 0 0,0-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-2-1 1 0 0,0 0 0 0 0,-26 21 0 0 0,17-19 23 0 0,-1-2 1 0 0,0 0 0 0 0,-1-2 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-2-1 0 0,-55 13 1 0 0,43-16-256 0 0,-1-1 0 0 0,1-1 0 0 0,-1-2 0 0 0,0-2 0 0 0,-47-5 0 0 0,69 3-347 0 0,-42-7-1803 0 0,54 8 1458 0 0,0-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-7-3 0 0 0,11 5 580 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,19-18-3700 0 0,-18 17 3454 0 0,17-13-1914 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5048,6 +7763,72 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">327 137 620 0 0,'0'-8'508'0'0,"1"-1"1"0"0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,7-12 1 0 0,-9 17-75 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-3-1 0 0,0 1 669 0 0,1 3-170 0 0,2 8-410 0 0,2 8-59 0 0,6 68 1072 0 0,-1-31-1280 0 0,3-1 0 0 0,2-1 0 0 0,1 0 0 0 0,43 83 0 0 0,-27-73-566 0 0,57 81 1 0 0,-70-112-201 0 0,-13-18-71 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,1 1 0 0 0,18 13 0 0 0,-25-21 271 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,3-3 1 0 0,13-8-1372 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="327.12">922 302 692 0 0,'-3'-8'588'0'0,"-1"0"0"0"0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-8-7-1 0 0,9 12-370 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-5 1 0 0 0,1 1 90 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,-6 5 0 0 0,-7 6 149 0 0,0 0-1 0 0,-24 28 0 0 0,21-18-259 0 0,1 1-1 0 0,1 1 0 0 0,1 1 0 0 0,2 1 0 0 0,-25 55 1 0 0,4-4-383 0 0,30-59-842 0 0,-1 0-1 0 0,-1-1 0 0 0,-14 19 0 0 0,23-37 547 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-5 2-1 0 0,-10-2-1372 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="667.95">51 593 1000 0 0,'-21'-15'2641'0'0,"-7"-9"709"0"0,28 24-3239 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,16-6 1455 0 0,25 0-1323 0 0,-38 5 94 0 0,157-17 1330 0 0,402-27-1606 0 0,-372 52-3265 0 0,-108 1-1813 0 0,118 26 0 0 0,-136-17 3008 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:47.339"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 304 412 0 0,'-27'5'20304'0'0,"27"-5"-20050"0"0,9 6 2906 0 0,22 4-2384 0 0,26-4-151 0 0,97-3 0 0 0,60-17-522 0 0,-151 9-42 0 0,849-67 141 0 0,1259-86 400 0 0,-552 92 513 0 0,-1468 63-1146 0 0,238-7-914 0 0,-364 10-452 0 0,-17 1-1035 0 0,-16 2-2363 0 0,-7-2 2308 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,-16-3 1 0 0,5 0 352 0 0,-32-2-1224 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-02-01T08:41:45.823"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">354 583 616 0 0,'-57'3'3679'0'0,"-1"0"3709"0"0,46-5-4518 0 0,10-2-259 0 0,3 3-2497 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,4 0 0 0 0,63-23 598 0 0,139-26-1 0 0,-164 43-436 0 0,1 1 1 0 0,1 3-1 0 0,-1 2 1 0 0,63 6-1 0 0,-91-4-171 0 0,0 2-1 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,15 10 0 0 0,-23-13-36 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 2 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1 8-1 0 0,-1 5 37 0 0,-1-1 0 0 0,0 1 0 0 0,-2-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,-2-1 1 0 0,0 0 0 0 0,-10 18 0 0 0,-10 11 70 0 0,-1-1 0 0 0,-41 48-1 0 0,-226 225 266 0 0,243-268-396 0 0,-192 187 256 0 0,120-131-91 0 0,29-28-74 0 0,63-54-91 0 0,32-25-41 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,2-2 1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,1 1 6 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 1 0 0 0,19 2 36 0 0,0 0 0 0 0,0-2 0 0 0,0-1 0 0 0,28-2 0 0 0,-17 1-10 0 0,335-27 143 0 0,-191 9-137 0 0,418-33-546 0 0,-582 50 62 0 0,-6 1 222 0 0,0-1 1 0 0,-1 0-1 0 0,11-3 0 0 0,0-6-2644 0 0,-19 9 2417 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,23-69-13076 0 0,-14 46 11274 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="682.97">2253 100 880 0 0,'7'-26'2915'0'0,"-6"21"-2358"0"0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,5-5 0 0 0,-7 8-417 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 1 119 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 3-1 0 0,2 4 357 0 0,0-1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 14 1 0 0,-7 21 261 0 0,-2 0 1 0 0,-21 61-1 0 0,7-27-362 0 0,-86 218 680 0 0,53-159-888 0 0,-79 164 202 0 0,50-118-210 0 0,-6-5-59 0 0,52-102-119 0 0,30-58-85 0 0,8-16-24 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 5 0 0 0,1-6-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,38 2 106 0 0,1-2-1 0 0,-1-2 1 0 0,76-15 0 0 0,-114 17-109 0 0,5 0-15 0 0,182-36 90 0 0,-147 27-944 0 0,-2-3 1 0 0,59-24-1 0 0,-88 32-352 0 0,-1-1-1 0 0,1 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,16-14 0 0 0,-22 17 242 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-2-1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,2-9-1 0 0,1-3-1475 0 0,1 0 494 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.02">2494 1108 628 0 0,'5'-92'6806'0'0,"-2"47"-3076"0"0,-2 24 8810 0 0,-50 240-7135 0 0,0 116-2954 0 0,34-219-1603 0 0,6-24-668 0 0,2 98-1 0 0,7-164-229 0 0,2 1-1 0 0,0-1 1 0 0,2 1-1 0 0,7 27 1 0 0,-10-54-98 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,-13-8-9527 0 0,8 4 8040 0 0,4 2 742 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-4-1 1 0 0,-22-2-2978 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5113,7 +7894,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2 311 500 0 0,'-1'0'5969'0'0,"6"-2"-2414"0"0,19-1-1239 0 0,34-4-1639 0 0,317 10 3490 0 0,-282 0-3262 0 0,61 6 463 0 0,57 0-1169 0 0,-206-9-632 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,5-2-1 0 0,-9 3 259 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-82 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-34-20-4978 0 0,11 9 3304 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.92">512 62 840 0 0,'0'-5'771'0'0,"0"1"-285"0"0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3-6 0 0 0,4 10-329 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-6 19 1881 0 0,-7 24 692 0 0,9-33-2147 0 0,1 0 0 0 0,0 0 0 0 0,-2 19 0 0 0,1 42 892 0 0,8 112 1 0 0,0-142-1250 0 0,13 52 0 0 0,2 6-79 0 0,-13-62-172 0 0,0 1-1895 0 0,-4-13-2789 0 0,-2-24 4168 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.91">512 62 840 0 0,'0'-5'771'0'0,"0"1"-285"0"0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-3-6 0 0 0,4 10-329 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-6 19 1881 0 0,-7 24 692 0 0,9-33-2147 0 0,1 0 0 0 0,0 0 0 0 0,-2 19 0 0 0,1 42 892 0 0,8 112 1 0 0,0-142-1250 0 0,13 52 0 0 0,2 6-79 0 0,-13-62-172 0 0,0 1-1895 0 0,-4-13-2789 0 0,-2-24 4168 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5382,25 +8163,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2"/>
     <col min="3" max="3" width="6" style="3"/>
     <col min="4" max="4" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="6" style="3"/>
-    <col min="8" max="8" width="6" style="2"/>
-    <col min="9" max="10" width="6" style="3"/>
-    <col min="11" max="11" width="6" style="2"/>
+    <col min="8" max="8" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="3"/>
+    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="3"/>
     <col min="13" max="13" width="6" style="2"/>
     <col min="14" max="14" width="6" style="3"/>
@@ -5443,10 +8225,10 @@
       <c r="H1" s="23">
         <v>7</v>
       </c>
-      <c r="I1" s="32">
+      <c r="I1" s="36">
         <v>8</v>
       </c>
-      <c r="J1" s="33"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="23">
         <v>9</v>
       </c>
@@ -5499,7 +8281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="17" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="17" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -5628,7 +8410,7 @@
       <c r="D4" s="18">
         <v>58316</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="32">
         <v>29652</v>
       </c>
       <c r="F4" s="7"/>
@@ -5662,7 +8444,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>33176</v>
       </c>
       <c r="F5" s="7"/>
@@ -5695,14 +8477,21 @@
       </c>
     </row>
     <row r="6" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>45309</v>
+      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
       <c r="E6" s="19"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="34">
+        <v>35896</v>
+      </c>
+      <c r="I6" s="31">
+        <v>36021</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
       <c r="L6" s="8"/>
@@ -5736,7 +8525,9 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="31">
+        <v>33180</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
       <c r="L7" s="8"/>
@@ -5763,14 +8554,25 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="35">
+        <v>51971</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="35">
+        <v>2850</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="31">
+        <v>46966</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
@@ -5797,6 +8599,9 @@
       </c>
     </row>
     <row r="9" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>45316</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -5806,7 +8611,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="9">
+        <v>58476</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8"/>
@@ -5840,7 +8647,9 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="34">
+        <v>57416</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="7"/>
       <c r="N10" s="8"/>
@@ -5865,16 +8674,25 @@
       </c>
     </row>
     <row r="11" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="34">
+        <v>61383</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="33">
+        <v>48456</v>
+      </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="34">
+        <v>58517</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
@@ -5893,6 +8711,9 @@
       <c r="AA11" s="12"/>
     </row>
     <row r="12" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>45323</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -5903,9 +8724,15 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
+      <c r="L12" s="31">
+        <v>61390</v>
+      </c>
+      <c r="M12" s="9">
+        <v>46969</v>
+      </c>
+      <c r="N12" s="31">
+        <v>38946</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="7"/>
@@ -5933,7 +8760,9 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
+      <c r="N13" s="8">
+        <v>46970</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="7"/>
@@ -6316,7 +9145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54668835-FE4B-4FD1-9501-959AF73974D4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -6325,4 +9154,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FB1C0-55B8-4594-91B7-D6F89B7E6716}">
+  <dimension ref="L34:Q45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f>69/8</f>
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="44" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f>33-9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f>1188/36</f>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ЕГЭ Арина Равилова.xlsx
+++ b/ЕГЭ Арина Равилова.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1D32E6-51BC-41B8-8970-723192948212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0E665-C8B4-4FD3-B0D6-30B7246645BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>СГ2</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -3706,8 +3709,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>75180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Рукописный ввод 2">
@@ -3726,7 +3729,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Рукописный ввод 2">
@@ -3771,8 +3774,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>74265</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Рукописный ввод 11">
@@ -3791,7 +3794,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Рукописный ввод 11">
@@ -3836,8 +3839,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>53685</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Рукописный ввод 25">
@@ -3856,7 +3859,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Рукописный ввод 25">
@@ -3901,8 +3904,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Рукописный ввод 32">
@@ -3921,7 +3924,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Рукописный ввод 32">
@@ -3966,8 +3969,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Рукописный ввод 39">
@@ -3986,7 +3989,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Рукописный ввод 39">
@@ -4031,8 +4034,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>74030</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Рукописный ввод 56">
@@ -4051,7 +4054,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Рукописный ввод 56">
@@ -4096,8 +4099,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>154860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Рукописный ввод 57">
@@ -4116,7 +4119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Рукописный ввод 57">
@@ -4161,8 +4164,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>153900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Рукописный ввод 74">
@@ -4181,7 +4184,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Рукописный ввод 74">
@@ -4226,8 +4229,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>53930</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Рукописный ввод 79">
@@ -4246,7 +4249,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Рукописный ввод 79">
@@ -4291,8 +4294,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>168775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Рукописный ввод 80">
@@ -4311,7 +4314,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Рукописный ввод 80">
@@ -4356,8 +4359,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>129470</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Рукописный ввод 89">
@@ -4376,7 +4379,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Рукописный ввод 89">
@@ -4421,8 +4424,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>54590</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Рукописный ввод 99">
@@ -4441,7 +4444,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Рукописный ввод 99">
@@ -4486,8 +4489,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>92270</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="103" name="Рукописный ввод 102">
@@ -4506,7 +4509,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="103" name="Рукописный ввод 102">
@@ -4551,8 +4554,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130795</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="106" name="Рукописный ввод 105">
@@ -4571,7 +4574,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="106" name="Рукописный ввод 105">
@@ -4616,8 +4619,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>131090</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Рукописный ввод 106">
@@ -4636,7 +4639,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Рукописный ввод 106">
@@ -4681,8 +4684,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>61680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Рукописный ввод 107">
@@ -4701,7 +4704,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Рукописный ввод 107">
@@ -4746,8 +4749,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>110810</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="134" name="Рукописный ввод 133">
@@ -4766,7 +4769,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="134" name="Рукописный ввод 133">
@@ -4811,8 +4814,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>55500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Рукописный ввод 138">
@@ -4831,7 +4834,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Рукописный ввод 138">
@@ -4876,8 +4879,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>133140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Рукописный ввод 143">
@@ -4896,7 +4899,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Рукописный ввод 143">
@@ -4941,8 +4944,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>165645</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="Рукописный ввод 149">
@@ -4961,7 +4964,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="Рукописный ввод 149">
@@ -5006,8 +5009,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>169975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Рукописный ввод 150">
@@ -5026,7 +5029,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Рукописный ввод 150">
@@ -5071,8 +5074,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>182035</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Рукописный ввод 153">
@@ -5091,7 +5094,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Рукописный ввод 153">
@@ -5136,8 +5139,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>79380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Рукописный ввод 154">
@@ -5156,7 +5159,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Рукописный ввод 154">
@@ -5201,8 +5204,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>164690</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Рукописный ввод 157">
@@ -5221,7 +5224,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Рукописный ввод 157">
@@ -5266,8 +5269,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>133020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="159" name="Рукописный ввод 158">
@@ -5286,7 +5289,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="159" name="Рукописный ввод 158">
@@ -5331,8 +5334,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>56220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="163" name="Рукописный ввод 162">
@@ -5351,7 +5354,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="163" name="Рукописный ввод 162">
@@ -5396,8 +5399,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>58075</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Рукописный ввод 163">
@@ -5416,7 +5419,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Рукописный ввод 163">
@@ -6525,7 +6528,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1119 69 480 0 0,'-1'-2'178'0'0,"1"0"1"0"0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 1-58 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-2-1 0 0,1-2 630 0 0,8-15 10801 0 0,-9 29-10985 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,3 8-1 0 0,-3-13-507 0 0,13 55 1947 0 0,-4-25-1660 0 0,-2 0 0 0 0,-1 0 0 0 0,3 45 0 0 0,-4-31-168 0 0,-5-27-140 0 0,0 1-1 0 0,-1 0 0 0 0,-3 20 1 0 0,0 19 24 0 0,1-40-3 0 0,0-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,-10 26 0 0 0,12-36-32 0 0,-3 6 22 0 0,-1-1 0 0 0,-10 19 1 0 0,4-9 9 0 0,8-16-43 0 0,-47 86 152 0 0,44-82-127 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-12 9 0 0 0,14-13-9 0 0,-3 3 29 0 0,0-1 1 0 0,-1 0-1 0 0,-16 8 0 0 0,-144 49 364 0 0,92-37-340 0 0,67-22-66 0 0,-25 8 100 0 0,0 1-1 0 0,-52 29 1 0 0,80-37-89 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-10 15 0 0 0,15-16-6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 16 1 0 0,2-22-17 0 0,-1 32 58 0 0,1 0 1 0 0,1 0-1 0 0,2 0 1 0 0,1-1 0 0 0,10 40-1 0 0,22 69-76 0 0,-15-70-791 0 0,-19-68 588 0 0,7 40-3079 0 0,-8-22-1394 0 0,-9-3-3800 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.15">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.12">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2750.49">3424 1398 696 0 0,'19'-45'3038'0'0,"-17"40"-2652"0"0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1-8-1 0 0,3-4 10275 0 0,-7 32-6263 0 0,-17 98-1313 0 0,-3 18-1799 0 0,3-13-518 0 0,3-7-244 0 0,5-27-261 0 0,-25 239 47 0 0,34-239-391 0 0,2-47-1290 0 0,0-36 298 0 0,2-5 400 0 0,2-6-277 0 0,10-148-8280 0 0,-9 73 6397 0 0,-1 28 1459 0 0,16-187-1712 0 0,-2 1 3380 0 0,-17 220-51 0 0,0-14 1063 0 0,1 0 0 0 0,15-59 1 0 0,-17 91-914 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,5-6 0 0 0,-6 9-237 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 41 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 3 1 0 0,4 4 335 0 0,1 1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 14 0 0 0,29 70 756 0 0,-16-34-598 0 0,17 48 162 0 0,-19-45-503 0 0,-4-8-102 0 0,12 27 31 0 0,74 171 259 0 0,-62-136-384 0 0,4 12-94 0 0,-41-119-391 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 16-1 0 0,-6-30-274 0 0,-2 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6-4 1 0 0,-99-69-15484 0 0,98 68 14987 0 0,-11-10-1197 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.45">3343 2046 584 0 0,'-10'-12'20655'0'0,"40"18"-16310"0"0,44 1-3137 0 0,1-4-1 0 0,97-7 0 0 0,-168 4-1174 0 0,235-18 416 0 0,-220 15-2425 0 0,-15 2-1475 0 0,-12 2 78 0 0,-6 1-632 0 0,-46 4-8703 0 0,39-5 9653 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4946.89">23 2438 720 0 0,'-22'-18'9623'0'0,"26"16"-7412"0"0,-1 11-1244 0 0,-3-6-844 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 4 0 0 0,2 2 33 0 0,-3-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-3-3-38 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-3 185 0 0,-8 5-168 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 1 82 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,2 2-64 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-5 1 0 0 0,7-2-64 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,16 16-76 0 0,-15-15 81 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,3 1 0 0 0,-4 0 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,2-6 40 0 0,-2 8-40 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-3-6 170 0 0,3 7-160 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-5 2 24 0 0,4-2-41 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 3-1 0 0,-11 18-5641 0 0,11-13 346 0 0,1 2-3369 0 0,1-6 6300 0 0</inkml:trace>
@@ -6865,7 +6868,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">350 46 24 0 0,'0'0'283'0'0,"-14"3"1159"0"0,14-4-1350 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 425 0 0,16-6 37 0 0,39-13-230 0 0,-51 18-247 0 0,4-1 49 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,11 2-1 0 0,-9-1 55 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,10 12 1 0 0,-12-13-2 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4 9 0 0 0,-5-10-19 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2 6 1 0 0,-2 2 26 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,-18 21 0 0 0,14-17-32 0 0,4-8-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-18 10 0 0 0,-9 8 269 0 0,4-7 95 0 0,31-18-324 0 0,51-15-170 0 0,-33 12 53 0 0,-1 0-1 0 0,1 1 0 0 0,0 1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,24 7 1 0 0,1 3 11 0 0,-1 2 1 0 0,65 33 0 0 0,-83-38 46 0 0,29 17 310 0 0,-48-25-343 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,3 5 0 0 0,-5-6 71 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-2 5 0 0 0,1-2 80 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-9 8 1 0 0,-6 3 321 0 0,-2 0-1 0 0,0-2 1 0 0,-1 0 0 0 0,0-1 0 0 0,-45 18 0 0 0,42-22-284 0 0,-1-1 0 0 0,-30 5 0 0 0,40-10-140 0 0,-9 1 4 0 0,0-1 0 0 0,0-1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-2 0 0 0,-41-7 0 0 0,54 7-32 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-13-7 0 0 0,23 11-53 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-3 0 0 0,1 4-28 0 0,14-5-1195 0 0,-7 4-2404 0 0,32-6-9608 0 0,-29 5 10430 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1030.67">1770 451 916 0 0,'8'-4'2381'0'0,"-8"7"-615"0"0,-15 14 370 0 0,-29 23-482 0 0,33-29-1269 0 0,-1 0 0 0 0,2 0-1 0 0,-19 25 1 0 0,28-34-378 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,4-1 0 0 0,-1 1-2 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,3-4 68 0 0,0 0 0 0 0,-1-1 0 0 0,14-18 0 0 0,-9 11 106 0 0,-13 16-150 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 0 2 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,-6-3-7 0 0,-1 1-1 0 0,-19-8 1 0 0,25 11 1 0 0,-47-18 11 0 0,16 7-17 0 0,1-2 0 0 0,-41-22 0 0 0,75 36-19 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,1-2 1 0 0,2-2-3 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,12-4 0 0 0,-3 2 19 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,23-2 0 0 0,-37 5-36 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,7 16-3236 0 0,-6-10 1588 0 0,-3-7 1326 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 5-1191 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1030.64">1770 451 916 0 0,'8'-4'2381'0'0,"-8"7"-615"0"0,-15 14 370 0 0,-29 23-482 0 0,33-29-1269 0 0,-1 0 0 0 0,2 0-1 0 0,-19 25 1 0 0,28-34-378 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,4-1 0 0 0,-1 1-2 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,3-4 68 0 0,0 0 0 0 0,-1-1 0 0 0,14-18 0 0 0,-9 11 106 0 0,-13 16-150 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 0 2 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,-6-3-7 0 0,-1 1-1 0 0,-19-8 1 0 0,25 11 1 0 0,-47-18 11 0 0,16 7-17 0 0,1-2 0 0 0,-41-22 0 0 0,75 36-19 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,1-2 1 0 0,2-2-3 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,12-4 0 0 0,-3 2 19 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,23-2 0 0 0,-37 5-36 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,7 16-3236 0 0,-6-10 1588 0 0,-3-7 1326 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 5-1191 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1584.97">1991 457 900 0 0,'30'-3'5184'0'0,"-26"10"-2761"0"0,-5-3-2263 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 5 0 0 0,0-5-152 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,8 0 0 0 0,-12-2-7 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,3-1-1 0 0,3-4 14 0 0,0 0-1 0 0,-1-1 1 0 0,9-11-1 0 0,4-5 25 0 0,-3-2 1103 0 0,-12 17 432 0 0,-10 17 40 0 0,4-4-1448 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0 4 1 0 0,0-8-102 0 0,0 10 18 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,3 11-1 0 0,-4-19-328 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4 2 0 0 0,-4-2-31 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1-2-1 0 0,34-23-5437 0 0,-22 17 4247 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2062.9">2470 505 364 0 0,'10'-10'1539'0'0,"21"-18"1117"0"0,-30 28-2449 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,2 2 1 0 0,-2-2-35 0 0,1 2-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 2 0 0 0,-1 34 796 0 0,0-22-624 0 0,1 52-361 0 0,0-67-14 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-7-4-1658 0 0,-5-6-583 0 0,8 4 1488 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-11-5 1 0 0,-46-19-1359 0 0,29 14 2451 0 0,8-1 444 0 0,26 16-722 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 1 0 0,6-3 447 0 0,-4 1-130 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,6-1 0 0 0,10-3 641 0 0,1 2 1 0 0,-1 0-1 0 0,24-1 1 0 0,-27 4-1044 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,19 3 0 0 0,-35-5-2 0 0,6 2-1007 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,13-2 0 0 0,-6-1-959 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2790.97">3031 463 432 0 0,'9'0'2363'0'0,"-8"-1"-2358"0"0,1-1 245 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-4 1 0 0,-3 6-192 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 15 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-3 0-1 0 0,-7 1 178 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-15 11 0 0 0,20-11-212 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 6 0 0 0,0-1-11 0 0,6-9-29 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,5-2 0 0 0,2-2 28 0 0,-2 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,12-12 0 0 0,20-13 640 0 0,-29 22 17 0 0,-3 4 582 0 0,-6 23 193 0 0,0-10-1261 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,8 12 1 0 0,-6-9-175 0 0,-5-10-24 0 0,21 36-1110 0 0,-20-35 625 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,3 1 1 0 0,1 3-2427 0 0</inkml:trace>
@@ -6941,7 +6944,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">187 296 284 0 0,'-10'-66'5945'0'0,"8"29"-2159"0"0,-1 21 2158 0 0,6 85-4786 0 0,2 0 1 0 0,27 126-1 0 0,-3-45-1129 0 0,8 41-54 0 0,-33-176-23 0 0,1 2-430 0 0,-2 1-1 0 0,1-1 1 0 0,-1 20-1 0 0,-2-36 351 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-2 1 1 0 0,2-2-13 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-17-32-3797 0 0,-6-54 67 0 0,9 31 2151 0 0,-4 8 487 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="416.41">81 332 372 0 0,'-64'-155'3804'0'0,"49"92"-1468"0"0,15 62-2265 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 22 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2 1-1 0 0,3 0 173 0 0,1 0-1 0 0,-1 1 1 0 0,1 1 0 0 0,-1-1-1 0 0,9 6 1 0 0,36 20 366 0 0,-2 2 1 0 0,-1 2-1 0 0,-2 3 0 0 0,50 46 0 0 0,-46-37-463 0 0,13 14-2 0 0,-3 3-72 0 0,49 53-42 0 0,59 63-8 0 0,-148-150-15 0 0,-17-21 143 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,11 7-1 0 0,-15-13-105 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,3-18 1074 0 0,1-27 313 0 0,-3 36-1281 0 0,-1-1-1 0 0,0 0 1 0 0,0-14 0 0 0,-14-106-252 0 0,-6 0 0 0 0,-49-177 0 0 0,57 266-694 0 0,-8-31-3983 0 0,9 52-2590 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.45">1361 377 780 0 0,'15'1'7709'0'0,"0"0"-5101"0"0,26 1-2296 0 0,129-12 176 0 0,-56 7-4239 0 0,-101 2 2876 0 0,-1-1-4381 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1234.64">1556 458 628 0 0,'-30'15'1430'0'0,"24"-12"-897"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6 6 0 0 0,12-10-481 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,19 5 744 0 0,17-6-924 0 0,66-10-1 0 0,32-21-5698 0 0,-100 22 4065 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1234.61">1556 458 628 0 0,'-30'15'1430'0'0,"24"-12"-897"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6 6 0 0 0,12-10-481 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,19 5 744 0 0,17-6-924 0 0,66-10-1 0 0,32-21-5698 0 0,-100 22 4065 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2005">2467 149 84 0 0,'-4'1'353'0'0,"-1"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 1 0 0 0,-19 6 676 0 0,-32 3 2051 0 0,57-11-2874 0 0,-4 1 741 0 0,9-3-179 0 0,17-4-472 0 0,13 0-250 0 0,0 1 0 0 0,0 1 0 0 0,41 3 0 0 0,-53 0-28 0 0,9 0 40 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,40 13 0 0 0,-65-18-11 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,2 5 0 0 0,-2-2 104 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-8 10-1 0 0,-7 8 258 0 0,-2-2-1 0 0,-1 0 0 0 0,0-1 1 0 0,-49 35-1 0 0,9-6 106 0 0,-58 52 334 0 0,45-42-485 0 0,73-59-362 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 4 1 0 0,1-5 2 0 0,30 6 440 0 0,40-9-171 0 0,110-20 1 0 0,-46 4-316 0 0,-44 6-744 0 0,-54 5-3990 0 0,-35 7 4567 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,2-5-2729 0 0,2 1 1024 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2500.35">3336 353 268 0 0,'-12'33'8289'0'0,"-16"37"-6027"0"0,25-59-2154 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,1 0 0 0 0,11 15 0 0 0,-13-20-66 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,13 4 0 0 0,-9-4-3 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,15-1-1 0 0,-3-2 3 0 0,1-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,0-2 1 0 0,41-18-1 0 0,-37 13 212 0 0,0-2 0 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-2-1-1 0 0,0-1 1 0 0,27-40 0 0 0,-39 51 125 0 0,-2 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,6-27 1 0 0,-10 35-262 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-5-6 0 0 0,2 3-83 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-16 0 0 0 0,-1 1-40 0 0,0 2-1 0 0,0 0 1 0 0,1 2-1 0 0,-1 1 1 0 0,-28 10-1 0 0,23-4-136 0 0,0 2-1 0 0,1 1 0 0 0,0 1 1 0 0,2 2-1 0 0,0 1 0 0 0,0 2 1 0 0,-27 24-1 0 0,46-34-719 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-9 16 0 0 0,15-22-38 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,1 10 1 0 0,4 4-1812 0 0</inkml:trace>
 </inkml:ink>
@@ -7009,7 +7012,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">40 156 456 0 0,'5'0'3798'0'0,"-5"0"-3737"0"0,0 7 270 0 0,-1 9 706 0 0,-1-1 0 0 0,-6 29 1 0 0,-2 9 301 0 0,3-14-474 0 0,5-27-508 0 0,0 0-1 0 0,-1 21 1 0 0,-7 30 1575 0 0,13-63-1798 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,4-1 1 0 0,-4 1-115 0 0,17-4-9 0 0,-1 1-1 0 0,2 1 0 0 0,-1 0 1 0 0,0 2-1 0 0,0 0 1 0 0,1 2-1 0 0,-1 0 0 0 0,0 1 1 0 0,23 5-1 0 0,-17-1 28 0 0,0 1 0 0 0,0 1-1 0 0,0 2 1 0 0,-1 0-1 0 0,-1 2 1 0 0,27 16 0 0 0,-41-21 142 0 0,-1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,10 17 0 0 0,-14-21-71 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 9 1 0 0,-1-10 87 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-6 3-1 0 0,-10 4 227 0 0,-1 0 1 0 0,-24 7-1 0 0,35-13-350 0 0,-33 8 5 0 0,-1-1 0 0 0,-1-2 0 0 0,1-3 0 0 0,-1-1-1 0 0,-52-3 1 0 0,60-4-479 0 0,35 2 142 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-2-1 1 0 0,3 1-101 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-2-1 0 0,15-17-3802 0 0,13-13-618 0 0,-11 15 2894 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="419.47">96 207 328 0 0,'-16'-6'9467'0'0,"17"6"-8811"0"0,11 3 1157 0 0,166 6 1652 0 0,-98-10-2873 0 0,1 0-49 0 0,133 15-1 0 0,-202-11-1162 0 0,-26 6-10763 0 0,7-6 9743 0 0,1 0-871 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.34">1390 483 980 0 0,'21'3'2931'0'0,"-20"-3"-2882"0"0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,-73 79 4679 0 0,59-65-4380 0 0,1 1 0 0 0,0 1 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-10 25 0 0 0,21-42-330 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 2-1 0 0,-2-1 9 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,4 1-1 0 0,1-1-14 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,5-11 0 0 0,-8 15-2 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-5-3 0 0 0,-4-4 7 0 0,-1 1-1 0 0,0 0 1 0 0,-18-9-1 0 0,-24-12 49 0 0,27 16 145 0 0,2-1 0 0 0,-40-29 0 0 0,55 36-117 0 0,7 7 53 0 0,0-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-4-5 0 0 0,8 8-119 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,0 1-4 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,3 0 0 0 0,6-3-122 0 0,0 2-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1-1 0 0,19 2 1 0 0,-29-2 69 0 0,4 0-594 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,9 6 0 0 0,14 6-3396 0 0,-1-2-1326 0 0,-13-6 3085 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.33">1390 483 980 0 0,'21'3'2931'0'0,"-20"-3"-2882"0"0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,-73 79 4679 0 0,59-65-4380 0 0,1 1 0 0 0,0 1 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-10 25 0 0 0,21-42-330 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 2-1 0 0,-2-1 9 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,4 1-1 0 0,1-1-14 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,5-11 0 0 0,-8 15-2 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-5-3 0 0 0,-4-4 7 0 0,-1 1-1 0 0,0 0 1 0 0,-18-9-1 0 0,-24-12 49 0 0,27 16 145 0 0,2-1 0 0 0,-40-29 0 0 0,55 36-117 0 0,7 7 53 0 0,0-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-4-5 0 0 0,8 8-119 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,1-2-1 0 0,0 1-4 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,3 0 0 0 0,6-3-122 0 0,0 2-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1-1 0 0,19 2 1 0 0,-29-2 69 0 0,4 0-594 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,9 6 0 0 0,14 6-3396 0 0,-1-2-1326 0 0,-13-6 3085 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1637.95">1545 525 476 0 0,'1'9'3293'0'0,"0"-8"-3164"0"0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 1 0 0,-3 6 519 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 11 1 0 0,0-15-566 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,6 7-1 0 0,-7-10-62 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,2 0-1 0 0,-1-1-6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,4-4 0 0 0,6-5 65 0 0,-2 0 1 0 0,1-1-1 0 0,-1-1 0 0 0,11-16 1 0 0,-19 25-17 0 0,36-62 3713 0 0,-35 59-1156 0 0,-1 14-1875 0 0,-2-4-650 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 4-1 0 0,0-4-92 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,3 5 1 0 0,1 5-228 0 0,5 5-1359 0 0,-6-14 578 0 0,-4-4 710 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-1 1 0 0,5-2-1032 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,6-4 1 0 0,-3 2-41 0 0,5-5-140 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1980.5">2005 552 496 0 0,'44'-39'8071'0'0,"-43"39"-7673"0"0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,6 28 3052 0 0,4 42-1712 0 0,-9-62-1749 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,6 14-1 0 0,-4-6-1121 0 0,-4-9-1700 0 0,-13-31-12402 0 0,8 13 12822 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2321.83">1921 552 624 0 0,'-5'-3'930'0'0,"0"0"1"0"0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-5-7 0 0 0,2 2 5070 0 0,21 6-3917 0 0,23-3-1087 0 0,0 2-1 0 0,38 2 0 0 0,10-1-4833 0 0,-70 1 954 0 0,0 1 0 0 0,0-2 0 0 0,14-4 0 0 0,-13-1 330 0 0</inkml:trace>
@@ -7220,7 +7223,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">37 1 356 0 0,'2'12'7054'0'0,"5"-7"-5363"0"0,-7-4-1291 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,4 6 1835 0 0,-6-7-2096 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 4 295 0 0,2 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,3 7 1 0 0,4 13 223 0 0,5 35 425 0 0,5 18-215 0 0,-14-59-596 0 0,6 33-1 0 0,-8-32-60 0 0,10 33 1 0 0,-9-37-119 0 0,0 1-1 0 0,-2-1 1 0 0,3 29 0 0 0,-5-28-24 0 0,2 0 1 0 0,1 0-1 0 0,7 27 0 0 0,-7-34-13 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,2 21-1 0 0,1 10 205 0 0,0 22 157 0 0,-5 22 210 0 0,-5-79-449 0 0,-1 3 40 0 0,6-10-214 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 21 0 0,29-1 51 0 0,194-35-1914 0 0,-196 28 1001 0 0,0-5-3990 0 0,-27 12 4285 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-2 1 0 0,-7-10-2435 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.94">6 67 568 0 0,'-5'0'6033'0'0,"5"2"-5786"0"0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 0 1 0 0,8 1 564 0 0,0-1 0 0 0,1-1 0 0 0,15-2 0 0 0,-21 3-498 0 0,266-26 3833 0 0,-92 24-7918 0 0,-146 2-2801 0 0,53-7 0 0 0,-76 6 5110 0 0,14-2-1667 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.91">6 67 568 0 0,'-5'0'6033'0'0,"5"2"-5786"0"0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 0 1 0 0,8 1 564 0 0,0-1 0 0 0,1-1 0 0 0,15-2 0 0 0,-21 3-498 0 0,266-26 3833 0 0,-92 24-7918 0 0,-146 2-2801 0 0,53-7 0 0 0,-76 6 5110 0 0,14-2-1667 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7428,7 +7431,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91396.72">23376 3441 916 0 0,'-14'11'2021'0'0,"14"-11"-1993"0"0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,29-1 1409 0 0,-19-1-1359 0 0,33-2-335 0 0,50-12 0 0 0,-2-10-2822 0 0,-57 15 1833 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89070.6">21131 3267 1212 0 0,'1'0'236'0'0,"0"1"1"0"0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 3 0 0 0,12 41 1364 0 0,-7-20-750 0 0,7 9-329 0 0,21 43 1 0 0,-27-64-635 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,14 12 0 0 0,-22-22-81 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-2 0 0 0,7-6-1297 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89412.61">21400 3252 108 0 0,'0'-1'123'0'0,"0"0"0"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-15 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-3 3 359 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-4 7 0 0 0,-4 10 520 0 0,1 1 0 0 0,1 0 0 0 0,-10 43-1 0 0,-11 87-267 0 0,26-136-1093 0 0,1 1 0 0 0,1-1 0 0 0,1 21 1 0 0,0-35 58 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-3 4 0 0 0,3-6 11 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-2-1-1067 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89752.94">21076 3612 420 0 0,'-1'0'96'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1-2 657 0 0,3 0-330 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,8-1-1 0 0,0 0 1 0 0,37-13-7 0 0,0 2 0 0 0,59-9 0 0 0,16-5-4651 0 0,-49 5-1429 0 0,-51 16 4133 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89752.93">21076 3612 420 0 0,'-1'0'96'0'0,"1"0"1"0"0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,1-2 657 0 0,3 0-330 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,8-1-1 0 0,0 0 1 0 0,37-13-7 0 0,0 2 0 0 0,59-9 0 0 0,16-5-4651 0 0,-49 5-1429 0 0,-51 16 4133 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="90308.75">22141 3024 792 0 0,'0'0'913'0'0,"-6"7"993"0"0,-18 55 719 0 0,13-40-1597 0 0,-13 36 1 0 0,-1 6 120 0 0,15-44-709 0 0,2 0 0 0 0,-9 29 0 0 0,16-41-404 0 0,-1 8 336 0 0,3-16-353 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,2 0-1 0 0,12-1 25 0 0,0-1 0 0 0,-1 0 0 0 0,19-5-1 0 0,-18 3-50 0 0,-1 1 0 0 0,1 1 0 0 0,18-1-1 0 0,-11 3 30 0 0,0 0 0 0 0,-1 2 0 0 0,36 7 0 0 0,-50-8 15 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,6 7 0 0 0,-2 4 159 0 0,-1-1-1 0 0,0 2 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 1 0 0,2 21-1 0 0,-6-31-50 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-9 7-1 0 0,4-5 24 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 0 0 0,-17 5 0 0 0,-92 9 282 0 0,108-16-433 0 0,-14 2-118 0 0,-56 3 317 0 0,73-6-509 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,-12-6 0 0 0,19 7 116 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,1-1-205 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-2 1 0 0,5-5-975 0 0,-1 1 0 0 0,1 0 0 0 0,9-8 0 0 0,-14 14 1215 0 0,18-18-1587 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="90682.99">22245 3108 204 0 0,'-35'-19'3386'0'0,"58"20"4860"0"0,94-2-6777 0 0,-3-6-1253 0 0,6-1-853 0 0,-39 6-3184 0 0,-31 2-2650 0 0,-35 0 4599 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="87968.67">19849 3543 968 0 0,'-6'11'2856'0'0,"5"-7"-981"0"0,4-7-167 0 0,16-22-361 0 0,15-27 1 0 0,-2 2-760 0 0,-1 2-64 0 0,-1-2 0 0 0,39-91 0 0 0,-43 71 72 0 0,12-28 1008 0 0,-33 78-917 0 0,-5 19-445 0 0,0 13-204 0 0,-10 90 644 0 0,2 15 684 0 0,1 0-364 0 0,5-32-661 0 0,3 70-123 0 0,9 21-1068 0 0,-9-123-1940 0 0,-1-34-636 0 0,2-25-1293 0 0,1-5 2491 0 0,-2-2-31 0 0,8-4 349 0 0</inkml:trace>
@@ -7444,10 +7447,10 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167705.9">1 7707 208 0 0,'0'0'1754'0'0,"5"11"-1169"0"0,1 1-109 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 15 0 0 0,11 37 792 0 0,11 26-300 0 0,12 30-370 0 0,-18-69-490 0 0,3-1 0 0 0,2 0 1 0 0,2-2-1 0 0,3-1 0 0 0,1-2 1 0 0,50 55-1 0 0,-39-54-89 0 0,2-2 0 0 0,83 64-1 0 0,-72-69-55 0 0,1 2 143 0 0,2-2 1 0 0,119 60-1 0 0,-86-61-44 0 0,1-3 0 0 0,157 36 1 0 0,-77-40 3 0 0,1-9 0 0 0,248 3 1 0 0,285-41 707 0 0,-483 6-624 0 0,354-33 51 0 0,-2-26-128 0 0,-551 64-65 0 0,352-46 148 0 0,132-17 19 0 0,-216 33-182 0 0,1644-203 210 0 0,-1231 133-154 0 0,47-7-12 0 0,-46 10-114 0 0,-279 37 144 0 0,266-38-99 0 0,913-116-16 0 0,-544 71-4 0 0,-707 97 73 0 0,1099-141 86 0 0,-872 126-97 0 0,774-76 24 0 0,-644 72-34 0 0,304-25-3 0 0,638 9 30 0 0,75 100-43 0 0,-470 89 136 0 0,-299 70 310 0 0,-666-99 128 0 0,344 138-1 0 0,-360-96 100 0 0,406 237 0 0 0,-255-97-512 0 0,-230-137-29 0 0,174 90 9 0 0,-223-139-104 0 0,-147-69-8 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,8-1 0 0 0,-10 0-3 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-3 0 0 0,71-184 28 0 0,-72 187-38 0 0,10-25-9 0 0,2 0 0 0 0,0 0 0 0 0,2 1 0 0 0,0 0 0 0 0,2 2 0 0 0,33-39 0 0 0,-13 22-22 0 0,3 1-1 0 0,67-52 0 0 0,19 0 11 0 0,4 5-1 0 0,3 7 1 0 0,4 5-1 0 0,147-56 1 0 0,3 19 35 0 0,308-74 1 0 0,109 35 27 0 0,9 57-26 0 0,744-8-43 0 0,4 65 40 0 0,-1216 32 4 0 0,1231-16-45 0 0,-136 4 54 0 0,-668 6-38 0 0,874-19 74 0 0,106-6-88 0 0,-453 13 56 0 0,1477-8-61 0 0,-1710 24 89 0 0,670 9-50 0 0,559 56 178 0 0,-1779-40-167 0 0,956 49 58 0 0,-67 24 82 0 0,-424-28-185 0 0,-387-29 54 0 0,556 35-83 0 0,0-25 98 0 0,-231-48-64 0 0,0-25 68 0 0,-705 23-43 0 0,52-1-8 0 0,388-22-33 0 0,-7-44 136 0 0,-463 54 20 0 0,-1-4-1 0 0,-1-3 0 0 0,-2-4 1 0 0,107-55-1 0 0,-125 51-68 0 0,-2-2 0 0 0,-1-4 0 0 0,-3-1-1 0 0,-1-3 1 0 0,90-93 0 0 0,-107 95-100 0 0,-1-1 0 0 0,-2-2 0 0 0,-2-2 1 0 0,-2 0-1 0 0,47-100 0 0 0,-66 120-14 0 0,-2 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-13-52 0 0 0,3 43-108 0 0,-1 0 0 0 0,-1 1 0 0 0,-3 1-1 0 0,0 0 1 0 0,-2 2 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-33-35 0 0 0,-7 2-681 0 0,-2 2 0 0 0,-104-75 0 0 0,0 18-1523 0 0,-5 8-1 0 0,-4 7 1 0 0,-253-105-1 0 0,194 110 625 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170185.62">11956 9557 748 0 0,'0'1'298'0'0,"-1"-1"-1"0"0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,13-8 2014 0 0,26-6-2291 0 0,-23 11 81 0 0,1-1 0 0 0,0 2 1 0 0,0 0-1 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,32 8 0 0 0,-45-8-48 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 4 0 0 0,0 1 62 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-7 7 1 0 0,-7 8 234 0 0,-2-1 1 0 0,0 0 0 0 0,-36 28-1 0 0,20-19 110 0 0,-5 0 805 0 0,40-30-1219 0 0,20-3 37 0 0,-6 1-84 0 0,1 2 1 0 0,-1-1-1 0 0,1 2 0 0 0,-1 0 0 0 0,1 1 1 0 0,15 4-1 0 0,-4 0-6 0 0,-1 1 1 0 0,36 16-1 0 0,-44-14 8 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 1 0 0,-1 2-1 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,15 25 1 0 0,-24-35 24 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 9-1 0 0,-1-12 11 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-3 2 1 0 0,-13 5 77 0 0,0-1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-35-4 0 0 0,21 0-609 0 0,-41-7-1 0 0,74 10 406 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0-1-158 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,39-21-4118 0 0,-41 22 4338 0 0,78-41-6303 0 0,-52 28 4509 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170527.64">12896 9809 348 0 0,'0'0'1497'0'0,"30"6"1440"0"0,43-4-1286 0 0,-28 0-1288 0 0,52-6 1 0 0,-11-3-309 0 0,56-7-2170 0 0,-96 2-1300 0 0,-35 9 2234 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170880.82">13067 9578 416 0 0,'1'-8'3194'0'0,"0"9"-3004"0"0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 3-1 0 0,6 31 1653 0 0,-4-17-897 0 0,2 11 119 0 0,-1 0 0 0 0,0 37 0 0 0,-2-33-542 0 0,8 47 1 0 0,3 18-266 0 0,-13-69-625 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="170880.81">13067 9578 416 0 0,'1'-8'3194'0'0,"0"9"-3004"0"0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,1 3-1 0 0,6 31 1653 0 0,-4-17-897 0 0,2 11 119 0 0,-1 0 0 0 0,0 37 0 0 0,-2-33-542 0 0,8 47 1 0 0,3 18-266 0 0,-13-69-625 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172116.01">14261 9515 320 0 0,'0'0'89'0'0,"0"1"0"0"0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-13 20 465 0 0,8-11 78 0 0,-26 46 1167 0 0,-22 42 284 0 0,47-84-1837 0 0,5-10-110 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-2 6 0 0 0,39-12 348 0 0,-17 1-478 0 0,0 1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 2-1 0 0,0 0 1 0 0,0 1 0 0 0,0 1 0 0 0,22 9 0 0 0,-31-10 31 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,15 14 0 0 0,-18-16 28 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-2 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,3 16 0 0 0,-4-18 13 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-4 8 0 0 0,3-10-4 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-4 1 0 0 0,-27 5 86 0 0,1-2-1 0 0,-1-2 0 0 0,-51 0 1 0 0,-105-18-410 0 0,185 14 115 0 0,-27-5-1129 0 0,32 6 1111 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1-2-1 0 0,15-44-7067 0 0,-8 32 5721 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172452.97">14186 9551 300 0 0,'-1'-1'371'0'0,"0"0"1"0"0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1-4 1507 0 0,26 3 18 0 0,198-17 1077 0 0,-221 20-2965 0 0,14-1-98 0 0,1 2 0 0 0,-1 0 0 0 0,26 4 0 0 0,15 9-4555 0 0,-45-7 1110 0 0,-7-2 1879 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172993.35">14971 9512 832 0 0,'1'1'157'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 3 1 0 0,-3 7 328 0 0,-1-1 1 0 0,0 1-1 0 0,-8 12 0 0 0,-3 7 361 0 0,9-14-546 0 0,5-10-220 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 9 0 0 0,3-13-61 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,3 2 0 0 0,18 12 159 0 0,1-2-1 0 0,1 0 1 0 0,44 16-1 0 0,-40-18-138 0 0,-1 2 0 0 0,47 27 1 0 0,-57-27 131 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-2 0 0 0 0,25 32 0 0 0,-35-42 3 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,3 8 0 0 0,-5-13-82 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 1-1 0 0,-7 6 152 0 0,-1-2-1 0 0,1 1 0 0 0,-2-2 1 0 0,1 1-1 0 0,0-2 0 0 0,-18 5 1 0 0,-82 12 195 0 0,57-12-291 0 0,20-2-447 0 0,0-2 0 0 0,0-2 0 0 0,0-1-1 0 0,-60-4 1 0 0,93 2 67 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-3-1 0 0,0 0-560 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,3-8 0 0 0,1-3-768 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="172993.34">14971 9512 832 0 0,'1'1'157'0'0,"0"0"-1"0"0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 3 1 0 0,-3 7 328 0 0,-1-1 1 0 0,0 1-1 0 0,-8 12 0 0 0,-3 7 361 0 0,9-14-546 0 0,5-10-220 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 9 0 0 0,3-13-61 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,3 2 0 0 0,18 12 159 0 0,1-2-1 0 0,1 0 1 0 0,44 16-1 0 0,-40-18-138 0 0,-1 2 0 0 0,47 27 1 0 0,-57-27 131 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-2 0 0 0 0,25 32 0 0 0,-35-42 3 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,3 8 0 0 0,-5-13-82 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 1-1 0 0,-7 6 152 0 0,-1-2-1 0 0,1 1 0 0 0,-2-2 1 0 0,1 1-1 0 0,0-2 0 0 0,-18 5 1 0 0,-82 12 195 0 0,57-12-291 0 0,20-2-447 0 0,0-2 0 0 0,0-2 0 0 0,0-1-1 0 0,-60-4 1 0 0,93 2 67 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-3-1 0 0,0 0-560 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,3-8 0 0 0,1-3-768 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="173395.06">14937 9440 692 0 0,'-1'0'118'0'0,"1"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1-6 3914 0 0,0 7-3497 0 0,25 7 1790 0 0,1 0-1679 0 0,1-2 0 0 0,0 0 1 0 0,0-2-1 0 0,44-2 0 0 0,-39-1-462 0 0,69 3 714 0 0,-29-1-3242 0 0,-25-1-7099 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="173798.8">15947 9749 336 0 0,'0'1'91'0'0,"1"0"-1"0"0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0-1 0 0,27 1 1453 0 0,-26-1-1272 0 0,51 1 2324 0 0,10-1-1246 0 0,63-7 1 0 0,-84 4-1393 0 0,19-3-560 0 0,-22-6-2627 0 0,-40 12 3088 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-2-1 0 0,0-4-1205 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="174139.97">16232 9530 792 0 0,'-16'16'2201'0'0,"14"-14"-2088"0"0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 3-1 0 0,-2 38 1781 0 0,1-22-732 0 0,3 38-1 0 0,32 158 971 0 0,-18-139-3561 0 0,-15-59-3259 0 0</inkml:trace>
@@ -7456,7 +7459,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176007.61">18422 9767 240 0 0,'43'-3'5272'0'0,"16"-5"-4259"0"0,69-7-1559 0 0,-28 2-3928 0 0,-85 10 3217 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="176691.71">18437 9995 440 0 0,'-9'2'2281'0'0,"17"1"3872"0"0,-8 1-4465 0 0,169-8 1079 0 0,-3-10-6302 0 0,-101 2-3182 0 0,-49 6 4664 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179736.84">20921 9437 704 0 0,'0'0'551'0'0,"-5"6"2234"0"0,24 12 452 0 0,-18-18-2835 0 0,4 0 996 0 0,-6-1-1358 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-3-2 0 0 0,-3-1 42 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-9-2 1 0 0,1 2 77 0 0,1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,-25 4 0 0 0,14 1 277 0 0,0 1-1 0 0,-30 11 1 0 0,28-6-75 0 0,0 2 0 0 0,1 1 1 0 0,1 1-1 0 0,0 1 0 0 0,2 2 0 0 0,0 0 1 0 0,0 1-1 0 0,2 2 0 0 0,1 0 0 0 0,-23 28 1 0 0,30-31-200 0 0,1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-7 23 0 0 0,12-30-116 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,1 1-1 0 0,7 22 1 0 0,-7-26-35 0 0,0-1 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 0 0 0,1-1 1 0 0,11 6-1 0 0,-4-5-2 0 0,0 0 1 0 0,0-1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1-2 0 0 0,-1 0 1 0 0,23-5-1 0 0,-21 3-6 0 0,0-2 0 0 0,-1 1 1 0 0,1-2-1 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0-2-1 0 0,27-23 0 0 0,-38 29 6 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,2-12 0 0 0,-3 16 5 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-6-3-1 0 0,-4 0-10 0 0,-1-1 0 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,-15 1 1 0 0,-19 1-27 0 0,-81 14 0 0 0,94-9-157 0 0,-54 15 1 0 0,79-18-417 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 2-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-16 13 0 0 0,25-19 317 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-2 48 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,13 6-1958 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180540.88">21777 9416 228 0 0,'15'-3'4630'0'0,"-14"3"-4604"0"0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-6-5 1023 0 0,-12-7 325 0 0,5 10-1032 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-21 6 1 0 0,6 1 138 0 0,0 1 1 0 0,0 1 0 0 0,1 1 0 0 0,-32 19 0 0 0,49-24-332 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,2 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-8 19 0 0 0,10-18-24 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,2 18 0 0 0,-1-23-101 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,9 1 0 0 0,4 1-459 0 0,0-2 0 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 0 0 0,26-4 1 0 0,-35 2-456 0 0,-1 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,15-12 0 0 0,-19 12-20 0 0,0 0-1 0 0,0-1 0 0 0,9-12 1 0 0,-1 0-510 0 0,6-2 111 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180540.87">21777 9416 228 0 0,'15'-3'4630'0'0,"-14"3"-4604"0"0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-6-5 1023 0 0,-12-7 325 0 0,5 10-1032 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-21 6 1 0 0,6 1 138 0 0,0 1 1 0 0,0 1 0 0 0,1 1 0 0 0,-32 19 0 0 0,49-24-332 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,2 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-8 19 0 0 0,10-18-24 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 0 0 0,2 18 0 0 0,-1-23-101 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,9 1 0 0 0,4 1-459 0 0,0-2 0 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 0 0 0,26-4 1 0 0,-35 2-456 0 0,-1 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,15-12 0 0 0,-19 12-20 0 0,0 0-1 0 0,0-1 0 0 0,9-12 1 0 0,-1 0-510 0 0,6-2 111 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181078.72">21876 9521 60 0 0,'-5'-38'2130'0'0,"0"-2"3122"0"0,-5 44-2518 0 0,3 19-380 0 0,5-20-2120 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1 3-1 0 0,-2 36 2096 0 0,1-25-1265 0 0,0 0 1 0 0,4 26-1 0 0,12 73 1184 0 0,-12-76-1779 0 0,-4 57 1 0 0,0-32-199 0 0,-1-37-178 0 0,0 0 0 0 0,-2 0-1 0 0,-2 0 1 0 0,-9 31 0 0 0,12-50-16 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-10 18 0 0 0,11-23-42 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-6 4 1 0 0,-11 2 26 0 0,0-1 1 0 0,0-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,0-1 0 0 0,-26 0-1 0 0,-9-2 80 0 0,-74-9-1 0 0,67 5-145 0 0,65 3-64 0 0,25-2-3840 0 0,-18 3 1740 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,7-2 0 0 0,1 0-1087 0 0,1 1 854 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="182831.92">23487 8723 184 0 0,'-10'-2'2558'0'0,"5"1"1638"0"0,-2 11-951 0 0,-106 216 4722 0 0,-3 4-4865 0 0,-88 142-933 0 0,-66 116-848 0 0,51-21-890 0 0,169-355-382 0 0,27-54-23 0 0,15-35-6 0 0,-1-1 0 0 0,-1 0 1 0 0,-21 33-1 0 0,27-48 91 0 0,-8 6-791 0 0,7-15-271 0 0,0-10-473 0 0,3 6-127 0 0,1-1 1 0 0,-1 1-1 0 0,2-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,2-11-1 0 0,0 9 97 0 0,1 0-1 0 0,0 0 0 0 0,4-11 1 0 0,8-10-810 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="183520.84">23351 9659 428 0 0,'-1'-1'131'0'0,"0"1"0"0"0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0-24 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,4-2 0 0 0,3 0 153 0 0,-1 0 0 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,12-1 0 0 0,-8 2 152 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,1 0 0 0 0,21 5 0 0 0,-30-6-271 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 6 0 0 0,-2 3 314 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-8 13 0 0 0,-57 93 2414 0 0,56-98-2464 0 0,-55 85 978 0 0,-63 101-366 0 0,106-161-882 0 0,-34 84 0 0 0,53-113-127 0 0,1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 1 0 0 0,0-1-1 0 0,0 1 1 0 0,3 18 0 0 0,-2-33-6 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,4 0-1 0 0,0-1 7 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,11-7 0 0 0,-8 3 2 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,5-14 0 0 0,-3 5-5 0 0,-1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,3-34 1 0 0,-8 42-27 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-5-11 0 0 0,-3-1-124 0 0,-1 0-1 0 0,-1 1 1 0 0,-30-35 0 0 0,-15-4-108 0 0,-24-30 67 0 0,75 79 174 0 0,0-1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,1 0-1 0 0,-7-17 1 0 0,12 26 5 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-5 0 0 0,-2 3-20 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,8-5 1 0 0,3-2-361 0 0,1 1 0 0 0,1 0 0 0 0,0 2 0 0 0,29-13 0 0 0,90-28-4482 0 0,76-2-7549 0 0,-170 43 10254 0 0</inkml:trace>
@@ -7564,7 +7567,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">35 56 104 0 0,'-34'3'15192'0'0,"42"1"-14568"0"0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,9 0 0 0 0,68 4 91 0 0,-50-5-287 0 0,340 15 890 0 0,-162-8-1073 0 0,319 7 28 0 0,-520-15-272 0 0,501-9 1 0 0,-181 5-82 0 0,-220 5 46 0 0,-76-1 44 0 0,435 8 138 0 0,-409-6-136 0 0,-28-1-2 0 0,0 0-1 0 0,34 7 0 0 0,-58-6-5 0 0,0-2-1 0 0,0 1 1 0 0,0-2-1 0 0,16-1 1 0 0,3 0-136 0 0,-96-1-10936 0 0,-8 0 3050 0 0,28 3 5180 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2366.18">3720 8 400 0 0,'-9'2'1491'0'0,"0"0"-1"0"0,1 0 1 0 0,-1-1-1 0 0,-16 1 1742 0 0,37-2-1079 0 0,102-10 29 0 0,-79 8-2353 0 0,84-2 323 0 0,-40 8-4076 0 0,-70-1 1525 0 0,-9-3 2288 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-9 6-1538 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2366.17">3720 8 400 0 0,'-9'2'1491'0'0,"0"0"-1"0"0,1 0 1 0 0,-1-1-1 0 0,-16 1 1742 0 0,37-2-1079 0 0,102-10 29 0 0,-79 8-2353 0 0,84-2 323 0 0,-40 8-4076 0 0,-70-1 1525 0 0,-9-3 2288 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-9 6-1538 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2697.64">3735 158 1112 0 0,'-2'0'256'0'0,"0"1"-1"0"0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 4 0 0 0,3-5-84 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,2-1 1 0 0,23-2 1371 0 0,132-12 312 0 0,-12 3-6334 0 0,-70 2-610 0 0,-37 5 2758 0 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -8167,7 +8170,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8185,11 +8188,11 @@
     <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="3"/>
     <col min="13" max="13" width="6" style="2"/>
-    <col min="14" max="14" width="6" style="3"/>
-    <col min="15" max="15" width="6" style="2"/>
+    <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="3"/>
     <col min="17" max="17" width="6" style="2"/>
-    <col min="18" max="18" width="6" style="3"/>
+    <col min="18" max="18" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="14"/>
     <col min="20" max="20" width="6" style="3"/>
     <col min="21" max="21" width="6" style="14"/>
@@ -8760,7 +8763,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="8">
+      <c r="N13" s="35">
         <v>46970</v>
       </c>
       <c r="O13" s="7"/>
@@ -8778,6 +8781,9 @@
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>45330</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -8791,9 +8797,15 @@
       <c r="L14" s="8"/>
       <c r="M14" s="7"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="7"/>
+      <c r="O14" s="34">
+        <v>26984</v>
+      </c>
+      <c r="P14" s="35">
+        <v>48389</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>60257</v>
+      </c>
       <c r="R14" s="8"/>
       <c r="S14" s="12"/>
       <c r="T14" s="8"/>
@@ -8820,8 +8832,12 @@
       <c r="M15" s="7"/>
       <c r="N15" s="8"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="35">
+        <v>36869</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>34516</v>
+      </c>
       <c r="R15" s="8"/>
       <c r="S15" s="12"/>
       <c r="T15" s="8"/>
@@ -8834,14 +8850,21 @@
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>45337</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="19"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
@@ -8850,7 +8873,9 @@
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="31">
+        <v>52187</v>
+      </c>
       <c r="S16" s="12"/>
       <c r="T16" s="8"/>
       <c r="U16" s="12"/>
@@ -8878,7 +8903,9 @@
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="8"/>
+      <c r="R17" s="35">
+        <v>63032</v>
+      </c>
       <c r="S17" s="12"/>
       <c r="T17" s="8"/>
       <c r="U17" s="12"/>

--- a/ЕГЭ Арина Равилова.xlsx
+++ b/ЕГЭ Арина Равилова.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE0E665-C8B4-4FD3-B0D6-30B7246645BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A312AC-8E7A-48FB-8B7A-47B66431B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{CA5296CA-54D0-4485-8B16-2D9872EB9581}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Разобрать полностью!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -152,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +300,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6528,7 +6575,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1119 69 480 0 0,'-1'-2'178'0'0,"1"0"1"0"0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,0 1-58 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1-2-1 0 0,1-2 630 0 0,8-15 10801 0 0,-9 29-10985 0 0,0-1-1 0 0,1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,3 8-1 0 0,-3-13-507 0 0,13 55 1947 0 0,-4-25-1660 0 0,-2 0 0 0 0,-1 0 0 0 0,3 45 0 0 0,-4-31-168 0 0,-5-27-140 0 0,0 1-1 0 0,-1 0 0 0 0,-3 20 1 0 0,0 19 24 0 0,1-40-3 0 0,0-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,-10 26 0 0 0,12-36-32 0 0,-3 6 22 0 0,-1-1 0 0 0,-10 19 1 0 0,4-9 9 0 0,8-16-43 0 0,-47 86 152 0 0,44-82-127 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,-12 9 0 0 0,14-13-9 0 0,-3 3 29 0 0,0-1 1 0 0,-1 0-1 0 0,-16 8 0 0 0,-144 49 364 0 0,92-37-340 0 0,67-22-66 0 0,-25 8 100 0 0,0 1-1 0 0,-52 29 1 0 0,80-37-89 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-10 15 0 0 0,15-16-6 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 16 1 0 0,2-22-17 0 0,-1 32 58 0 0,1 0 1 0 0,1 0-1 0 0,2 0 1 0 0,1-1 0 0 0,10 40-1 0 0,22 69-76 0 0,-15-70-791 0 0,-19-68 588 0 0,7 40-3079 0 0,-8-22-1394 0 0,-9-3-3800 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.12">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1228.1">1153 153 600 0 0,'0'0'805'0'0,"5"-15"1830"0"0,-4 14-2460 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2-1 1 0 0,-1 2-29 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 2 1 0 0,14 38 2782 0 0,-11-28-1952 0 0,1 18 718 0 0,0-1-51 0 0,25 100 2964 0 0,15 2-3383 0 0,-39-110-1046 0 0,2 0-1 0 0,14 29 0 0 0,-8-21-28 0 0,0-1-66 0 0,0-1 1 0 0,1 0-1 0 0,2-1 0 0 0,1-1 1 0 0,0 0-1 0 0,2-2 0 0 0,29 27 1 0 0,-21-25 32 0 0,56 39 1 0 0,-70-55-60 0 0,1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,1-1 0 0 0,27 7 0 0 0,-1-5 110 0 0,0 0 0 0 0,68 0 0 0 0,-103-7-152 0 0,38-1 207 0 0,-1 2-1 0 0,86 14 0 0 0,-108-9-114 0 0,0 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 2 0 0 0,25 23 0 0 0,-35-29-51 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,8 21 0 0 0,-3 5 82 0 0,1 6 24 0 0,8 53-1 0 0,-17-84-154 0 0,1 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0-1-1 0 0,10 21 1 0 0,-14-33 12 0 0,6 9-753 0 0,-3-9-568 0 0,-1-6-950 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2750.49">3424 1398 696 0 0,'19'-45'3038'0'0,"-17"40"-2652"0"0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1-8-1 0 0,3-4 10275 0 0,-7 32-6263 0 0,-17 98-1313 0 0,-3 18-1799 0 0,3-13-518 0 0,3-7-244 0 0,5-27-261 0 0,-25 239 47 0 0,34-239-391 0 0,2-47-1290 0 0,0-36 298 0 0,2-5 400 0 0,2-6-277 0 0,10-148-8280 0 0,-9 73 6397 0 0,-1 28 1459 0 0,16-187-1712 0 0,-2 1 3380 0 0,-17 220-51 0 0,0-14 1063 0 0,1 0 0 0 0,15-59 1 0 0,-17 91-914 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,5-6 0 0 0,-6 9-237 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 41 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 3 1 0 0,4 4 335 0 0,1 1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 14 0 0 0,29 70 756 0 0,-16-34-598 0 0,17 48 162 0 0,-19-45-503 0 0,-4-8-102 0 0,12 27 31 0 0,74 171 259 0 0,-62-136-384 0 0,4 12-94 0 0,-41-119-391 0 0,-1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 16-1 0 0,-6-30-274 0 0,-2 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6-4 1 0 0,-99-69-15484 0 0,98 68 14987 0 0,-11-10-1197 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3276.45">3343 2046 584 0 0,'-10'-12'20655'0'0,"40"18"-16310"0"0,44 1-3137 0 0,1-4-1 0 0,97-7 0 0 0,-168 4-1174 0 0,235-18 416 0 0,-220 15-2425 0 0,-15 2-1475 0 0,-12 2 78 0 0,-6 1-632 0 0,-46 4-8703 0 0,39-5 9653 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4946.89">23 2438 720 0 0,'-22'-18'9623'0'0,"26"16"-7412"0"0,-1 11-1244 0 0,-3-6-844 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 4 0 0 0,2 2 33 0 0,-3-7-92 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 2 0 0 0,-3-3-38 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,6-3 185 0 0,-8 5-168 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 1 82 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3-1 0 0 0,2 2-64 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-5 1 0 0 0,7-2-64 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,16 16-76 0 0,-15-15 81 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,3 1 0 0 0,-4 0 0 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1-2 0 0 0,2-6 40 0 0,-2 8-40 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-3-6 170 0 0,3 7-160 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-5 2 24 0 0,4-2-41 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 3-1 0 0,-11 18-5641 0 0,11-13 346 0 0,1 2-3369 0 0,1-6 6300 0 0</inkml:trace>
@@ -6868,7 +6915,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">350 46 24 0 0,'0'0'283'0'0,"-14"3"1159"0"0,14-4-1350 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 425 0 0,16-6 37 0 0,39-13-230 0 0,-51 18-247 0 0,4-1 49 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,11 2-1 0 0,-9-1 55 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,10 12 1 0 0,-12-13-2 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,4 9 0 0 0,-5-10-19 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2 6 1 0 0,-2 2 26 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,-18 21 0 0 0,14-17-32 0 0,4-8-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-18 10 0 0 0,-9 8 269 0 0,4-7 95 0 0,31-18-324 0 0,51-15-170 0 0,-33 12 53 0 0,-1 0-1 0 0,1 1 0 0 0,0 1 1 0 0,0 1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,24 7 1 0 0,1 3 11 0 0,-1 2 1 0 0,65 33 0 0 0,-83-38 46 0 0,29 17 310 0 0,-48-25-343 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,3 5 0 0 0,-5-6 71 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-2 5 0 0 0,1-2 80 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-9 8 1 0 0,-6 3 321 0 0,-2 0-1 0 0,0-2 1 0 0,-1 0 0 0 0,0-1 0 0 0,-45 18 0 0 0,42-22-284 0 0,-1-1 0 0 0,-30 5 0 0 0,40-10-140 0 0,-9 1 4 0 0,0-1 0 0 0,0-1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-2 0 0 0,-41-7 0 0 0,54 7-32 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-13-7 0 0 0,23 11-53 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-3 0 0 0,1 4-28 0 0,14-5-1195 0 0,-7 4-2404 0 0,32-6-9608 0 0,-29 5 10430 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1030.64">1770 451 916 0 0,'8'-4'2381'0'0,"-8"7"-615"0"0,-15 14 370 0 0,-29 23-482 0 0,33-29-1269 0 0,-1 0 0 0 0,2 0-1 0 0,-19 25 1 0 0,28-34-378 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,4-1 0 0 0,-1 1-2 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,3-4 68 0 0,0 0 0 0 0,-1-1 0 0 0,14-18 0 0 0,-9 11 106 0 0,-13 16-150 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 0 2 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,-6-3-7 0 0,-1 1-1 0 0,-19-8 1 0 0,25 11 1 0 0,-47-18 11 0 0,16 7-17 0 0,1-2 0 0 0,-41-22 0 0 0,75 36-19 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,1-2 1 0 0,2-2-3 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,12-4 0 0 0,-3 2 19 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,23-2 0 0 0,-37 5-36 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,7 16-3236 0 0,-6-10 1588 0 0,-3-7 1326 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 5-1191 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1030.62">1770 451 916 0 0,'8'-4'2381'0'0,"-8"7"-615"0"0,-15 14 370 0 0,-29 23-482 0 0,33-29-1269 0 0,-1 0 0 0 0,2 0-1 0 0,-19 25 1 0 0,28-34-378 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,4-1 0 0 0,-1 1-2 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,4-3 0 0 0,3-4 68 0 0,0 0 0 0 0,-1-1 0 0 0,14-18 0 0 0,-9 11 106 0 0,-13 16-150 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 0 2 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-2-1 0 0 0,-6-3-7 0 0,-1 1-1 0 0,-19-8 1 0 0,25 11 1 0 0,-47-18 11 0 0,16 7-17 0 0,1-2 0 0 0,-41-22 0 0 0,75 36-19 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,1-2 1 0 0,2-2-3 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,12-4 0 0 0,-3 2 19 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,23-2 0 0 0,-37 5-36 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,7 16-3236 0 0,-6-10 1588 0 0,-3-7 1326 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 2-1 0 0,0 5-1191 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1584.97">1991 457 900 0 0,'30'-3'5184'0'0,"-26"10"-2761"0"0,-5-3-2263 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,4 5 0 0 0,0-5-152 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,8 0 0 0 0,-12-2-7 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,3-1-1 0 0,3-4 14 0 0,0 0-1 0 0,-1-1 1 0 0,9-11-1 0 0,4-5 25 0 0,-3-2 1103 0 0,-12 17 432 0 0,-10 17 40 0 0,4-4-1448 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0 4 1 0 0,0-8-102 0 0,0 10 18 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,3 11-1 0 0,-4-19-328 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4 2 0 0 0,-4-2-31 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1-2-1 0 0,34-23-5437 0 0,-22 17 4247 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2062.9">2470 505 364 0 0,'10'-10'1539'0'0,"21"-18"1117"0"0,-30 28-2449 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,2 2 1 0 0,-2-2-35 0 0,1 2-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 2 0 0 0,-1 34 796 0 0,0-22-624 0 0,1 52-361 0 0,0-67-14 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-7-4-1658 0 0,-5-6-583 0 0,8 4 1488 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-11-5 1 0 0,-46-19-1359 0 0,29 14 2451 0 0,8-1 444 0 0,26 16-722 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 1 0 0,6-3 447 0 0,-4 1-130 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,6-1 0 0 0,10-3 641 0 0,1 2 1 0 0,-1 0-1 0 0,24-1 1 0 0,-27 4-1044 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,19 3 0 0 0,-35-5-2 0 0,6 2-1007 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,13-2 0 0 0,-6-1-959 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2790.97">3031 463 432 0 0,'9'0'2363'0'0,"-8"-1"-2358"0"0,1-1 245 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-4 1 0 0,-3 6-192 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 15 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-3 0-1 0 0,-7 1 178 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,-15 11 0 0 0,20-11-212 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 6 0 0 0,0-1-11 0 0,6-9-29 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,5-2 0 0 0,2-2 28 0 0,-2 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,12-12 0 0 0,20-13 640 0 0,-29 22 17 0 0,-3 4 582 0 0,-6 23 193 0 0,0-10-1261 0 0,-1 1 0 0 0,2-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,8 12 1 0 0,-6-9-175 0 0,-5-10-24 0 0,21 36-1110 0 0,-20-35 625 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,3 1 1 0 0,1 3-2427 0 0</inkml:trace>
@@ -6944,7 +6991,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">187 296 284 0 0,'-10'-66'5945'0'0,"8"29"-2159"0"0,-1 21 2158 0 0,6 85-4786 0 0,2 0 1 0 0,27 126-1 0 0,-3-45-1129 0 0,8 41-54 0 0,-33-176-23 0 0,1 2-430 0 0,-2 1-1 0 0,1-1 1 0 0,-1 20-1 0 0,-2-36 351 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-2 1 1 0 0,2-2-13 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-17-32-3797 0 0,-6-54 67 0 0,9 31 2151 0 0,-4 8 487 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="416.41">81 332 372 0 0,'-64'-155'3804'0'0,"49"92"-1468"0"0,15 62-2265 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 22 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2 1-1 0 0,3 0 173 0 0,1 0-1 0 0,-1 1 1 0 0,1 1 0 0 0,-1-1-1 0 0,9 6 1 0 0,36 20 366 0 0,-2 2 1 0 0,-1 2-1 0 0,-2 3 0 0 0,50 46 0 0 0,-46-37-463 0 0,13 14-2 0 0,-3 3-72 0 0,49 53-42 0 0,59 63-8 0 0,-148-150-15 0 0,-17-21 143 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,11 7-1 0 0,-15-13-105 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,3-18 1074 0 0,1-27 313 0 0,-3 36-1281 0 0,-1-1-1 0 0,0 0 1 0 0,0-14 0 0 0,-14-106-252 0 0,-6 0 0 0 0,-49-177 0 0 0,57 266-694 0 0,-8-31-3983 0 0,9 52-2590 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.45">1361 377 780 0 0,'15'1'7709'0'0,"0"0"-5101"0"0,26 1-2296 0 0,129-12 176 0 0,-56 7-4239 0 0,-101 2 2876 0 0,-1-1-4381 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1234.61">1556 458 628 0 0,'-30'15'1430'0'0,"24"-12"-897"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6 6 0 0 0,12-10-481 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,19 5 744 0 0,17-6-924 0 0,66-10-1 0 0,32-21-5698 0 0,-100 22 4065 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1234.59">1556 458 628 0 0,'-30'15'1430'0'0,"24"-12"-897"0"0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-6 6 0 0 0,12-10-481 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,19 5 744 0 0,17-6-924 0 0,66-10-1 0 0,32-21-5698 0 0,-100 22 4065 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2005">2467 149 84 0 0,'-4'1'353'0'0,"-1"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,-4 1 0 0 0,-19 6 676 0 0,-32 3 2051 0 0,57-11-2874 0 0,-4 1 741 0 0,9-3-179 0 0,17-4-472 0 0,13 0-250 0 0,0 1 0 0 0,0 1 0 0 0,41 3 0 0 0,-53 0-28 0 0,9 0 40 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 2 0 0 0,0 1 0 0 0,40 13 0 0 0,-65-18-11 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,2 5 0 0 0,-2-2 104 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-8 10-1 0 0,-7 8 258 0 0,-2-2-1 0 0,-1 0 0 0 0,0-1 1 0 0,-49 35-1 0 0,9-6 106 0 0,-58 52 334 0 0,45-42-485 0 0,73-59-362 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 4 1 0 0,1-5 2 0 0,30 6 440 0 0,40-9-171 0 0,110-20 1 0 0,-46 4-316 0 0,-44 6-744 0 0,-54 5-3990 0 0,-35 7 4567 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-2 1 0 0,2-5-2729 0 0,2 1 1024 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2500.35">3336 353 268 0 0,'-12'33'8289'0'0,"-16"37"-6027"0"0,25-59-2154 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,1 0 0 0 0,11 15 0 0 0,-13-20-66 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,13 4 0 0 0,-9-4-3 0 0,1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,15-1-1 0 0,-3-2 3 0 0,1-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,0-2 1 0 0,41-18-1 0 0,-37 13 212 0 0,0-2 0 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,-1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-2-1-1 0 0,0-1 1 0 0,27-40 0 0 0,-39 51 125 0 0,-2 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,6-27 1 0 0,-10 35-262 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-5-6 0 0 0,2 3-83 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,-16 0 0 0 0,-1 1-40 0 0,0 2-1 0 0,0 0 1 0 0,1 2-1 0 0,-1 1 1 0 0,-28 10-1 0 0,23-4-136 0 0,0 2-1 0 0,1 1 0 0 0,0 1 1 0 0,2 2-1 0 0,0 1 0 0 0,0 2 1 0 0,-27 24-1 0 0,46-34-719 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-9 16 0 0 0,15-22-38 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,1 10 1 0 0,4 4-1812 0 0</inkml:trace>
 </inkml:ink>
@@ -8163,14 +8210,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8193,11 +8240,11 @@
     <col min="16" max="16" width="6" style="3"/>
     <col min="17" max="17" width="6" style="2"/>
     <col min="18" max="18" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" style="14"/>
-    <col min="20" max="20" width="6" style="3"/>
+    <col min="19" max="19" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" style="14"/>
     <col min="22" max="22" width="6" style="3"/>
-    <col min="23" max="23" width="6" style="2"/>
+    <col min="23" max="23" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="3"/>
     <col min="25" max="25" width="6" style="14"/>
     <col min="26" max="26" width="6" style="15"/>
@@ -8886,7 +8933,7 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -8916,7 +8963,8 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -8934,7 +8982,9 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="9">
+        <v>48465</v>
+      </c>
       <c r="T18" s="8"/>
       <c r="U18" s="12"/>
       <c r="V18" s="8"/>
@@ -8944,7 +8994,7 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="12"/>
     </row>
-    <row r="19" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -8962,7 +9012,9 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="34">
+        <v>55604</v>
+      </c>
       <c r="T19" s="8"/>
       <c r="U19" s="12"/>
       <c r="V19" s="8"/>
@@ -8972,7 +9024,10 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="12"/>
     </row>
-    <row r="20" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>45344</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -8991,16 +9046,20 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="8"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="31">
+        <v>59787</v>
+      </c>
       <c r="U20" s="12"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7">
+        <v>35481</v>
+      </c>
       <c r="X20" s="8"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="12"/>
     </row>
-    <row r="21" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -9019,7 +9078,9 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="8"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="8"/>
+      <c r="T21" s="33">
+        <v>61364</v>
+      </c>
       <c r="U21" s="12"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -9028,38 +9089,38 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9152,6 +9213,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
